--- a/配置表/Levelcondition.xlsx
+++ b/配置表/Levelcondition.xlsx
@@ -1996,8 +1996,8 @@
   <sheetPr/>
   <dimension ref="A1:V136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>

--- a/配置表/Levelcondition.xlsx
+++ b/配置表/Levelcondition.xlsx
@@ -52,6 +52,28 @@
           </rPr>
           <t xml:space="preserve">
 得分除以3000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yingc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+完成一次游戏后总得分除以3000</t>
         </r>
       </text>
     </comment>
@@ -1441,6 +1463,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1448,9 +1473,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1996,8 +2018,8 @@
   <sheetPr/>
   <dimension ref="A1:V136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -2169,12 +2191,12 @@
       <c r="P4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
     </row>
     <row r="5" ht="16.5" spans="2:22">
       <c r="B5" s="14">
@@ -2186,7 +2208,7 @@
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="14">
-        <v>301011</v>
+        <v>2000001</v>
       </c>
       <c r="H5" s="14">
         <v>5</v>
@@ -2194,7 +2216,7 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="17"/>
+      <c r="J5" s="18"/>
       <c r="K5">
         <v>0</v>
       </c>
@@ -2207,17 +2229,15 @@
       <c r="O5" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="18"/>
     </row>
     <row r="6" ht="16.5" spans="2:22">
-      <c r="B6" s="14">
-        <v>30101</v>
-      </c>
+      <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15" t="s">
         <v>33</v>
@@ -2228,7 +2248,7 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="17"/>
+      <c r="J6" s="18"/>
       <c r="K6">
         <v>1</v>
       </c>
@@ -2241,19 +2261,17 @@
       <c r="O6" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="17">
-        <v>3000</v>
-      </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="17"/>
+      <c r="P6" s="18">
+        <v>3000</v>
+      </c>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="18"/>
     </row>
     <row r="7" ht="16.5" spans="2:22">
-      <c r="B7" s="14">
-        <v>30101</v>
-      </c>
+      <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
         <v>34</v>
@@ -2264,7 +2282,7 @@
       <c r="I7">
         <v>60000</v>
       </c>
-      <c r="J7" s="17"/>
+      <c r="J7" s="18"/>
       <c r="K7">
         <v>2</v>
       </c>
@@ -2277,17 +2295,15 @@
       <c r="O7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="17"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="18"/>
     </row>
     <row r="8" ht="16.5" spans="2:22">
-      <c r="B8" s="14">
-        <v>30101</v>
-      </c>
+      <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
         <v>35</v>
@@ -2298,7 +2314,7 @@
       <c r="I8">
         <v>150000</v>
       </c>
-      <c r="J8" s="17"/>
+      <c r="J8" s="18"/>
       <c r="K8">
         <v>3</v>
       </c>
@@ -2311,17 +2327,15 @@
       <c r="O8" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="17"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="18"/>
     </row>
     <row r="9" ht="16.5" spans="2:22">
-      <c r="B9" s="14">
-        <v>30101</v>
-      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="14">
         <v>30102</v>
       </c>
@@ -2334,7 +2348,7 @@
       <c r="I9">
         <v>300000</v>
       </c>
-      <c r="J9" s="17"/>
+      <c r="J9" s="18"/>
       <c r="K9">
         <v>4</v>
       </c>
@@ -2347,17 +2361,15 @@
       <c r="O9" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="18"/>
     </row>
     <row r="10" ht="16.5" spans="2:22">
-      <c r="B10" s="14">
-        <v>30101</v>
-      </c>
+      <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
         <v>37</v>
@@ -2368,7 +2380,7 @@
       <c r="I10">
         <v>500000</v>
       </c>
-      <c r="J10" s="17"/>
+      <c r="J10" s="18"/>
       <c r="K10">
         <v>5</v>
       </c>
@@ -2381,12 +2393,12 @@
       <c r="O10" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="18"/>
     </row>
     <row r="11" ht="16.5" spans="2:22">
       <c r="B11" s="14">
@@ -2397,8 +2409,8 @@
         <v>38</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="14">
-        <v>301021</v>
+      <c r="G11" s="17">
+        <v>2000007</v>
       </c>
       <c r="H11" s="14">
         <v>5</v>
@@ -2415,15 +2427,13 @@
       <c r="O11" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="17"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="17"/>
+      <c r="R11" s="18"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="18"/>
     </row>
     <row r="12" ht="16.5" spans="2:22">
-      <c r="B12" s="14">
-        <v>30102</v>
-      </c>
+      <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
         <v>33</v>
@@ -2434,7 +2444,7 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="17"/>
+      <c r="J12" s="18"/>
       <c r="K12">
         <v>1</v>
       </c>
@@ -2447,17 +2457,15 @@
       <c r="O12" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="17"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="18"/>
     </row>
     <row r="13" ht="16.5" spans="2:22">
-      <c r="B13" s="14">
-        <v>30102</v>
-      </c>
+      <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15" t="s">
         <v>34</v>
@@ -2468,7 +2476,7 @@
       <c r="I13">
         <v>60000</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="J13" s="18"/>
       <c r="K13">
         <v>2</v>
       </c>
@@ -2481,17 +2489,15 @@
       <c r="O13" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="17"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="18"/>
     </row>
     <row r="14" ht="16.5" spans="2:22">
-      <c r="B14" s="14">
-        <v>30102</v>
-      </c>
+      <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15" t="s">
         <v>35</v>
@@ -2502,7 +2508,7 @@
       <c r="I14">
         <v>150000</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="18"/>
       <c r="K14">
         <v>3</v>
       </c>
@@ -2515,17 +2521,15 @@
       <c r="O14" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="17"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="18"/>
     </row>
     <row r="15" ht="16.5" spans="2:22">
-      <c r="B15" s="14">
-        <v>30102</v>
-      </c>
+      <c r="B15" s="14"/>
       <c r="C15" s="14">
         <v>30103</v>
       </c>
@@ -2538,7 +2542,7 @@
       <c r="I15">
         <v>300000</v>
       </c>
-      <c r="J15" s="17"/>
+      <c r="J15" s="18"/>
       <c r="K15">
         <v>4</v>
       </c>
@@ -2551,17 +2555,15 @@
       <c r="O15" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="18"/>
     </row>
     <row r="16" ht="16.5" spans="2:22">
-      <c r="B16" s="14">
-        <v>30102</v>
-      </c>
+      <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
         <v>37</v>
@@ -2572,7 +2574,7 @@
       <c r="I16">
         <v>500000</v>
       </c>
-      <c r="J16" s="17"/>
+      <c r="J16" s="18"/>
       <c r="K16">
         <v>5</v>
       </c>
@@ -2585,12 +2587,12 @@
       <c r="O16" t="s">
         <v>32</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="17"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="18"/>
     </row>
     <row r="17" ht="16.5" spans="2:22">
       <c r="B17" s="14">
@@ -2601,8 +2603,8 @@
         <v>39</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="14">
-        <v>301031</v>
+      <c r="G17" s="17">
+        <v>2000013</v>
       </c>
       <c r="H17" s="14">
         <v>5</v>
@@ -2619,15 +2621,13 @@
       <c r="O17" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="17"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="17"/>
+      <c r="R17" s="18"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="18"/>
     </row>
     <row r="18" ht="16.5" spans="2:22">
-      <c r="B18" s="14">
-        <v>30103</v>
-      </c>
+      <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
         <v>33</v>
@@ -2638,7 +2638,7 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="17"/>
+      <c r="J18" s="18"/>
       <c r="K18">
         <v>1</v>
       </c>
@@ -2651,17 +2651,15 @@
       <c r="O18" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="17"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="18"/>
     </row>
     <row r="19" ht="16.5" spans="2:22">
-      <c r="B19" s="14">
-        <v>30103</v>
-      </c>
+      <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15" t="s">
         <v>34</v>
@@ -2672,7 +2670,7 @@
       <c r="I19">
         <v>60000</v>
       </c>
-      <c r="J19" s="17"/>
+      <c r="J19" s="18"/>
       <c r="K19">
         <v>2</v>
       </c>
@@ -2685,17 +2683,15 @@
       <c r="O19" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="17"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="18"/>
     </row>
     <row r="20" ht="16.5" spans="2:22">
-      <c r="B20" s="14">
-        <v>30103</v>
-      </c>
+      <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15" t="s">
         <v>35</v>
@@ -2706,7 +2702,7 @@
       <c r="I20">
         <v>150000</v>
       </c>
-      <c r="J20" s="17"/>
+      <c r="J20" s="18"/>
       <c r="K20">
         <v>3</v>
       </c>
@@ -2719,17 +2715,15 @@
       <c r="O20" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="18"/>
     </row>
     <row r="21" ht="16.5" spans="2:22">
-      <c r="B21" s="14">
-        <v>30103</v>
-      </c>
+      <c r="B21" s="14"/>
       <c r="C21" s="14">
         <v>30104</v>
       </c>
@@ -2742,7 +2736,7 @@
       <c r="I21">
         <v>300000</v>
       </c>
-      <c r="J21" s="17"/>
+      <c r="J21" s="18"/>
       <c r="K21">
         <v>4</v>
       </c>
@@ -2755,17 +2749,15 @@
       <c r="O21" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="17"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="18"/>
     </row>
     <row r="22" ht="16.5" spans="2:22">
-      <c r="B22" s="14">
-        <v>30103</v>
-      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15" t="s">
         <v>37</v>
@@ -2776,7 +2768,7 @@
       <c r="I22">
         <v>500000</v>
       </c>
-      <c r="J22" s="17"/>
+      <c r="J22" s="18"/>
       <c r="K22">
         <v>5</v>
       </c>
@@ -2789,12 +2781,12 @@
       <c r="O22" t="s">
         <v>32</v>
       </c>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="17"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="18"/>
     </row>
     <row r="23" ht="16.5" spans="2:22">
       <c r="B23" s="14">
@@ -2805,8 +2797,8 @@
         <v>40</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="14">
-        <v>301041</v>
+      <c r="G23" s="17">
+        <v>2000019</v>
       </c>
       <c r="H23" s="14">
         <v>5</v>
@@ -2823,15 +2815,13 @@
       <c r="O23" t="s">
         <v>32</v>
       </c>
-      <c r="R23" s="17"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="17"/>
+      <c r="R23" s="18"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="18"/>
     </row>
     <row r="24" ht="16.5" spans="2:22">
-      <c r="B24" s="14">
-        <v>30104</v>
-      </c>
+      <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15" t="s">
         <v>33</v>
@@ -2842,7 +2832,7 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="17"/>
+      <c r="J24" s="18"/>
       <c r="K24">
         <v>1</v>
       </c>
@@ -2855,17 +2845,15 @@
       <c r="O24" t="s">
         <v>32</v>
       </c>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="17"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="18"/>
     </row>
     <row r="25" ht="16.5" spans="2:22">
-      <c r="B25" s="14">
-        <v>30104</v>
-      </c>
+      <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15" t="s">
         <v>34</v>
@@ -2876,7 +2864,7 @@
       <c r="I25">
         <v>60000</v>
       </c>
-      <c r="J25" s="17"/>
+      <c r="J25" s="18"/>
       <c r="K25">
         <v>2</v>
       </c>
@@ -2889,17 +2877,15 @@
       <c r="O25" t="s">
         <v>32</v>
       </c>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="17"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="18"/>
     </row>
     <row r="26" ht="16.5" spans="2:22">
-      <c r="B26" s="14">
-        <v>30104</v>
-      </c>
+      <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15" t="s">
         <v>35</v>
@@ -2910,7 +2896,7 @@
       <c r="I26">
         <v>150000</v>
       </c>
-      <c r="J26" s="17"/>
+      <c r="J26" s="18"/>
       <c r="K26">
         <v>3</v>
       </c>
@@ -2923,17 +2909,15 @@
       <c r="O26" t="s">
         <v>32</v>
       </c>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="17"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="18"/>
     </row>
     <row r="27" ht="16.5" spans="2:22">
-      <c r="B27" s="14">
-        <v>30104</v>
-      </c>
+      <c r="B27" s="14"/>
       <c r="C27" s="14">
         <v>30105</v>
       </c>
@@ -2946,7 +2930,7 @@
       <c r="I27">
         <v>300000</v>
       </c>
-      <c r="J27" s="17"/>
+      <c r="J27" s="18"/>
       <c r="K27">
         <v>4</v>
       </c>
@@ -2959,17 +2943,15 @@
       <c r="O27" t="s">
         <v>32</v>
       </c>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="17"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="18"/>
     </row>
     <row r="28" ht="16.5" spans="2:22">
-      <c r="B28" s="14">
-        <v>30104</v>
-      </c>
+      <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>37</v>
@@ -2980,7 +2962,7 @@
       <c r="I28">
         <v>500000</v>
       </c>
-      <c r="J28" s="17"/>
+      <c r="J28" s="18"/>
       <c r="K28">
         <v>5</v>
       </c>
@@ -2993,12 +2975,12 @@
       <c r="O28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="17"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="18"/>
     </row>
     <row r="29" ht="16.5" spans="2:22">
       <c r="B29" s="14">
@@ -3009,8 +2991,8 @@
         <v>41</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="14">
-        <v>301051</v>
+      <c r="G29" s="17">
+        <v>2000024</v>
       </c>
       <c r="H29" s="14">
         <v>5</v>
@@ -3027,15 +3009,13 @@
       <c r="O29" t="s">
         <v>32</v>
       </c>
-      <c r="R29" s="17"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="17"/>
+      <c r="R29" s="18"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="18"/>
     </row>
     <row r="30" ht="16.5" spans="2:22">
-      <c r="B30" s="14">
-        <v>30105</v>
-      </c>
+      <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="15" t="s">
         <v>33</v>
@@ -3046,7 +3026,7 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" s="17"/>
+      <c r="J30" s="18"/>
       <c r="K30">
         <v>1</v>
       </c>
@@ -3059,17 +3039,15 @@
       <c r="O30" t="s">
         <v>32</v>
       </c>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="17"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="18"/>
     </row>
     <row r="31" ht="16.5" spans="2:22">
-      <c r="B31" s="14">
-        <v>30105</v>
-      </c>
+      <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15" t="s">
         <v>34</v>
@@ -3080,7 +3058,7 @@
       <c r="I31">
         <v>60000</v>
       </c>
-      <c r="J31" s="17"/>
+      <c r="J31" s="18"/>
       <c r="K31">
         <v>2</v>
       </c>
@@ -3093,17 +3071,15 @@
       <c r="O31" t="s">
         <v>32</v>
       </c>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="17"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="18"/>
     </row>
     <row r="32" ht="16.5" spans="2:22">
-      <c r="B32" s="14">
-        <v>30105</v>
-      </c>
+      <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="15" t="s">
         <v>35</v>
@@ -3114,7 +3090,7 @@
       <c r="I32">
         <v>150000</v>
       </c>
-      <c r="J32" s="17"/>
+      <c r="J32" s="18"/>
       <c r="K32">
         <v>3</v>
       </c>
@@ -3127,17 +3103,15 @@
       <c r="O32" t="s">
         <v>32</v>
       </c>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="17"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="18"/>
     </row>
     <row r="33" ht="16.5" spans="2:22">
-      <c r="B33" s="14">
-        <v>30105</v>
-      </c>
+      <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>36</v>
@@ -3148,7 +3122,7 @@
       <c r="I33">
         <v>300000</v>
       </c>
-      <c r="J33" s="17"/>
+      <c r="J33" s="18"/>
       <c r="K33">
         <v>4</v>
       </c>
@@ -3161,17 +3135,15 @@
       <c r="O33" t="s">
         <v>32</v>
       </c>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="17"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="18"/>
     </row>
     <row r="34" ht="16.5" spans="2:22">
-      <c r="B34" s="14">
-        <v>30105</v>
-      </c>
+      <c r="B34" s="14"/>
       <c r="C34" s="14">
         <v>30106</v>
       </c>
@@ -3184,7 +3156,7 @@
       <c r="I34">
         <v>500000</v>
       </c>
-      <c r="J34" s="17"/>
+      <c r="J34" s="18"/>
       <c r="K34">
         <v>5</v>
       </c>
@@ -3197,12 +3169,12 @@
       <c r="O34" t="s">
         <v>32</v>
       </c>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="17"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="18"/>
     </row>
     <row r="35" ht="16.5" spans="2:22">
       <c r="B35" s="14">
@@ -3213,8 +3185,8 @@
         <v>42</v>
       </c>
       <c r="F35" s="15"/>
-      <c r="G35" s="14">
-        <v>301061</v>
+      <c r="G35" s="17">
+        <v>2000029</v>
       </c>
       <c r="H35" s="14">
         <v>5</v>
@@ -3231,15 +3203,13 @@
       <c r="O35" t="s">
         <v>32</v>
       </c>
-      <c r="R35" s="17"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="17"/>
+      <c r="R35" s="18"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="18"/>
     </row>
     <row r="36" ht="16.5" spans="2:22">
-      <c r="B36" s="14">
-        <v>30106</v>
-      </c>
+      <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15" t="s">
         <v>33</v>
@@ -3250,7 +3220,7 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" s="17"/>
+      <c r="J36" s="18"/>
       <c r="K36">
         <v>1</v>
       </c>
@@ -3263,17 +3233,15 @@
       <c r="O36" t="s">
         <v>32</v>
       </c>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="17"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="18"/>
     </row>
     <row r="37" ht="16.5" spans="2:22">
-      <c r="B37" s="14">
-        <v>30106</v>
-      </c>
+      <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="15" t="s">
         <v>34</v>
@@ -3284,7 +3252,7 @@
       <c r="I37">
         <v>60000</v>
       </c>
-      <c r="J37" s="17"/>
+      <c r="J37" s="18"/>
       <c r="K37">
         <v>2</v>
       </c>
@@ -3297,17 +3265,15 @@
       <c r="O37" t="s">
         <v>32</v>
       </c>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="17"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="18"/>
     </row>
     <row r="38" ht="16.5" spans="2:22">
-      <c r="B38" s="14">
-        <v>30106</v>
-      </c>
+      <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15" t="s">
         <v>35</v>
@@ -3318,7 +3284,7 @@
       <c r="I38">
         <v>150000</v>
       </c>
-      <c r="J38" s="17"/>
+      <c r="J38" s="18"/>
       <c r="K38">
         <v>3</v>
       </c>
@@ -3331,17 +3297,15 @@
       <c r="O38" t="s">
         <v>32</v>
       </c>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="17"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="18"/>
     </row>
     <row r="39" ht="16.5" spans="2:22">
-      <c r="B39" s="14">
-        <v>30106</v>
-      </c>
+      <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="15" t="s">
         <v>36</v>
@@ -3352,7 +3316,7 @@
       <c r="I39">
         <v>300000</v>
       </c>
-      <c r="J39" s="17"/>
+      <c r="J39" s="18"/>
       <c r="K39">
         <v>4</v>
       </c>
@@ -3365,17 +3329,15 @@
       <c r="O39" t="s">
         <v>32</v>
       </c>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="17"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="18"/>
     </row>
     <row r="40" ht="16.5" spans="2:22">
-      <c r="B40" s="14">
-        <v>30106</v>
-      </c>
+      <c r="B40" s="14"/>
       <c r="C40" s="14">
         <v>30107</v>
       </c>
@@ -3388,7 +3350,7 @@
       <c r="I40">
         <v>500000</v>
       </c>
-      <c r="J40" s="17"/>
+      <c r="J40" s="18"/>
       <c r="K40">
         <v>5</v>
       </c>
@@ -3401,12 +3363,12 @@
       <c r="O40" t="s">
         <v>32</v>
       </c>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="17"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="18"/>
     </row>
     <row r="41" ht="16.5" spans="2:22">
       <c r="B41" s="14">
@@ -3417,8 +3379,8 @@
         <v>43</v>
       </c>
       <c r="F41" s="15"/>
-      <c r="G41" s="14">
-        <v>301071</v>
+      <c r="G41" s="17">
+        <v>2000032</v>
       </c>
       <c r="H41" s="14">
         <v>5</v>
@@ -3435,15 +3397,13 @@
       <c r="O41" t="s">
         <v>32</v>
       </c>
-      <c r="R41" s="17"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="17"/>
+      <c r="R41" s="18"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="18"/>
     </row>
     <row r="42" ht="16.5" spans="2:22">
-      <c r="B42" s="14">
-        <v>30107</v>
-      </c>
+      <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="15" t="s">
         <v>33</v>
@@ -3454,7 +3414,7 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" s="17"/>
+      <c r="J42" s="18"/>
       <c r="K42">
         <v>1</v>
       </c>
@@ -3467,17 +3427,15 @@
       <c r="O42" t="s">
         <v>32</v>
       </c>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="17"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="18"/>
     </row>
     <row r="43" ht="16.5" spans="2:22">
-      <c r="B43" s="14">
-        <v>30107</v>
-      </c>
+      <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="15" t="s">
         <v>34</v>
@@ -3488,7 +3446,7 @@
       <c r="I43">
         <v>60000</v>
       </c>
-      <c r="J43" s="17"/>
+      <c r="J43" s="18"/>
       <c r="K43">
         <v>2</v>
       </c>
@@ -3501,17 +3459,15 @@
       <c r="O43" t="s">
         <v>32</v>
       </c>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="17"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="18"/>
     </row>
     <row r="44" ht="16.5" spans="2:22">
-      <c r="B44" s="14">
-        <v>30107</v>
-      </c>
+      <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="15" t="s">
         <v>35</v>
@@ -3522,7 +3478,7 @@
       <c r="I44">
         <v>150000</v>
       </c>
-      <c r="J44" s="17"/>
+      <c r="J44" s="18"/>
       <c r="K44">
         <v>3</v>
       </c>
@@ -3535,17 +3491,15 @@
       <c r="O44" t="s">
         <v>32</v>
       </c>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="17"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="18"/>
     </row>
     <row r="45" ht="16.5" spans="2:22">
-      <c r="B45" s="14">
-        <v>30107</v>
-      </c>
+      <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="15" t="s">
         <v>36</v>
@@ -3556,7 +3510,7 @@
       <c r="I45">
         <v>300000</v>
       </c>
-      <c r="J45" s="17"/>
+      <c r="J45" s="18"/>
       <c r="K45">
         <v>4</v>
       </c>
@@ -3569,17 +3523,15 @@
       <c r="O45" t="s">
         <v>32</v>
       </c>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="17"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="18"/>
     </row>
     <row r="46" ht="16.5" spans="2:22">
-      <c r="B46" s="14">
-        <v>30107</v>
-      </c>
+      <c r="B46" s="14"/>
       <c r="C46" s="14">
         <v>30108</v>
       </c>
@@ -3592,7 +3544,7 @@
       <c r="I46">
         <v>500000</v>
       </c>
-      <c r="J46" s="17"/>
+      <c r="J46" s="18"/>
       <c r="K46">
         <v>5</v>
       </c>
@@ -3605,12 +3557,12 @@
       <c r="O46" t="s">
         <v>32</v>
       </c>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="17"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="18"/>
     </row>
     <row r="47" ht="16.5" spans="2:22">
       <c r="B47" s="14">
@@ -3621,8 +3573,8 @@
         <v>44</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="14">
-        <v>301081</v>
+      <c r="G47" s="17">
+        <v>2000034</v>
       </c>
       <c r="H47" s="14">
         <v>5</v>
@@ -3639,15 +3591,13 @@
       <c r="O47" t="s">
         <v>32</v>
       </c>
-      <c r="R47" s="17"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="17"/>
+      <c r="R47" s="18"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="18"/>
     </row>
     <row r="48" ht="16.5" spans="2:22">
-      <c r="B48" s="14">
-        <v>30108</v>
-      </c>
+      <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="15" t="s">
         <v>33</v>
@@ -3658,7 +3608,7 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" s="17"/>
+      <c r="J48" s="18"/>
       <c r="K48">
         <v>1</v>
       </c>
@@ -3671,17 +3621,15 @@
       <c r="O48" t="s">
         <v>32</v>
       </c>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="17"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="18"/>
     </row>
     <row r="49" ht="16.5" spans="2:22">
-      <c r="B49" s="14">
-        <v>30108</v>
-      </c>
+      <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="15" t="s">
         <v>34</v>
@@ -3692,7 +3640,7 @@
       <c r="I49">
         <v>60000</v>
       </c>
-      <c r="J49" s="17"/>
+      <c r="J49" s="18"/>
       <c r="K49">
         <v>2</v>
       </c>
@@ -3705,17 +3653,15 @@
       <c r="O49" t="s">
         <v>32</v>
       </c>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="17"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="18"/>
     </row>
     <row r="50" ht="16.5" spans="2:22">
-      <c r="B50" s="14">
-        <v>30108</v>
-      </c>
+      <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="15" t="s">
         <v>35</v>
@@ -3726,7 +3672,7 @@
       <c r="I50">
         <v>150000</v>
       </c>
-      <c r="J50" s="17"/>
+      <c r="J50" s="18"/>
       <c r="K50">
         <v>3</v>
       </c>
@@ -3739,17 +3685,15 @@
       <c r="O50" t="s">
         <v>32</v>
       </c>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="17"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="18"/>
     </row>
     <row r="51" ht="16.5" spans="2:22">
-      <c r="B51" s="14">
-        <v>30108</v>
-      </c>
+      <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="15" t="s">
         <v>36</v>
@@ -3760,7 +3704,7 @@
       <c r="I51">
         <v>300000</v>
       </c>
-      <c r="J51" s="17"/>
+      <c r="J51" s="18"/>
       <c r="K51">
         <v>4</v>
       </c>
@@ -3773,17 +3717,15 @@
       <c r="O51" t="s">
         <v>32</v>
       </c>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="17"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="18"/>
     </row>
     <row r="52" ht="16.5" spans="2:22">
-      <c r="B52" s="14">
-        <v>30108</v>
-      </c>
+      <c r="B52" s="14"/>
       <c r="C52" s="14">
         <v>30109</v>
       </c>
@@ -3796,7 +3738,7 @@
       <c r="I52">
         <v>500000</v>
       </c>
-      <c r="J52" s="17"/>
+      <c r="J52" s="18"/>
       <c r="K52">
         <v>5</v>
       </c>
@@ -3809,12 +3751,12 @@
       <c r="O52" t="s">
         <v>32</v>
       </c>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="17"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="18"/>
     </row>
     <row r="53" ht="16.5" spans="2:22">
       <c r="B53" s="14">
@@ -3825,8 +3767,8 @@
         <v>45</v>
       </c>
       <c r="F53" s="15"/>
-      <c r="G53" s="14">
-        <v>301091</v>
+      <c r="G53" s="17">
+        <v>2000037</v>
       </c>
       <c r="H53" s="14">
         <v>5</v>
@@ -3837,15 +3779,13 @@
       <c r="O53" t="s">
         <v>32</v>
       </c>
-      <c r="R53" s="17"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="17"/>
+      <c r="R53" s="18"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="18"/>
     </row>
     <row r="54" ht="16.5" spans="2:22">
-      <c r="B54" s="14">
-        <v>30109</v>
-      </c>
+      <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="15" t="s">
         <v>33</v>
@@ -3856,7 +3796,7 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" s="17"/>
+      <c r="J54" s="18"/>
       <c r="K54">
         <v>1</v>
       </c>
@@ -3869,17 +3809,15 @@
       <c r="O54" t="s">
         <v>32</v>
       </c>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="17"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="18"/>
     </row>
     <row r="55" ht="16.5" spans="2:22">
-      <c r="B55" s="14">
-        <v>30109</v>
-      </c>
+      <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="15" t="s">
         <v>34</v>
@@ -3890,7 +3828,7 @@
       <c r="I55">
         <v>60000</v>
       </c>
-      <c r="J55" s="17"/>
+      <c r="J55" s="18"/>
       <c r="K55">
         <v>2</v>
       </c>
@@ -3903,17 +3841,15 @@
       <c r="O55" t="s">
         <v>32</v>
       </c>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="17"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="18"/>
     </row>
     <row r="56" ht="16.5" spans="2:22">
-      <c r="B56" s="14">
-        <v>30109</v>
-      </c>
+      <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="15" t="s">
         <v>35</v>
@@ -3924,7 +3860,7 @@
       <c r="I56">
         <v>150000</v>
       </c>
-      <c r="J56" s="17"/>
+      <c r="J56" s="18"/>
       <c r="K56">
         <v>3</v>
       </c>
@@ -3937,17 +3873,15 @@
       <c r="O56" t="s">
         <v>32</v>
       </c>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="17"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="18"/>
     </row>
     <row r="57" ht="16.5" spans="2:22">
-      <c r="B57" s="14">
-        <v>30109</v>
-      </c>
+      <c r="B57" s="14"/>
       <c r="C57" s="14">
         <v>30201</v>
       </c>
@@ -3960,7 +3894,7 @@
       <c r="I57">
         <v>300000</v>
       </c>
-      <c r="J57" s="17"/>
+      <c r="J57" s="18"/>
       <c r="K57">
         <v>4</v>
       </c>
@@ -3973,17 +3907,15 @@
       <c r="O57" t="s">
         <v>32</v>
       </c>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="17"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="18"/>
     </row>
     <row r="58" ht="16.5" spans="2:22">
-      <c r="B58" s="14">
-        <v>30109</v>
-      </c>
+      <c r="B58" s="14"/>
       <c r="C58" s="14"/>
       <c r="D58" s="15" t="s">
         <v>37</v>
@@ -3994,7 +3926,7 @@
       <c r="I58">
         <v>500000</v>
       </c>
-      <c r="J58" s="17"/>
+      <c r="J58" s="18"/>
       <c r="K58">
         <v>5</v>
       </c>
@@ -4007,12 +3939,12 @@
       <c r="O58" t="s">
         <v>32</v>
       </c>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="17"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="18"/>
     </row>
     <row r="59" ht="16.5" spans="2:22">
       <c r="B59" s="14">
@@ -4023,8 +3955,8 @@
         <v>46</v>
       </c>
       <c r="F59" s="15"/>
-      <c r="G59" s="14">
-        <v>302011</v>
+      <c r="G59" s="17">
+        <v>2000040</v>
       </c>
       <c r="H59" s="14">
         <v>5</v>
@@ -4041,15 +3973,13 @@
       <c r="O59" t="s">
         <v>32</v>
       </c>
-      <c r="R59" s="17"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="17"/>
+      <c r="R59" s="18"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="18"/>
     </row>
     <row r="60" ht="16.5" spans="2:22">
-      <c r="B60" s="14">
-        <v>30201</v>
-      </c>
+      <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="15" t="s">
         <v>33</v>
@@ -4060,7 +3990,7 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60" s="17"/>
+      <c r="J60" s="18"/>
       <c r="K60">
         <v>1</v>
       </c>
@@ -4073,17 +4003,15 @@
       <c r="O60" t="s">
         <v>32</v>
       </c>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="17"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="18"/>
     </row>
     <row r="61" ht="16.5" spans="2:22">
-      <c r="B61" s="14">
-        <v>30201</v>
-      </c>
+      <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="15" t="s">
         <v>34</v>
@@ -4094,7 +4022,7 @@
       <c r="I61">
         <v>60000</v>
       </c>
-      <c r="J61" s="17"/>
+      <c r="J61" s="18"/>
       <c r="K61">
         <v>2</v>
       </c>
@@ -4107,17 +4035,15 @@
       <c r="O61" t="s">
         <v>32</v>
       </c>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="17"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="18"/>
     </row>
     <row r="62" ht="16.5" spans="2:22">
-      <c r="B62" s="14">
-        <v>30201</v>
-      </c>
+      <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="15" t="s">
         <v>35</v>
@@ -4128,7 +4054,7 @@
       <c r="I62">
         <v>150000</v>
       </c>
-      <c r="J62" s="17"/>
+      <c r="J62" s="18"/>
       <c r="K62">
         <v>3</v>
       </c>
@@ -4141,17 +4067,15 @@
       <c r="O62" t="s">
         <v>32</v>
       </c>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="17"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="18"/>
     </row>
     <row r="63" ht="16.5" spans="2:22">
-      <c r="B63" s="14">
-        <v>30201</v>
-      </c>
+      <c r="B63" s="14"/>
       <c r="C63" s="14">
         <v>30202</v>
       </c>
@@ -4164,7 +4088,7 @@
       <c r="I63">
         <v>300000</v>
       </c>
-      <c r="J63" s="17"/>
+      <c r="J63" s="18"/>
       <c r="K63">
         <v>4</v>
       </c>
@@ -4177,17 +4101,15 @@
       <c r="O63" t="s">
         <v>32</v>
       </c>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="17"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="18"/>
     </row>
     <row r="64" ht="16.5" spans="2:22">
-      <c r="B64" s="14">
-        <v>30201</v>
-      </c>
+      <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="15" t="s">
         <v>37</v>
@@ -4198,7 +4120,7 @@
       <c r="I64">
         <v>500000</v>
       </c>
-      <c r="J64" s="17"/>
+      <c r="J64" s="18"/>
       <c r="K64">
         <v>5</v>
       </c>
@@ -4211,12 +4133,12 @@
       <c r="O64" t="s">
         <v>32</v>
       </c>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="17"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="18"/>
     </row>
     <row r="65" ht="16.5" spans="2:22">
       <c r="B65" s="14">
@@ -4227,8 +4149,8 @@
         <v>47</v>
       </c>
       <c r="F65" s="15"/>
-      <c r="G65" s="14">
-        <v>302021</v>
+      <c r="G65" s="17">
+        <v>2000045</v>
       </c>
       <c r="H65" s="14">
         <v>5</v>
@@ -4239,15 +4161,13 @@
       <c r="O65" t="s">
         <v>32</v>
       </c>
-      <c r="R65" s="17"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="17"/>
+      <c r="R65" s="18"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="18"/>
     </row>
     <row r="66" ht="16.5" spans="2:22">
-      <c r="B66" s="14">
-        <v>30202</v>
-      </c>
+      <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="15" t="s">
         <v>33</v>
@@ -4258,7 +4178,7 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" s="17"/>
+      <c r="J66" s="18"/>
       <c r="K66">
         <v>1</v>
       </c>
@@ -4271,17 +4191,15 @@
       <c r="O66" t="s">
         <v>32</v>
       </c>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="17"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="18"/>
     </row>
     <row r="67" ht="16.5" spans="2:22">
-      <c r="B67" s="14">
-        <v>30202</v>
-      </c>
+      <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="15" t="s">
         <v>34</v>
@@ -4292,7 +4210,7 @@
       <c r="I67">
         <v>60000</v>
       </c>
-      <c r="J67" s="17"/>
+      <c r="J67" s="18"/>
       <c r="K67">
         <v>2</v>
       </c>
@@ -4305,17 +4223,15 @@
       <c r="O67" t="s">
         <v>32</v>
       </c>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="T67" s="20"/>
-      <c r="U67" s="20"/>
-      <c r="V67" s="17"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="18"/>
     </row>
     <row r="68" ht="16.5" spans="2:22">
-      <c r="B68" s="14">
-        <v>30202</v>
-      </c>
+      <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="15" t="s">
         <v>35</v>
@@ -4326,7 +4242,7 @@
       <c r="I68">
         <v>150000</v>
       </c>
-      <c r="J68" s="17"/>
+      <c r="J68" s="18"/>
       <c r="K68">
         <v>3</v>
       </c>
@@ -4339,17 +4255,15 @@
       <c r="O68" t="s">
         <v>32</v>
       </c>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="T68" s="20"/>
-      <c r="U68" s="20"/>
-      <c r="V68" s="17"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="18"/>
     </row>
     <row r="69" ht="16.5" spans="2:22">
-      <c r="B69" s="14">
-        <v>30202</v>
-      </c>
+      <c r="B69" s="14"/>
       <c r="C69" s="14">
         <v>30203</v>
       </c>
@@ -4362,7 +4276,7 @@
       <c r="I69">
         <v>300000</v>
       </c>
-      <c r="J69" s="17"/>
+      <c r="J69" s="18"/>
       <c r="K69">
         <v>4</v>
       </c>
@@ -4375,17 +4289,15 @@
       <c r="O69" t="s">
         <v>32</v>
       </c>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="17"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
-      <c r="V69" s="17"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="18"/>
     </row>
     <row r="70" ht="16.5" spans="2:22">
-      <c r="B70" s="14">
-        <v>30202</v>
-      </c>
+      <c r="B70" s="14"/>
       <c r="C70" s="14"/>
       <c r="D70" s="15" t="s">
         <v>37</v>
@@ -4396,7 +4308,7 @@
       <c r="I70">
         <v>500000</v>
       </c>
-      <c r="J70" s="17"/>
+      <c r="J70" s="18"/>
       <c r="K70">
         <v>5</v>
       </c>
@@ -4409,12 +4321,12 @@
       <c r="O70" t="s">
         <v>32</v>
       </c>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="T70" s="20"/>
-      <c r="U70" s="20"/>
-      <c r="V70" s="17"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="18"/>
     </row>
     <row r="71" ht="16.5" spans="2:22">
       <c r="B71" s="14">
@@ -4425,8 +4337,8 @@
         <v>48</v>
       </c>
       <c r="F71" s="15"/>
-      <c r="G71" s="14">
-        <v>302031</v>
+      <c r="G71" s="17">
+        <v>2000049</v>
       </c>
       <c r="H71" s="14">
         <v>5</v>
@@ -4443,15 +4355,13 @@
       <c r="O71" t="s">
         <v>32</v>
       </c>
-      <c r="R71" s="17"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-      <c r="V71" s="17"/>
+      <c r="R71" s="18"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="18"/>
     </row>
     <row r="72" ht="16.5" spans="2:22">
-      <c r="B72" s="14">
-        <v>30203</v>
-      </c>
+      <c r="B72" s="14"/>
       <c r="C72" s="14"/>
       <c r="D72" s="15" t="s">
         <v>33</v>
@@ -4462,7 +4372,7 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72" s="17"/>
+      <c r="J72" s="18"/>
       <c r="K72">
         <v>1</v>
       </c>
@@ -4475,17 +4385,15 @@
       <c r="O72" t="s">
         <v>32</v>
       </c>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="17"/>
-      <c r="T72" s="20"/>
-      <c r="U72" s="20"/>
-      <c r="V72" s="17"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="18"/>
     </row>
     <row r="73" ht="16.5" spans="2:22">
-      <c r="B73" s="14">
-        <v>30203</v>
-      </c>
+      <c r="B73" s="14"/>
       <c r="C73" s="14"/>
       <c r="D73" s="15" t="s">
         <v>34</v>
@@ -4496,7 +4404,7 @@
       <c r="I73">
         <v>60000</v>
       </c>
-      <c r="J73" s="17"/>
+      <c r="J73" s="18"/>
       <c r="K73">
         <v>2</v>
       </c>
@@ -4509,17 +4417,15 @@
       <c r="O73" t="s">
         <v>32</v>
       </c>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="17"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="20"/>
-      <c r="V73" s="17"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="18"/>
     </row>
     <row r="74" ht="16.5" spans="2:22">
-      <c r="B74" s="14">
-        <v>30203</v>
-      </c>
+      <c r="B74" s="14"/>
       <c r="C74" s="14"/>
       <c r="D74" s="15" t="s">
         <v>35</v>
@@ -4530,7 +4436,7 @@
       <c r="I74">
         <v>150000</v>
       </c>
-      <c r="J74" s="17"/>
+      <c r="J74" s="18"/>
       <c r="K74">
         <v>3</v>
       </c>
@@ -4543,17 +4449,15 @@
       <c r="O74" t="s">
         <v>32</v>
       </c>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="T74" s="20"/>
-      <c r="U74" s="20"/>
-      <c r="V74" s="17"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="18"/>
     </row>
     <row r="75" ht="16.5" spans="2:22">
-      <c r="B75" s="14">
-        <v>30203</v>
-      </c>
+      <c r="B75" s="14"/>
       <c r="C75" s="14">
         <v>30204</v>
       </c>
@@ -4566,7 +4470,7 @@
       <c r="I75">
         <v>300000</v>
       </c>
-      <c r="J75" s="17"/>
+      <c r="J75" s="18"/>
       <c r="K75">
         <v>4</v>
       </c>
@@ -4579,17 +4483,15 @@
       <c r="O75" t="s">
         <v>32</v>
       </c>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="T75" s="20"/>
-      <c r="U75" s="20"/>
-      <c r="V75" s="17"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="18"/>
     </row>
     <row r="76" ht="16.5" spans="2:22">
-      <c r="B76" s="14">
-        <v>30203</v>
-      </c>
+      <c r="B76" s="14"/>
       <c r="C76" s="14"/>
       <c r="D76" s="15" t="s">
         <v>37</v>
@@ -4600,7 +4502,7 @@
       <c r="I76">
         <v>500000</v>
       </c>
-      <c r="J76" s="17"/>
+      <c r="J76" s="18"/>
       <c r="K76">
         <v>5</v>
       </c>
@@ -4613,12 +4515,12 @@
       <c r="O76" t="s">
         <v>32</v>
       </c>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="17"/>
-      <c r="T76" s="20"/>
-      <c r="U76" s="20"/>
-      <c r="V76" s="17"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="18"/>
     </row>
     <row r="77" ht="16.5" spans="2:22">
       <c r="B77" s="14">
@@ -4629,8 +4531,8 @@
         <v>49</v>
       </c>
       <c r="F77" s="15"/>
-      <c r="G77" s="14">
-        <v>302041</v>
+      <c r="G77" s="17">
+        <v>2000051</v>
       </c>
       <c r="H77" s="14">
         <v>5</v>
@@ -4647,15 +4549,13 @@
       <c r="O77" t="s">
         <v>32</v>
       </c>
-      <c r="R77" s="17"/>
-      <c r="T77" s="20"/>
-      <c r="U77" s="20"/>
-      <c r="V77" s="17"/>
+      <c r="R77" s="18"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="18"/>
     </row>
     <row r="78" ht="16.5" spans="2:22">
-      <c r="B78" s="14">
-        <v>30204</v>
-      </c>
+      <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="15" t="s">
         <v>33</v>
@@ -4666,7 +4566,7 @@
       <c r="I78">
         <v>0</v>
       </c>
-      <c r="J78" s="17"/>
+      <c r="J78" s="18"/>
       <c r="K78">
         <v>1</v>
       </c>
@@ -4679,17 +4579,15 @@
       <c r="O78" t="s">
         <v>32</v>
       </c>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="T78" s="20"/>
-      <c r="U78" s="20"/>
-      <c r="V78" s="17"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="T78" s="17"/>
+      <c r="U78" s="17"/>
+      <c r="V78" s="18"/>
     </row>
     <row r="79" ht="16.5" spans="2:22">
-      <c r="B79" s="14">
-        <v>30204</v>
-      </c>
+      <c r="B79" s="14"/>
       <c r="C79" s="14"/>
       <c r="D79" s="15" t="s">
         <v>34</v>
@@ -4700,7 +4598,7 @@
       <c r="I79">
         <v>60000</v>
       </c>
-      <c r="J79" s="17"/>
+      <c r="J79" s="18"/>
       <c r="K79">
         <v>2</v>
       </c>
@@ -4713,17 +4611,15 @@
       <c r="O79" t="s">
         <v>32</v>
       </c>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
-      <c r="R79" s="17"/>
-      <c r="T79" s="20"/>
-      <c r="U79" s="20"/>
-      <c r="V79" s="17"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="18"/>
     </row>
     <row r="80" ht="16.5" spans="2:22">
-      <c r="B80" s="14">
-        <v>30204</v>
-      </c>
+      <c r="B80" s="14"/>
       <c r="C80" s="14"/>
       <c r="D80" s="15" t="s">
         <v>35</v>
@@ -4734,7 +4630,7 @@
       <c r="I80">
         <v>150000</v>
       </c>
-      <c r="J80" s="17"/>
+      <c r="J80" s="18"/>
       <c r="K80">
         <v>3</v>
       </c>
@@ -4747,17 +4643,15 @@
       <c r="O80" t="s">
         <v>32</v>
       </c>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="17"/>
-      <c r="T80" s="20"/>
-      <c r="U80" s="20"/>
-      <c r="V80" s="17"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="18"/>
     </row>
     <row r="81" ht="16.5" spans="2:22">
-      <c r="B81" s="14">
-        <v>30204</v>
-      </c>
+      <c r="B81" s="14"/>
       <c r="C81" s="14">
         <v>30205</v>
       </c>
@@ -4770,7 +4664,7 @@
       <c r="I81">
         <v>300000</v>
       </c>
-      <c r="J81" s="17"/>
+      <c r="J81" s="18"/>
       <c r="K81">
         <v>4</v>
       </c>
@@ -4783,17 +4677,15 @@
       <c r="O81" t="s">
         <v>32</v>
       </c>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
-      <c r="R81" s="17"/>
-      <c r="T81" s="20"/>
-      <c r="U81" s="20"/>
-      <c r="V81" s="17"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="18"/>
     </row>
     <row r="82" ht="16.5" spans="2:22">
-      <c r="B82" s="14">
-        <v>30204</v>
-      </c>
+      <c r="B82" s="14"/>
       <c r="C82" s="14"/>
       <c r="D82" s="15" t="s">
         <v>37</v>
@@ -4804,7 +4696,7 @@
       <c r="I82">
         <v>500000</v>
       </c>
-      <c r="J82" s="17"/>
+      <c r="J82" s="18"/>
       <c r="K82">
         <v>5</v>
       </c>
@@ -4817,12 +4709,12 @@
       <c r="O82" t="s">
         <v>32</v>
       </c>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
-      <c r="R82" s="17"/>
-      <c r="T82" s="20"/>
-      <c r="U82" s="20"/>
-      <c r="V82" s="17"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="18"/>
     </row>
     <row r="83" ht="16.5" spans="2:22">
       <c r="B83" s="14">
@@ -4833,8 +4725,8 @@
         <v>50</v>
       </c>
       <c r="F83" s="15"/>
-      <c r="G83" s="14">
-        <v>302051</v>
+      <c r="G83" s="17">
+        <v>2000053</v>
       </c>
       <c r="H83" s="14">
         <v>5</v>
@@ -4851,15 +4743,13 @@
       <c r="O83" t="s">
         <v>32</v>
       </c>
-      <c r="R83" s="17"/>
-      <c r="T83" s="20"/>
-      <c r="U83" s="20"/>
-      <c r="V83" s="17"/>
+      <c r="R83" s="18"/>
+      <c r="T83" s="17"/>
+      <c r="U83" s="17"/>
+      <c r="V83" s="18"/>
     </row>
     <row r="84" ht="16.5" spans="2:22">
-      <c r="B84" s="14">
-        <v>30205</v>
-      </c>
+      <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="15" t="s">
         <v>33</v>
@@ -4870,7 +4760,7 @@
       <c r="I84">
         <v>0</v>
       </c>
-      <c r="J84" s="17"/>
+      <c r="J84" s="18"/>
       <c r="K84">
         <v>1</v>
       </c>
@@ -4883,17 +4773,15 @@
       <c r="O84" t="s">
         <v>32</v>
       </c>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="17"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="17"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="18"/>
     </row>
     <row r="85" ht="16.5" spans="2:22">
-      <c r="B85" s="14">
-        <v>30205</v>
-      </c>
+      <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="15" t="s">
         <v>34</v>
@@ -4904,7 +4792,7 @@
       <c r="I85">
         <v>60000</v>
       </c>
-      <c r="J85" s="17"/>
+      <c r="J85" s="18"/>
       <c r="K85">
         <v>2</v>
       </c>
@@ -4917,17 +4805,15 @@
       <c r="O85" t="s">
         <v>32</v>
       </c>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="T85" s="20"/>
-      <c r="U85" s="20"/>
-      <c r="V85" s="17"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="17"/>
+      <c r="V85" s="18"/>
     </row>
     <row r="86" ht="16.5" spans="2:22">
-      <c r="B86" s="14">
-        <v>30205</v>
-      </c>
+      <c r="B86" s="14"/>
       <c r="C86" s="14"/>
       <c r="D86" s="15" t="s">
         <v>35</v>
@@ -4938,7 +4824,7 @@
       <c r="I86">
         <v>150000</v>
       </c>
-      <c r="J86" s="17"/>
+      <c r="J86" s="18"/>
       <c r="K86">
         <v>3</v>
       </c>
@@ -4951,17 +4837,15 @@
       <c r="O86" t="s">
         <v>32</v>
       </c>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
-      <c r="R86" s="17"/>
-      <c r="T86" s="20"/>
-      <c r="U86" s="20"/>
-      <c r="V86" s="17"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="17"/>
+      <c r="V86" s="18"/>
     </row>
     <row r="87" ht="16.5" spans="2:22">
-      <c r="B87" s="14">
-        <v>30205</v>
-      </c>
+      <c r="B87" s="14"/>
       <c r="C87" s="14">
         <v>30206</v>
       </c>
@@ -4974,7 +4858,7 @@
       <c r="I87">
         <v>300000</v>
       </c>
-      <c r="J87" s="17"/>
+      <c r="J87" s="18"/>
       <c r="K87">
         <v>4</v>
       </c>
@@ -4987,17 +4871,15 @@
       <c r="O87" t="s">
         <v>32</v>
       </c>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
-      <c r="R87" s="17"/>
-      <c r="T87" s="20"/>
-      <c r="U87" s="20"/>
-      <c r="V87" s="17"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="17"/>
+      <c r="V87" s="18"/>
     </row>
     <row r="88" ht="16.5" spans="2:22">
-      <c r="B88" s="14">
-        <v>30205</v>
-      </c>
+      <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="15" t="s">
         <v>37</v>
@@ -5008,7 +4890,7 @@
       <c r="I88">
         <v>500000</v>
       </c>
-      <c r="J88" s="17"/>
+      <c r="J88" s="18"/>
       <c r="K88">
         <v>5</v>
       </c>
@@ -5021,12 +4903,12 @@
       <c r="O88" t="s">
         <v>32</v>
       </c>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
-      <c r="R88" s="17"/>
-      <c r="T88" s="20"/>
-      <c r="U88" s="20"/>
-      <c r="V88" s="17"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="18"/>
     </row>
     <row r="89" ht="16.5" spans="2:22">
       <c r="B89" s="14">
@@ -5037,8 +4919,8 @@
         <v>51</v>
       </c>
       <c r="F89" s="15"/>
-      <c r="G89" s="14">
-        <v>302061</v>
+      <c r="G89" s="17">
+        <v>2000055</v>
       </c>
       <c r="H89" s="14">
         <v>5</v>
@@ -5055,15 +4937,13 @@
       <c r="O89" t="s">
         <v>32</v>
       </c>
-      <c r="R89" s="17"/>
-      <c r="T89" s="20"/>
-      <c r="U89" s="20"/>
-      <c r="V89" s="17"/>
+      <c r="R89" s="18"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="17"/>
+      <c r="V89" s="18"/>
     </row>
     <row r="90" ht="16.5" spans="2:22">
-      <c r="B90" s="14">
-        <v>30206</v>
-      </c>
+      <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="15" t="s">
         <v>33</v>
@@ -5074,7 +4954,7 @@
       <c r="I90" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J90" s="17"/>
+      <c r="J90" s="18"/>
       <c r="K90">
         <v>1</v>
       </c>
@@ -5087,17 +4967,15 @@
       <c r="O90" t="s">
         <v>32</v>
       </c>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
-      <c r="R90" s="17"/>
-      <c r="T90" s="20"/>
-      <c r="U90" s="20"/>
-      <c r="V90" s="17"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="18"/>
     </row>
     <row r="91" ht="16.5" spans="2:22">
-      <c r="B91" s="14">
-        <v>30206</v>
-      </c>
+      <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="15" t="s">
         <v>34</v>
@@ -5108,7 +4986,7 @@
       <c r="I91">
         <v>60000</v>
       </c>
-      <c r="J91" s="17"/>
+      <c r="J91" s="18"/>
       <c r="K91">
         <v>2</v>
       </c>
@@ -5121,17 +4999,15 @@
       <c r="O91" t="s">
         <v>32</v>
       </c>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="T91" s="20"/>
-      <c r="U91" s="20"/>
-      <c r="V91" s="17"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="17"/>
+      <c r="V91" s="18"/>
     </row>
     <row r="92" ht="16.5" spans="2:22">
-      <c r="B92" s="14">
-        <v>30206</v>
-      </c>
+      <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="15" t="s">
         <v>35</v>
@@ -5142,7 +5018,7 @@
       <c r="I92">
         <v>150000</v>
       </c>
-      <c r="J92" s="17"/>
+      <c r="J92" s="18"/>
       <c r="K92">
         <v>3</v>
       </c>
@@ -5155,17 +5031,15 @@
       <c r="O92" t="s">
         <v>32</v>
       </c>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="17"/>
-      <c r="T92" s="20"/>
-      <c r="U92" s="20"/>
-      <c r="V92" s="17"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="17"/>
+      <c r="V92" s="18"/>
     </row>
     <row r="93" ht="16.5" spans="2:22">
-      <c r="B93" s="14">
-        <v>30206</v>
-      </c>
+      <c r="B93" s="14"/>
       <c r="C93" s="14">
         <v>30301</v>
       </c>
@@ -5178,7 +5052,7 @@
       <c r="I93">
         <v>300000</v>
       </c>
-      <c r="J93" s="17"/>
+      <c r="J93" s="18"/>
       <c r="K93">
         <v>4</v>
       </c>
@@ -5191,17 +5065,15 @@
       <c r="O93" t="s">
         <v>32</v>
       </c>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
-      <c r="R93" s="17"/>
-      <c r="T93" s="20"/>
-      <c r="U93" s="20"/>
-      <c r="V93" s="17"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="17"/>
+      <c r="V93" s="18"/>
     </row>
     <row r="94" ht="16.5" spans="2:22">
-      <c r="B94" s="14">
-        <v>30206</v>
-      </c>
+      <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="15" t="s">
         <v>37</v>
@@ -5212,7 +5084,7 @@
       <c r="I94">
         <v>500000</v>
       </c>
-      <c r="J94" s="17"/>
+      <c r="J94" s="18"/>
       <c r="K94">
         <v>5</v>
       </c>
@@ -5225,12 +5097,12 @@
       <c r="O94" t="s">
         <v>32</v>
       </c>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
-      <c r="R94" s="17"/>
-      <c r="T94" s="20"/>
-      <c r="U94" s="20"/>
-      <c r="V94" s="17"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="18"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="17"/>
+      <c r="V94" s="18"/>
     </row>
     <row r="95" ht="16.5" spans="2:22">
       <c r="B95" s="14">
@@ -5241,8 +5113,8 @@
         <v>53</v>
       </c>
       <c r="F95" s="15"/>
-      <c r="G95" s="14">
-        <v>303011</v>
+      <c r="G95" s="17">
+        <v>2000057</v>
       </c>
       <c r="H95" s="14">
         <v>5</v>
@@ -5259,15 +5131,13 @@
       <c r="O95" t="s">
         <v>32</v>
       </c>
-      <c r="R95" s="17"/>
-      <c r="T95" s="20"/>
-      <c r="U95" s="20"/>
-      <c r="V95" s="17"/>
+      <c r="R95" s="18"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="17"/>
+      <c r="V95" s="18"/>
     </row>
     <row r="96" ht="16.5" spans="2:22">
-      <c r="B96" s="14">
-        <v>30301</v>
-      </c>
+      <c r="B96" s="14"/>
       <c r="C96" s="14"/>
       <c r="D96" s="15" t="s">
         <v>33</v>
@@ -5278,7 +5148,7 @@
       <c r="I96" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J96" s="17"/>
+      <c r="J96" s="18"/>
       <c r="K96">
         <v>1</v>
       </c>
@@ -5291,17 +5161,15 @@
       <c r="O96" t="s">
         <v>32</v>
       </c>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="17"/>
-      <c r="T96" s="20"/>
-      <c r="U96" s="20"/>
-      <c r="V96" s="17"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="17"/>
+      <c r="V96" s="18"/>
     </row>
     <row r="97" ht="16.5" spans="2:22">
-      <c r="B97" s="14">
-        <v>30301</v>
-      </c>
+      <c r="B97" s="14"/>
       <c r="C97" s="14"/>
       <c r="D97" s="15" t="s">
         <v>34</v>
@@ -5312,7 +5180,7 @@
       <c r="I97">
         <v>60000</v>
       </c>
-      <c r="J97" s="17"/>
+      <c r="J97" s="18"/>
       <c r="K97">
         <v>2</v>
       </c>
@@ -5325,17 +5193,15 @@
       <c r="O97" t="s">
         <v>32</v>
       </c>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="17"/>
-      <c r="T97" s="20"/>
-      <c r="U97" s="20"/>
-      <c r="V97" s="17"/>
+      <c r="P97" s="18"/>
+      <c r="Q97" s="18"/>
+      <c r="R97" s="18"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="18"/>
     </row>
     <row r="98" ht="16.5" spans="2:22">
-      <c r="B98" s="14">
-        <v>30301</v>
-      </c>
+      <c r="B98" s="14"/>
       <c r="C98" s="14"/>
       <c r="D98" s="15" t="s">
         <v>35</v>
@@ -5346,7 +5212,7 @@
       <c r="I98">
         <v>150000</v>
       </c>
-      <c r="J98" s="17"/>
+      <c r="J98" s="18"/>
       <c r="K98">
         <v>3</v>
       </c>
@@ -5359,17 +5225,15 @@
       <c r="O98" t="s">
         <v>32</v>
       </c>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
-      <c r="R98" s="17"/>
-      <c r="T98" s="20"/>
-      <c r="U98" s="20"/>
-      <c r="V98" s="17"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="17"/>
+      <c r="V98" s="18"/>
     </row>
     <row r="99" ht="16.5" spans="2:22">
-      <c r="B99" s="14">
-        <v>30301</v>
-      </c>
+      <c r="B99" s="14"/>
       <c r="C99" s="14">
         <v>30302</v>
       </c>
@@ -5382,7 +5246,7 @@
       <c r="I99">
         <v>300000</v>
       </c>
-      <c r="J99" s="17"/>
+      <c r="J99" s="18"/>
       <c r="K99">
         <v>4</v>
       </c>
@@ -5395,17 +5259,15 @@
       <c r="O99" t="s">
         <v>32</v>
       </c>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="T99" s="20"/>
-      <c r="U99" s="20"/>
-      <c r="V99" s="17"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="17"/>
+      <c r="V99" s="18"/>
     </row>
     <row r="100" ht="16.5" spans="2:22">
-      <c r="B100" s="14">
-        <v>30301</v>
-      </c>
+      <c r="B100" s="14"/>
       <c r="C100" s="14"/>
       <c r="D100" s="15" t="s">
         <v>37</v>
@@ -5416,7 +5278,7 @@
       <c r="I100">
         <v>500000</v>
       </c>
-      <c r="J100" s="17"/>
+      <c r="J100" s="18"/>
       <c r="K100">
         <v>5</v>
       </c>
@@ -5429,12 +5291,12 @@
       <c r="O100" t="s">
         <v>32</v>
       </c>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
-      <c r="R100" s="17"/>
-      <c r="T100" s="20"/>
-      <c r="U100" s="20"/>
-      <c r="V100" s="17"/>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="18"/>
+      <c r="R100" s="18"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="17"/>
+      <c r="V100" s="18"/>
     </row>
     <row r="101" ht="16.5" spans="2:22">
       <c r="B101" s="14">
@@ -5445,8 +5307,8 @@
         <v>54</v>
       </c>
       <c r="F101" s="15"/>
-      <c r="G101" s="14">
-        <v>303021</v>
+      <c r="G101" s="17">
+        <v>2000061</v>
       </c>
       <c r="H101" s="14">
         <v>5</v>
@@ -5463,15 +5325,13 @@
       <c r="O101" t="s">
         <v>32</v>
       </c>
-      <c r="R101" s="17"/>
-      <c r="T101" s="20"/>
-      <c r="U101" s="20"/>
-      <c r="V101" s="17"/>
+      <c r="R101" s="18"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="17"/>
+      <c r="V101" s="18"/>
     </row>
     <row r="102" ht="16.5" spans="2:22">
-      <c r="B102" s="14">
-        <v>30302</v>
-      </c>
+      <c r="B102" s="14"/>
       <c r="C102" s="14"/>
       <c r="D102" s="15" t="s">
         <v>33</v>
@@ -5482,7 +5342,7 @@
       <c r="I102" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J102" s="17"/>
+      <c r="J102" s="18"/>
       <c r="K102">
         <v>1</v>
       </c>
@@ -5495,17 +5355,15 @@
       <c r="O102" t="s">
         <v>32</v>
       </c>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
-      <c r="R102" s="17"/>
-      <c r="T102" s="20"/>
-      <c r="U102" s="20"/>
-      <c r="V102" s="17"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18"/>
+      <c r="T102" s="17"/>
+      <c r="U102" s="17"/>
+      <c r="V102" s="18"/>
     </row>
     <row r="103" ht="16.5" spans="2:22">
-      <c r="B103" s="14">
-        <v>30302</v>
-      </c>
+      <c r="B103" s="14"/>
       <c r="C103" s="14"/>
       <c r="D103" s="15" t="s">
         <v>34</v>
@@ -5516,7 +5374,7 @@
       <c r="I103">
         <v>60000</v>
       </c>
-      <c r="J103" s="17"/>
+      <c r="J103" s="18"/>
       <c r="K103">
         <v>2</v>
       </c>
@@ -5529,17 +5387,15 @@
       <c r="O103" t="s">
         <v>32</v>
       </c>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
-      <c r="R103" s="17"/>
-      <c r="T103" s="20"/>
-      <c r="U103" s="20"/>
-      <c r="V103" s="17"/>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="18"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="17"/>
+      <c r="V103" s="18"/>
     </row>
     <row r="104" ht="16.5" spans="2:22">
-      <c r="B104" s="14">
-        <v>30302</v>
-      </c>
+      <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="15" t="s">
         <v>35</v>
@@ -5550,7 +5406,7 @@
       <c r="I104">
         <v>150000</v>
       </c>
-      <c r="J104" s="17"/>
+      <c r="J104" s="18"/>
       <c r="K104">
         <v>3</v>
       </c>
@@ -5563,17 +5419,15 @@
       <c r="O104" t="s">
         <v>32</v>
       </c>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
-      <c r="R104" s="17"/>
-      <c r="T104" s="20"/>
-      <c r="U104" s="20"/>
-      <c r="V104" s="17"/>
+      <c r="P104" s="18"/>
+      <c r="Q104" s="18"/>
+      <c r="R104" s="18"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="17"/>
+      <c r="V104" s="18"/>
     </row>
     <row r="105" ht="16.5" spans="2:22">
-      <c r="B105" s="14">
-        <v>30302</v>
-      </c>
+      <c r="B105" s="14"/>
       <c r="C105" s="14">
         <v>30401</v>
       </c>
@@ -5586,7 +5440,7 @@
       <c r="I105">
         <v>300000</v>
       </c>
-      <c r="J105" s="17"/>
+      <c r="J105" s="18"/>
       <c r="K105">
         <v>4</v>
       </c>
@@ -5599,17 +5453,15 @@
       <c r="O105" t="s">
         <v>32</v>
       </c>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="17"/>
-      <c r="T105" s="20"/>
-      <c r="U105" s="20"/>
-      <c r="V105" s="17"/>
+      <c r="P105" s="18"/>
+      <c r="Q105" s="18"/>
+      <c r="R105" s="18"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="17"/>
+      <c r="V105" s="18"/>
     </row>
     <row r="106" ht="16.5" spans="2:22">
-      <c r="B106" s="14">
-        <v>30302</v>
-      </c>
+      <c r="B106" s="14"/>
       <c r="C106" s="14"/>
       <c r="D106" s="15" t="s">
         <v>37</v>
@@ -5620,7 +5472,7 @@
       <c r="I106">
         <v>500000</v>
       </c>
-      <c r="J106" s="17"/>
+      <c r="J106" s="18"/>
       <c r="K106">
         <v>5</v>
       </c>
@@ -5633,12 +5485,12 @@
       <c r="O106" t="s">
         <v>32</v>
       </c>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
-      <c r="R106" s="17"/>
-      <c r="T106" s="20"/>
-      <c r="U106" s="20"/>
-      <c r="V106" s="17"/>
+      <c r="P106" s="18"/>
+      <c r="Q106" s="18"/>
+      <c r="R106" s="18"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="17"/>
+      <c r="V106" s="18"/>
     </row>
     <row r="107" ht="16.5" spans="2:22">
       <c r="B107" s="14">
@@ -5649,9 +5501,7 @@
         <v>55</v>
       </c>
       <c r="F107" s="15"/>
-      <c r="G107" s="14">
-        <v>304011</v>
-      </c>
+      <c r="G107" s="14"/>
       <c r="H107" s="14">
         <v>5</v>
       </c>
@@ -5667,15 +5517,13 @@
       <c r="O107" t="s">
         <v>32</v>
       </c>
-      <c r="R107" s="17"/>
-      <c r="T107" s="20"/>
-      <c r="U107" s="20"/>
-      <c r="V107" s="17"/>
+      <c r="R107" s="18"/>
+      <c r="T107" s="17"/>
+      <c r="U107" s="17"/>
+      <c r="V107" s="18"/>
     </row>
     <row r="108" ht="16.5" spans="2:22">
-      <c r="B108" s="14">
-        <v>30401</v>
-      </c>
+      <c r="B108" s="14"/>
       <c r="C108" s="14"/>
       <c r="D108" s="15" t="s">
         <v>33</v>
@@ -5686,7 +5534,7 @@
       <c r="I108" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J108" s="17"/>
+      <c r="J108" s="18"/>
       <c r="K108">
         <v>1</v>
       </c>
@@ -5699,17 +5547,15 @@
       <c r="O108" t="s">
         <v>32</v>
       </c>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
-      <c r="R108" s="17"/>
-      <c r="T108" s="20"/>
-      <c r="U108" s="20"/>
-      <c r="V108" s="17"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="18"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="17"/>
+      <c r="V108" s="18"/>
     </row>
     <row r="109" ht="16.5" spans="2:22">
-      <c r="B109" s="14">
-        <v>30401</v>
-      </c>
+      <c r="B109" s="14"/>
       <c r="C109" s="14"/>
       <c r="D109" s="15" t="s">
         <v>34</v>
@@ -5720,7 +5566,7 @@
       <c r="I109">
         <v>60000</v>
       </c>
-      <c r="J109" s="17"/>
+      <c r="J109" s="18"/>
       <c r="K109">
         <v>2</v>
       </c>
@@ -5733,17 +5579,15 @@
       <c r="O109" t="s">
         <v>32</v>
       </c>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
-      <c r="R109" s="17"/>
-      <c r="T109" s="20"/>
-      <c r="U109" s="20"/>
-      <c r="V109" s="17"/>
+      <c r="P109" s="18"/>
+      <c r="Q109" s="18"/>
+      <c r="R109" s="18"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="17"/>
+      <c r="V109" s="18"/>
     </row>
     <row r="110" ht="16.5" spans="2:22">
-      <c r="B110" s="14">
-        <v>30401</v>
-      </c>
+      <c r="B110" s="14"/>
       <c r="C110" s="14"/>
       <c r="D110" s="15" t="s">
         <v>35</v>
@@ -5754,7 +5598,7 @@
       <c r="I110">
         <v>150000</v>
       </c>
-      <c r="J110" s="17"/>
+      <c r="J110" s="18"/>
       <c r="K110">
         <v>3</v>
       </c>
@@ -5767,17 +5611,15 @@
       <c r="O110" t="s">
         <v>32</v>
       </c>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
-      <c r="R110" s="17"/>
-      <c r="T110" s="20"/>
-      <c r="U110" s="20"/>
-      <c r="V110" s="17"/>
+      <c r="P110" s="18"/>
+      <c r="Q110" s="18"/>
+      <c r="R110" s="18"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="17"/>
+      <c r="V110" s="18"/>
     </row>
     <row r="111" ht="16.5" spans="2:22">
-      <c r="B111" s="14">
-        <v>30401</v>
-      </c>
+      <c r="B111" s="14"/>
       <c r="C111" s="14"/>
       <c r="D111" s="15" t="s">
         <v>36</v>
@@ -5788,7 +5630,7 @@
       <c r="I111">
         <v>300000</v>
       </c>
-      <c r="J111" s="17"/>
+      <c r="J111" s="18"/>
       <c r="K111">
         <v>4</v>
       </c>
@@ -5801,17 +5643,15 @@
       <c r="O111" t="s">
         <v>32</v>
       </c>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="17"/>
-      <c r="T111" s="20"/>
-      <c r="U111" s="20"/>
-      <c r="V111" s="17"/>
+      <c r="P111" s="18"/>
+      <c r="Q111" s="18"/>
+      <c r="R111" s="18"/>
+      <c r="T111" s="17"/>
+      <c r="U111" s="17"/>
+      <c r="V111" s="18"/>
     </row>
     <row r="112" ht="16.5" spans="2:22">
-      <c r="B112" s="14">
-        <v>30401</v>
-      </c>
+      <c r="B112" s="14"/>
       <c r="C112" s="14"/>
       <c r="D112" s="15" t="s">
         <v>37</v>
@@ -5822,7 +5662,7 @@
       <c r="I112">
         <v>500000</v>
       </c>
-      <c r="J112" s="17"/>
+      <c r="J112" s="18"/>
       <c r="K112">
         <v>5</v>
       </c>
@@ -5835,22 +5675,22 @@
       <c r="O112" t="s">
         <v>32</v>
       </c>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
-      <c r="R112" s="17"/>
-      <c r="T112" s="20"/>
-      <c r="U112" s="20"/>
-      <c r="V112" s="17"/>
+      <c r="P112" s="18"/>
+      <c r="Q112" s="18"/>
+      <c r="R112" s="18"/>
+      <c r="T112" s="17"/>
+      <c r="U112" s="17"/>
+      <c r="V112" s="18"/>
     </row>
     <row r="113" ht="16.5" spans="7:18">
       <c r="G113" s="16"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
-      <c r="R113" s="17"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="18"/>
+      <c r="R113" s="18"/>
     </row>
     <row r="114" spans="7:7">
       <c r="G114" s="21"/>

--- a/配置表/Levelcondition.xlsx
+++ b/配置表/Levelcondition.xlsx
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -500,9 +500,6 @@
   </si>
   <si>
     <t>奖励数量</t>
-  </si>
-  <si>
-    <t>coin</t>
   </si>
   <si>
     <t>id</t>
@@ -1922,7 +1919,7 @@
   <dimension ref="A1:S136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -2092,18 +2089,9 @@
       <c r="G5" s="14">
         <v>6</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>3000</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
@@ -2127,9 +2115,6 @@
       <c r="G6" s="14">
         <v>6</v>
       </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
@@ -2153,9 +2138,6 @@
       <c r="G7" s="14">
         <v>6</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
@@ -2179,9 +2161,6 @@
       <c r="G8" s="14">
         <v>5</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
@@ -2205,9 +2184,6 @@
       <c r="G9" s="14">
         <v>5</v>
       </c>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
@@ -2231,9 +2207,6 @@
       <c r="G10" s="14">
         <v>3</v>
       </c>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
@@ -2257,8 +2230,6 @@
       <c r="G11" s="14">
         <v>2</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
       <c r="O11" s="20"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
@@ -2280,9 +2251,6 @@
       <c r="G12" s="14">
         <v>3</v>
       </c>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
@@ -2306,9 +2274,6 @@
       <c r="G13" s="14">
         <v>3</v>
       </c>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
@@ -2332,9 +2297,6 @@
       <c r="G14" s="14">
         <v>5</v>
       </c>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
@@ -2358,9 +2320,6 @@
       <c r="G15" s="14">
         <v>4</v>
       </c>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
@@ -2384,9 +2343,6 @@
       <c r="G16" s="14">
         <v>2</v>
       </c>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -2410,8 +2366,6 @@
       <c r="G17" s="14">
         <v>2</v>
       </c>
-      <c r="H17"/>
-      <c r="I17"/>
       <c r="O17" s="20"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
@@ -2433,9 +2387,6 @@
       <c r="G18" s="14">
         <v>2</v>
       </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
@@ -2459,9 +2410,6 @@
       <c r="G19" s="14">
         <v>2</v>
       </c>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
@@ -2485,9 +2433,6 @@
       <c r="G20" s="14">
         <v>3</v>
       </c>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
@@ -2511,9 +2456,6 @@
       <c r="G21" s="14">
         <v>3</v>
       </c>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
@@ -2533,9 +2475,6 @@
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="14"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
@@ -2549,8 +2488,6 @@
       <c r="D23" s="14"/>
       <c r="F23" s="17"/>
       <c r="G23" s="14"/>
-      <c r="H23"/>
-      <c r="I23"/>
       <c r="O23" s="20"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
@@ -2562,9 +2499,6 @@
       <c r="D24" s="15"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
@@ -2578,9 +2512,6 @@
       <c r="D25" s="15"/>
       <c r="F25" s="16"/>
       <c r="G25" s="14"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
@@ -2594,9 +2525,6 @@
       <c r="D26" s="15"/>
       <c r="F26" s="16"/>
       <c r="G26" s="14"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2610,9 +2538,6 @@
       <c r="D27" s="15"/>
       <c r="F27" s="16"/>
       <c r="G27" s="14"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
@@ -2626,9 +2551,6 @@
       <c r="D28" s="15"/>
       <c r="F28" s="16"/>
       <c r="G28" s="14"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
@@ -2642,8 +2564,6 @@
       <c r="D29" s="15"/>
       <c r="F29" s="17"/>
       <c r="G29" s="14"/>
-      <c r="H29"/>
-      <c r="I29"/>
       <c r="O29" s="20"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
@@ -2655,9 +2575,6 @@
       <c r="D30" s="15"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
@@ -2671,9 +2588,6 @@
       <c r="D31" s="15"/>
       <c r="F31" s="16"/>
       <c r="G31" s="14"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
@@ -2687,9 +2601,6 @@
       <c r="D32" s="15"/>
       <c r="F32" s="16"/>
       <c r="G32" s="14"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
@@ -2703,9 +2614,6 @@
       <c r="D33" s="15"/>
       <c r="F33" s="16"/>
       <c r="G33" s="14"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
@@ -2719,9 +2627,6 @@
       <c r="D34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="14"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
@@ -2735,8 +2640,6 @@
       <c r="D35" s="15"/>
       <c r="F35" s="17"/>
       <c r="G35" s="14"/>
-      <c r="H35"/>
-      <c r="I35"/>
       <c r="O35" s="20"/>
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
@@ -2748,9 +2651,6 @@
       <c r="D36" s="15"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
       <c r="O36" s="20"/>
@@ -2764,9 +2664,6 @@
       <c r="D37" s="15"/>
       <c r="F37" s="16"/>
       <c r="G37" s="14"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
@@ -2780,9 +2677,6 @@
       <c r="D38" s="15"/>
       <c r="F38" s="16"/>
       <c r="G38" s="14"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
       <c r="O38" s="20"/>
@@ -2796,9 +2690,6 @@
       <c r="D39" s="15"/>
       <c r="F39" s="16"/>
       <c r="G39" s="14"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
       <c r="O39" s="20"/>
@@ -2812,9 +2703,6 @@
       <c r="D40" s="15"/>
       <c r="F40" s="16"/>
       <c r="G40" s="14"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
       <c r="M40" s="20"/>
       <c r="N40" s="20"/>
       <c r="O40" s="20"/>
@@ -2828,8 +2716,6 @@
       <c r="D41" s="15"/>
       <c r="F41" s="17"/>
       <c r="G41" s="14"/>
-      <c r="H41"/>
-      <c r="I41"/>
       <c r="O41" s="20"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
@@ -2841,9 +2727,6 @@
       <c r="D42" s="15"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
@@ -2857,9 +2740,6 @@
       <c r="D43" s="15"/>
       <c r="F43" s="16"/>
       <c r="G43" s="14"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
       <c r="O43" s="20"/>
@@ -2873,9 +2753,6 @@
       <c r="D44" s="15"/>
       <c r="F44" s="16"/>
       <c r="G44" s="14"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
       <c r="O44" s="20"/>
@@ -2889,9 +2766,6 @@
       <c r="D45" s="15"/>
       <c r="F45" s="16"/>
       <c r="G45" s="14"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
       <c r="O45" s="20"/>
@@ -2905,9 +2779,6 @@
       <c r="D46" s="15"/>
       <c r="F46" s="16"/>
       <c r="G46" s="14"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
       <c r="O46" s="20"/>
@@ -2921,8 +2792,6 @@
       <c r="D47" s="15"/>
       <c r="F47" s="17"/>
       <c r="G47" s="14"/>
-      <c r="H47"/>
-      <c r="I47"/>
       <c r="O47" s="20"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
@@ -2934,9 +2803,6 @@
       <c r="D48" s="15"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
       <c r="M48" s="20"/>
       <c r="N48" s="20"/>
       <c r="O48" s="20"/>
@@ -2950,9 +2816,6 @@
       <c r="D49" s="15"/>
       <c r="F49" s="16"/>
       <c r="G49" s="14"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
       <c r="M49" s="20"/>
       <c r="N49" s="20"/>
       <c r="O49" s="20"/>
@@ -2966,9 +2829,6 @@
       <c r="D50" s="15"/>
       <c r="F50" s="16"/>
       <c r="G50" s="14"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
       <c r="O50" s="20"/>
@@ -2982,9 +2842,6 @@
       <c r="D51" s="15"/>
       <c r="F51" s="16"/>
       <c r="G51" s="14"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
       <c r="M51" s="20"/>
       <c r="N51" s="20"/>
       <c r="O51" s="20"/>
@@ -2998,9 +2855,6 @@
       <c r="D52" s="15"/>
       <c r="F52" s="16"/>
       <c r="G52" s="14"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
       <c r="O52" s="20"/>
@@ -3014,7 +2868,6 @@
       <c r="D53" s="15"/>
       <c r="F53" s="17"/>
       <c r="G53" s="14"/>
-      <c r="H53"/>
       <c r="O53" s="20"/>
       <c r="Q53" s="17"/>
       <c r="R53" s="17"/>
@@ -3026,9 +2879,6 @@
       <c r="D54" s="15"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
       <c r="O54" s="20"/>
@@ -3042,9 +2892,6 @@
       <c r="D55" s="15"/>
       <c r="F55" s="16"/>
       <c r="G55" s="14"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
       <c r="M55" s="20"/>
       <c r="N55" s="20"/>
       <c r="O55" s="20"/>
@@ -3058,9 +2905,6 @@
       <c r="D56" s="15"/>
       <c r="F56" s="16"/>
       <c r="G56" s="14"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
       <c r="O56" s="20"/>
@@ -3074,9 +2918,6 @@
       <c r="D57" s="15"/>
       <c r="F57" s="16"/>
       <c r="G57" s="14"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
       <c r="M57" s="20"/>
       <c r="N57" s="20"/>
       <c r="O57" s="20"/>
@@ -3090,9 +2931,6 @@
       <c r="D58" s="15"/>
       <c r="F58" s="16"/>
       <c r="G58" s="14"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
@@ -3106,8 +2944,6 @@
       <c r="D59" s="15"/>
       <c r="F59" s="17"/>
       <c r="G59" s="14"/>
-      <c r="H59"/>
-      <c r="I59"/>
       <c r="O59" s="20"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
@@ -3119,9 +2955,6 @@
       <c r="D60" s="15"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
       <c r="M60" s="20"/>
       <c r="N60" s="20"/>
       <c r="O60" s="20"/>
@@ -3135,9 +2968,6 @@
       <c r="D61" s="15"/>
       <c r="F61" s="16"/>
       <c r="G61" s="14"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
       <c r="M61" s="20"/>
       <c r="N61" s="20"/>
       <c r="O61" s="20"/>
@@ -3151,9 +2981,6 @@
       <c r="D62" s="15"/>
       <c r="F62" s="16"/>
       <c r="G62" s="14"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
       <c r="O62" s="20"/>
@@ -3167,9 +2994,6 @@
       <c r="D63" s="15"/>
       <c r="F63" s="16"/>
       <c r="G63" s="14"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
       <c r="M63" s="20"/>
       <c r="N63" s="20"/>
       <c r="O63" s="20"/>
@@ -3183,9 +3007,6 @@
       <c r="D64" s="15"/>
       <c r="F64" s="16"/>
       <c r="G64" s="14"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
       <c r="O64" s="20"/>
@@ -3199,7 +3020,6 @@
       <c r="D65" s="15"/>
       <c r="F65" s="17"/>
       <c r="G65" s="14"/>
-      <c r="H65"/>
       <c r="O65" s="20"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="17"/>
@@ -3211,9 +3031,6 @@
       <c r="D66" s="15"/>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
       <c r="M66" s="20"/>
       <c r="N66" s="20"/>
       <c r="O66" s="20"/>
@@ -3227,9 +3044,6 @@
       <c r="D67" s="15"/>
       <c r="F67" s="16"/>
       <c r="G67" s="14"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
@@ -3243,9 +3057,6 @@
       <c r="D68" s="15"/>
       <c r="F68" s="16"/>
       <c r="G68" s="14"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
       <c r="M68" s="20"/>
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
@@ -3259,9 +3070,6 @@
       <c r="D69" s="15"/>
       <c r="F69" s="16"/>
       <c r="G69" s="14"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
       <c r="M69" s="20"/>
       <c r="N69" s="20"/>
       <c r="O69" s="20"/>
@@ -3275,9 +3083,6 @@
       <c r="D70" s="15"/>
       <c r="F70" s="16"/>
       <c r="G70" s="14"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
       <c r="M70" s="20"/>
       <c r="N70" s="20"/>
       <c r="O70" s="20"/>
@@ -3291,8 +3096,6 @@
       <c r="D71" s="15"/>
       <c r="F71" s="17"/>
       <c r="G71" s="14"/>
-      <c r="H71"/>
-      <c r="I71"/>
       <c r="O71" s="20"/>
       <c r="Q71" s="17"/>
       <c r="R71" s="17"/>
@@ -3304,9 +3107,6 @@
       <c r="D72" s="15"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
       <c r="M72" s="20"/>
       <c r="N72" s="20"/>
       <c r="O72" s="20"/>
@@ -3320,9 +3120,6 @@
       <c r="D73" s="15"/>
       <c r="F73" s="16"/>
       <c r="G73" s="14"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
       <c r="M73" s="20"/>
       <c r="N73" s="20"/>
       <c r="O73" s="20"/>
@@ -3336,9 +3133,6 @@
       <c r="D74" s="15"/>
       <c r="F74" s="16"/>
       <c r="G74" s="14"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
       <c r="M74" s="20"/>
       <c r="N74" s="20"/>
       <c r="O74" s="20"/>
@@ -3352,9 +3146,6 @@
       <c r="D75" s="15"/>
       <c r="F75" s="16"/>
       <c r="G75" s="14"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
       <c r="M75" s="20"/>
       <c r="N75" s="20"/>
       <c r="O75" s="20"/>
@@ -3368,9 +3159,6 @@
       <c r="D76" s="15"/>
       <c r="F76" s="16"/>
       <c r="G76" s="14"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
       <c r="M76" s="20"/>
       <c r="N76" s="20"/>
       <c r="O76" s="20"/>
@@ -3384,8 +3172,6 @@
       <c r="D77" s="15"/>
       <c r="F77" s="17"/>
       <c r="G77" s="14"/>
-      <c r="H77"/>
-      <c r="I77"/>
       <c r="O77" s="20"/>
       <c r="Q77" s="17"/>
       <c r="R77" s="17"/>
@@ -3397,9 +3183,6 @@
       <c r="D78" s="15"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
       <c r="M78" s="20"/>
       <c r="N78" s="20"/>
       <c r="O78" s="20"/>
@@ -3413,9 +3196,6 @@
       <c r="D79" s="15"/>
       <c r="F79" s="16"/>
       <c r="G79" s="14"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
       <c r="M79" s="20"/>
       <c r="N79" s="20"/>
       <c r="O79" s="20"/>
@@ -3429,9 +3209,6 @@
       <c r="D80" s="15"/>
       <c r="F80" s="16"/>
       <c r="G80" s="14"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
       <c r="M80" s="20"/>
       <c r="N80" s="20"/>
       <c r="O80" s="20"/>
@@ -3445,9 +3222,6 @@
       <c r="D81" s="15"/>
       <c r="F81" s="16"/>
       <c r="G81" s="14"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
       <c r="M81" s="20"/>
       <c r="N81" s="20"/>
       <c r="O81" s="20"/>
@@ -3461,9 +3235,6 @@
       <c r="D82" s="15"/>
       <c r="F82" s="16"/>
       <c r="G82" s="14"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
       <c r="M82" s="20"/>
       <c r="N82" s="20"/>
       <c r="O82" s="20"/>
@@ -3477,8 +3248,6 @@
       <c r="D83" s="15"/>
       <c r="F83" s="17"/>
       <c r="G83" s="14"/>
-      <c r="H83"/>
-      <c r="I83"/>
       <c r="O83" s="20"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="17"/>
@@ -3490,9 +3259,6 @@
       <c r="D84" s="15"/>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
       <c r="M84" s="20"/>
       <c r="N84" s="20"/>
       <c r="O84" s="20"/>
@@ -3506,9 +3272,6 @@
       <c r="D85" s="15"/>
       <c r="F85" s="16"/>
       <c r="G85" s="14"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
       <c r="M85" s="20"/>
       <c r="N85" s="20"/>
       <c r="O85" s="20"/>
@@ -3522,9 +3285,6 @@
       <c r="D86" s="15"/>
       <c r="F86" s="16"/>
       <c r="G86" s="14"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
       <c r="M86" s="20"/>
       <c r="N86" s="20"/>
       <c r="O86" s="20"/>
@@ -3538,9 +3298,6 @@
       <c r="D87" s="15"/>
       <c r="F87" s="16"/>
       <c r="G87" s="14"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
       <c r="M87" s="20"/>
       <c r="N87" s="20"/>
       <c r="O87" s="20"/>
@@ -3554,9 +3311,6 @@
       <c r="D88" s="15"/>
       <c r="F88" s="16"/>
       <c r="G88" s="14"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
       <c r="M88" s="20"/>
       <c r="N88" s="20"/>
       <c r="O88" s="20"/>
@@ -3570,8 +3324,6 @@
       <c r="D89" s="15"/>
       <c r="F89" s="17"/>
       <c r="G89" s="14"/>
-      <c r="H89"/>
-      <c r="I89"/>
       <c r="O89" s="20"/>
       <c r="Q89" s="17"/>
       <c r="R89" s="17"/>
@@ -3583,9 +3335,6 @@
       <c r="D90" s="15"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
       <c r="M90" s="20"/>
       <c r="N90" s="20"/>
       <c r="O90" s="20"/>
@@ -3599,9 +3348,6 @@
       <c r="D91" s="15"/>
       <c r="F91" s="16"/>
       <c r="G91" s="14"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
       <c r="M91" s="20"/>
       <c r="N91" s="20"/>
       <c r="O91" s="20"/>
@@ -3615,9 +3361,6 @@
       <c r="D92" s="15"/>
       <c r="F92" s="16"/>
       <c r="G92" s="14"/>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
       <c r="M92" s="20"/>
       <c r="N92" s="20"/>
       <c r="O92" s="20"/>
@@ -3631,9 +3374,6 @@
       <c r="D93" s="15"/>
       <c r="F93" s="16"/>
       <c r="G93" s="14"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
       <c r="M93" s="20"/>
       <c r="N93" s="20"/>
       <c r="O93" s="20"/>
@@ -3647,9 +3387,6 @@
       <c r="D94" s="15"/>
       <c r="F94" s="16"/>
       <c r="G94" s="14"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
       <c r="M94" s="20"/>
       <c r="N94" s="20"/>
       <c r="O94" s="20"/>
@@ -3663,8 +3400,6 @@
       <c r="D95" s="15"/>
       <c r="F95" s="17"/>
       <c r="G95" s="14"/>
-      <c r="H95"/>
-      <c r="I95"/>
       <c r="O95" s="20"/>
       <c r="Q95" s="17"/>
       <c r="R95" s="17"/>
@@ -3676,9 +3411,6 @@
       <c r="D96" s="15"/>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
       <c r="O96" s="20"/>
@@ -3692,9 +3424,6 @@
       <c r="D97" s="15"/>
       <c r="F97" s="16"/>
       <c r="G97" s="14"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
       <c r="M97" s="20"/>
       <c r="N97" s="20"/>
       <c r="O97" s="20"/>
@@ -3708,9 +3437,6 @@
       <c r="D98" s="15"/>
       <c r="F98" s="16"/>
       <c r="G98" s="14"/>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98"/>
       <c r="M98" s="20"/>
       <c r="N98" s="20"/>
       <c r="O98" s="20"/>
@@ -3724,9 +3450,6 @@
       <c r="D99" s="15"/>
       <c r="F99" s="16"/>
       <c r="G99" s="14"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
       <c r="M99" s="20"/>
       <c r="N99" s="20"/>
       <c r="O99" s="20"/>
@@ -3740,9 +3463,6 @@
       <c r="D100" s="15"/>
       <c r="F100" s="16"/>
       <c r="G100" s="14"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
       <c r="M100" s="20"/>
       <c r="N100" s="20"/>
       <c r="O100" s="20"/>
@@ -3756,8 +3476,6 @@
       <c r="D101" s="15"/>
       <c r="F101" s="17"/>
       <c r="G101" s="14"/>
-      <c r="H101"/>
-      <c r="I101"/>
       <c r="O101" s="20"/>
       <c r="Q101" s="17"/>
       <c r="R101" s="17"/>
@@ -3769,9 +3487,6 @@
       <c r="D102" s="15"/>
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
       <c r="M102" s="20"/>
       <c r="N102" s="20"/>
       <c r="O102" s="20"/>
@@ -3785,9 +3500,6 @@
       <c r="D103" s="15"/>
       <c r="F103" s="16"/>
       <c r="G103" s="14"/>
-      <c r="H103"/>
-      <c r="I103"/>
-      <c r="J103"/>
       <c r="M103" s="20"/>
       <c r="N103" s="20"/>
       <c r="O103" s="20"/>
@@ -3801,9 +3513,6 @@
       <c r="D104" s="15"/>
       <c r="F104" s="16"/>
       <c r="G104" s="14"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
       <c r="M104" s="20"/>
       <c r="N104" s="20"/>
       <c r="O104" s="20"/>
@@ -3817,9 +3526,6 @@
       <c r="D105" s="15"/>
       <c r="F105" s="16"/>
       <c r="G105" s="14"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
       <c r="M105" s="20"/>
       <c r="N105" s="20"/>
       <c r="O105" s="20"/>
@@ -3833,9 +3539,6 @@
       <c r="D106" s="15"/>
       <c r="F106" s="16"/>
       <c r="G106" s="14"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
       <c r="M106" s="20"/>
       <c r="N106" s="20"/>
       <c r="O106" s="20"/>
@@ -3849,8 +3552,6 @@
       <c r="D107" s="15"/>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
-      <c r="H107"/>
-      <c r="I107"/>
       <c r="O107" s="20"/>
       <c r="Q107" s="17"/>
       <c r="R107" s="17"/>
@@ -3862,9 +3563,6 @@
       <c r="D108" s="15"/>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
       <c r="M108" s="20"/>
       <c r="N108" s="20"/>
       <c r="O108" s="20"/>
@@ -3878,9 +3576,6 @@
       <c r="D109" s="15"/>
       <c r="F109" s="16"/>
       <c r="G109" s="14"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
       <c r="M109" s="20"/>
       <c r="N109" s="20"/>
       <c r="O109" s="20"/>
@@ -3894,9 +3589,6 @@
       <c r="D110" s="15"/>
       <c r="F110" s="16"/>
       <c r="G110" s="14"/>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
       <c r="M110" s="20"/>
       <c r="N110" s="20"/>
       <c r="O110" s="20"/>
@@ -3910,9 +3602,6 @@
       <c r="D111" s="15"/>
       <c r="F111" s="16"/>
       <c r="G111" s="14"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
       <c r="M111" s="20"/>
       <c r="N111" s="20"/>
       <c r="O111" s="20"/>
@@ -3926,9 +3615,6 @@
       <c r="D112" s="15"/>
       <c r="F112" s="16"/>
       <c r="G112" s="14"/>
-      <c r="H112"/>
-      <c r="I112"/>
-      <c r="J112"/>
       <c r="M112" s="20"/>
       <c r="N112" s="20"/>
       <c r="O112" s="20"/>
@@ -4033,70 +3719,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
@@ -4149,10 +3835,10 @@
         <v>12</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>12</v>
@@ -4164,75 +3850,75 @@
         <v>12</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -4300,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -4345,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -4392,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -4439,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -4486,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -4533,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -4580,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/Levelcondition.xlsx
+++ b/配置表/Levelcondition.xlsx
@@ -1340,7 +1340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1383,6 +1383,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1919,7 +1922,7 @@
   <dimension ref="A1:S136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -2005,7 +2008,7 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>12</v>
@@ -2091,13 +2094,14 @@
       </c>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
-      <c r="S5" s="20"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" ht="16.5" spans="2:19">
       <c r="B6" s="14">
@@ -2115,12 +2119,12 @@
       <c r="G6" s="14">
         <v>6</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
-      <c r="S6" s="20"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7" ht="16.5" spans="2:19">
       <c r="B7" s="14">
@@ -2138,12 +2142,12 @@
       <c r="G7" s="14">
         <v>6</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
-      <c r="S7" s="20"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" ht="16.5" spans="2:19">
       <c r="B8" s="14">
@@ -2161,12 +2165,12 @@
       <c r="G8" s="14">
         <v>5</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
-      <c r="S8" s="20"/>
+      <c r="S8" s="21"/>
     </row>
     <row r="9" ht="16.5" spans="2:19">
       <c r="B9" s="14">
@@ -2184,12 +2188,12 @@
       <c r="G9" s="14">
         <v>5</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
-      <c r="S9" s="20"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" ht="16.5" spans="2:19">
       <c r="B10" s="14">
@@ -2207,12 +2211,12 @@
       <c r="G10" s="14">
         <v>3</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
-      <c r="S10" s="20"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" ht="16.5" spans="2:19">
       <c r="B11" s="14">
@@ -2230,10 +2234,10 @@
       <c r="G11" s="14">
         <v>2</v>
       </c>
-      <c r="O11" s="20"/>
+      <c r="O11" s="21"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
-      <c r="S11" s="20"/>
+      <c r="S11" s="21"/>
     </row>
     <row r="12" ht="16.5" spans="2:19">
       <c r="B12" s="14">
@@ -2251,12 +2255,12 @@
       <c r="G12" s="14">
         <v>3</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
-      <c r="S12" s="20"/>
+      <c r="S12" s="21"/>
     </row>
     <row r="13" ht="16.5" spans="2:19">
       <c r="B13" s="14">
@@ -2274,12 +2278,12 @@
       <c r="G13" s="14">
         <v>3</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
-      <c r="S13" s="20"/>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" ht="16.5" spans="2:19">
       <c r="B14" s="14">
@@ -2297,12 +2301,12 @@
       <c r="G14" s="14">
         <v>5</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
-      <c r="S14" s="20"/>
+      <c r="S14" s="21"/>
     </row>
     <row r="15" ht="16.5" spans="2:19">
       <c r="B15" s="14">
@@ -2320,12 +2324,12 @@
       <c r="G15" s="14">
         <v>4</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
-      <c r="S15" s="20"/>
+      <c r="S15" s="21"/>
     </row>
     <row r="16" ht="16.5" spans="2:19">
       <c r="B16" s="14">
@@ -2343,12 +2347,12 @@
       <c r="G16" s="14">
         <v>2</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
-      <c r="S16" s="20"/>
+      <c r="S16" s="21"/>
     </row>
     <row r="17" ht="16.5" spans="2:19">
       <c r="B17" s="14">
@@ -2366,10 +2370,10 @@
       <c r="G17" s="14">
         <v>2</v>
       </c>
-      <c r="O17" s="20"/>
+      <c r="O17" s="21"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
-      <c r="S17" s="20"/>
+      <c r="S17" s="21"/>
     </row>
     <row r="18" ht="16.5" spans="2:19">
       <c r="B18" s="14">
@@ -2387,12 +2391,12 @@
       <c r="G18" s="14">
         <v>2</v>
       </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
-      <c r="S18" s="20"/>
+      <c r="S18" s="21"/>
     </row>
     <row r="19" ht="16.5" spans="2:19">
       <c r="B19" s="14">
@@ -2410,12 +2414,12 @@
       <c r="G19" s="14">
         <v>2</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
-      <c r="S19" s="20"/>
+      <c r="S19" s="21"/>
     </row>
     <row r="20" ht="16.5" spans="2:19">
       <c r="B20" s="14">
@@ -2433,12 +2437,12 @@
       <c r="G20" s="14">
         <v>3</v>
       </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
-      <c r="S20" s="20"/>
+      <c r="S20" s="21"/>
     </row>
     <row r="21" ht="16.5" spans="2:19">
       <c r="B21" s="14">
@@ -2456,12 +2460,12 @@
       <c r="G21" s="14">
         <v>3</v>
       </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
-      <c r="S21" s="20"/>
+      <c r="S21" s="21"/>
     </row>
     <row r="22" ht="16.5" spans="2:19">
       <c r="B22" s="14">
@@ -2475,12 +2479,12 @@
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="14"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
-      <c r="S22" s="20"/>
+      <c r="S22" s="21"/>
     </row>
     <row r="23" ht="16.5" spans="2:19">
       <c r="B23" s="14"/>
@@ -2488,10 +2492,10 @@
       <c r="D23" s="14"/>
       <c r="F23" s="17"/>
       <c r="G23" s="14"/>
-      <c r="O23" s="20"/>
+      <c r="O23" s="21"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
-      <c r="S23" s="20"/>
+      <c r="S23" s="21"/>
     </row>
     <row r="24" ht="16.5" spans="2:19">
       <c r="B24" s="14"/>
@@ -2499,12 +2503,12 @@
       <c r="D24" s="15"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
-      <c r="S24" s="20"/>
+      <c r="S24" s="21"/>
     </row>
     <row r="25" ht="16.5" spans="2:19">
       <c r="B25" s="14"/>
@@ -2512,12 +2516,12 @@
       <c r="D25" s="15"/>
       <c r="F25" s="16"/>
       <c r="G25" s="14"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
-      <c r="S25" s="20"/>
+      <c r="S25" s="21"/>
     </row>
     <row r="26" ht="16.5" spans="2:19">
       <c r="B26" s="14"/>
@@ -2525,12 +2529,12 @@
       <c r="D26" s="15"/>
       <c r="F26" s="16"/>
       <c r="G26" s="14"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
-      <c r="S26" s="20"/>
+      <c r="S26" s="21"/>
     </row>
     <row r="27" ht="16.5" spans="2:19">
       <c r="B27" s="14"/>
@@ -2538,12 +2542,12 @@
       <c r="D27" s="15"/>
       <c r="F27" s="16"/>
       <c r="G27" s="14"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
-      <c r="S27" s="20"/>
+      <c r="S27" s="21"/>
     </row>
     <row r="28" ht="16.5" spans="2:19">
       <c r="B28" s="14"/>
@@ -2551,12 +2555,12 @@
       <c r="D28" s="15"/>
       <c r="F28" s="16"/>
       <c r="G28" s="14"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
-      <c r="S28" s="20"/>
+      <c r="S28" s="21"/>
     </row>
     <row r="29" ht="16.5" spans="2:19">
       <c r="B29" s="14"/>
@@ -2564,10 +2568,10 @@
       <c r="D29" s="15"/>
       <c r="F29" s="17"/>
       <c r="G29" s="14"/>
-      <c r="O29" s="20"/>
+      <c r="O29" s="21"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
-      <c r="S29" s="20"/>
+      <c r="S29" s="21"/>
     </row>
     <row r="30" ht="16.5" spans="2:19">
       <c r="B30" s="14"/>
@@ -2575,12 +2579,12 @@
       <c r="D30" s="15"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
-      <c r="S30" s="20"/>
+      <c r="S30" s="21"/>
     </row>
     <row r="31" ht="16.5" spans="2:19">
       <c r="B31" s="14"/>
@@ -2588,12 +2592,12 @@
       <c r="D31" s="15"/>
       <c r="F31" s="16"/>
       <c r="G31" s="14"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
-      <c r="S31" s="20"/>
+      <c r="S31" s="21"/>
     </row>
     <row r="32" ht="16.5" spans="2:19">
       <c r="B32" s="14"/>
@@ -2601,12 +2605,12 @@
       <c r="D32" s="15"/>
       <c r="F32" s="16"/>
       <c r="G32" s="14"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
-      <c r="S32" s="20"/>
+      <c r="S32" s="21"/>
     </row>
     <row r="33" ht="16.5" spans="2:19">
       <c r="B33" s="14"/>
@@ -2614,12 +2618,12 @@
       <c r="D33" s="15"/>
       <c r="F33" s="16"/>
       <c r="G33" s="14"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
-      <c r="S33" s="20"/>
+      <c r="S33" s="21"/>
     </row>
     <row r="34" ht="16.5" spans="2:19">
       <c r="B34" s="14"/>
@@ -2627,12 +2631,12 @@
       <c r="D34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="14"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
-      <c r="S34" s="20"/>
+      <c r="S34" s="21"/>
     </row>
     <row r="35" ht="16.5" spans="2:19">
       <c r="B35" s="14"/>
@@ -2640,10 +2644,10 @@
       <c r="D35" s="15"/>
       <c r="F35" s="17"/>
       <c r="G35" s="14"/>
-      <c r="O35" s="20"/>
+      <c r="O35" s="21"/>
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
-      <c r="S35" s="20"/>
+      <c r="S35" s="21"/>
     </row>
     <row r="36" ht="16.5" spans="2:19">
       <c r="B36" s="14"/>
@@ -2651,12 +2655,12 @@
       <c r="D36" s="15"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
-      <c r="S36" s="20"/>
+      <c r="S36" s="21"/>
     </row>
     <row r="37" ht="16.5" spans="2:19">
       <c r="B37" s="14"/>
@@ -2664,12 +2668,12 @@
       <c r="D37" s="15"/>
       <c r="F37" s="16"/>
       <c r="G37" s="14"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
       <c r="Q37" s="17"/>
       <c r="R37" s="17"/>
-      <c r="S37" s="20"/>
+      <c r="S37" s="21"/>
     </row>
     <row r="38" ht="16.5" spans="2:19">
       <c r="B38" s="14"/>
@@ -2677,12 +2681,12 @@
       <c r="D38" s="15"/>
       <c r="F38" s="16"/>
       <c r="G38" s="14"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
       <c r="Q38" s="17"/>
       <c r="R38" s="17"/>
-      <c r="S38" s="20"/>
+      <c r="S38" s="21"/>
     </row>
     <row r="39" ht="16.5" spans="2:19">
       <c r="B39" s="14"/>
@@ -2690,12 +2694,12 @@
       <c r="D39" s="15"/>
       <c r="F39" s="16"/>
       <c r="G39" s="14"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="17"/>
-      <c r="S39" s="20"/>
+      <c r="S39" s="21"/>
     </row>
     <row r="40" ht="16.5" spans="2:19">
       <c r="B40" s="14"/>
@@ -2703,12 +2707,12 @@
       <c r="D40" s="15"/>
       <c r="F40" s="16"/>
       <c r="G40" s="14"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
       <c r="Q40" s="17"/>
       <c r="R40" s="17"/>
-      <c r="S40" s="20"/>
+      <c r="S40" s="21"/>
     </row>
     <row r="41" ht="16.5" spans="2:19">
       <c r="B41" s="14"/>
@@ -2716,10 +2720,10 @@
       <c r="D41" s="15"/>
       <c r="F41" s="17"/>
       <c r="G41" s="14"/>
-      <c r="O41" s="20"/>
+      <c r="O41" s="21"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
-      <c r="S41" s="20"/>
+      <c r="S41" s="21"/>
     </row>
     <row r="42" ht="16.5" spans="2:19">
       <c r="B42" s="14"/>
@@ -2727,12 +2731,12 @@
       <c r="D42" s="15"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
-      <c r="S42" s="20"/>
+      <c r="S42" s="21"/>
     </row>
     <row r="43" ht="16.5" spans="2:19">
       <c r="B43" s="14"/>
@@ -2740,12 +2744,12 @@
       <c r="D43" s="15"/>
       <c r="F43" s="16"/>
       <c r="G43" s="14"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
-      <c r="S43" s="20"/>
+      <c r="S43" s="21"/>
     </row>
     <row r="44" ht="16.5" spans="2:19">
       <c r="B44" s="14"/>
@@ -2753,12 +2757,12 @@
       <c r="D44" s="15"/>
       <c r="F44" s="16"/>
       <c r="G44" s="14"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
-      <c r="S44" s="20"/>
+      <c r="S44" s="21"/>
     </row>
     <row r="45" ht="16.5" spans="2:19">
       <c r="B45" s="14"/>
@@ -2766,12 +2770,12 @@
       <c r="D45" s="15"/>
       <c r="F45" s="16"/>
       <c r="G45" s="14"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
-      <c r="S45" s="20"/>
+      <c r="S45" s="21"/>
     </row>
     <row r="46" ht="16.5" spans="2:19">
       <c r="B46" s="14"/>
@@ -2779,12 +2783,12 @@
       <c r="D46" s="15"/>
       <c r="F46" s="16"/>
       <c r="G46" s="14"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
       <c r="Q46" s="17"/>
       <c r="R46" s="17"/>
-      <c r="S46" s="20"/>
+      <c r="S46" s="21"/>
     </row>
     <row r="47" ht="16.5" spans="2:19">
       <c r="B47" s="14"/>
@@ -2792,10 +2796,10 @@
       <c r="D47" s="15"/>
       <c r="F47" s="17"/>
       <c r="G47" s="14"/>
-      <c r="O47" s="20"/>
+      <c r="O47" s="21"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
-      <c r="S47" s="20"/>
+      <c r="S47" s="21"/>
     </row>
     <row r="48" ht="16.5" spans="2:19">
       <c r="B48" s="14"/>
@@ -2803,12 +2807,12 @@
       <c r="D48" s="15"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
-      <c r="S48" s="20"/>
+      <c r="S48" s="21"/>
     </row>
     <row r="49" ht="16.5" spans="2:19">
       <c r="B49" s="14"/>
@@ -2816,12 +2820,12 @@
       <c r="D49" s="15"/>
       <c r="F49" s="16"/>
       <c r="G49" s="14"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
-      <c r="S49" s="20"/>
+      <c r="S49" s="21"/>
     </row>
     <row r="50" ht="16.5" spans="2:19">
       <c r="B50" s="14"/>
@@ -2829,12 +2833,12 @@
       <c r="D50" s="15"/>
       <c r="F50" s="16"/>
       <c r="G50" s="14"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
       <c r="Q50" s="17"/>
       <c r="R50" s="17"/>
-      <c r="S50" s="20"/>
+      <c r="S50" s="21"/>
     </row>
     <row r="51" ht="16.5" spans="2:19">
       <c r="B51" s="14"/>
@@ -2842,12 +2846,12 @@
       <c r="D51" s="15"/>
       <c r="F51" s="16"/>
       <c r="G51" s="14"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
       <c r="Q51" s="17"/>
       <c r="R51" s="17"/>
-      <c r="S51" s="20"/>
+      <c r="S51" s="21"/>
     </row>
     <row r="52" ht="16.5" spans="2:19">
       <c r="B52" s="14"/>
@@ -2855,12 +2859,12 @@
       <c r="D52" s="15"/>
       <c r="F52" s="16"/>
       <c r="G52" s="14"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
       <c r="Q52" s="17"/>
       <c r="R52" s="17"/>
-      <c r="S52" s="20"/>
+      <c r="S52" s="21"/>
     </row>
     <row r="53" ht="16.5" spans="2:19">
       <c r="B53" s="14"/>
@@ -2868,10 +2872,10 @@
       <c r="D53" s="15"/>
       <c r="F53" s="17"/>
       <c r="G53" s="14"/>
-      <c r="O53" s="20"/>
+      <c r="O53" s="21"/>
       <c r="Q53" s="17"/>
       <c r="R53" s="17"/>
-      <c r="S53" s="20"/>
+      <c r="S53" s="21"/>
     </row>
     <row r="54" ht="16.5" spans="2:19">
       <c r="B54" s="14"/>
@@ -2879,12 +2883,12 @@
       <c r="D54" s="15"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
       <c r="Q54" s="17"/>
       <c r="R54" s="17"/>
-      <c r="S54" s="20"/>
+      <c r="S54" s="21"/>
     </row>
     <row r="55" ht="16.5" spans="2:19">
       <c r="B55" s="14"/>
@@ -2892,12 +2896,12 @@
       <c r="D55" s="15"/>
       <c r="F55" s="16"/>
       <c r="G55" s="14"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
       <c r="Q55" s="17"/>
       <c r="R55" s="17"/>
-      <c r="S55" s="20"/>
+      <c r="S55" s="21"/>
     </row>
     <row r="56" ht="16.5" spans="2:19">
       <c r="B56" s="14"/>
@@ -2905,12 +2909,12 @@
       <c r="D56" s="15"/>
       <c r="F56" s="16"/>
       <c r="G56" s="14"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
       <c r="Q56" s="17"/>
       <c r="R56" s="17"/>
-      <c r="S56" s="20"/>
+      <c r="S56" s="21"/>
     </row>
     <row r="57" ht="16.5" spans="2:19">
       <c r="B57" s="14"/>
@@ -2918,12 +2922,12 @@
       <c r="D57" s="15"/>
       <c r="F57" s="16"/>
       <c r="G57" s="14"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="17"/>
-      <c r="S57" s="20"/>
+      <c r="S57" s="21"/>
     </row>
     <row r="58" ht="16.5" spans="2:19">
       <c r="B58" s="14"/>
@@ -2931,12 +2935,12 @@
       <c r="D58" s="15"/>
       <c r="F58" s="16"/>
       <c r="G58" s="14"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
-      <c r="S58" s="20"/>
+      <c r="S58" s="21"/>
     </row>
     <row r="59" ht="16.5" spans="2:19">
       <c r="B59" s="14"/>
@@ -2944,10 +2948,10 @@
       <c r="D59" s="15"/>
       <c r="F59" s="17"/>
       <c r="G59" s="14"/>
-      <c r="O59" s="20"/>
+      <c r="O59" s="21"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
-      <c r="S59" s="20"/>
+      <c r="S59" s="21"/>
     </row>
     <row r="60" ht="16.5" spans="2:19">
       <c r="B60" s="14"/>
@@ -2955,12 +2959,12 @@
       <c r="D60" s="15"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
-      <c r="S60" s="20"/>
+      <c r="S60" s="21"/>
     </row>
     <row r="61" ht="16.5" spans="2:19">
       <c r="B61" s="14"/>
@@ -2968,12 +2972,12 @@
       <c r="D61" s="15"/>
       <c r="F61" s="16"/>
       <c r="G61" s="14"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="17"/>
-      <c r="S61" s="20"/>
+      <c r="S61" s="21"/>
     </row>
     <row r="62" ht="16.5" spans="2:19">
       <c r="B62" s="14"/>
@@ -2981,12 +2985,12 @@
       <c r="D62" s="15"/>
       <c r="F62" s="16"/>
       <c r="G62" s="14"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="17"/>
-      <c r="S62" s="20"/>
+      <c r="S62" s="21"/>
     </row>
     <row r="63" ht="16.5" spans="2:19">
       <c r="B63" s="14"/>
@@ -2994,12 +2998,12 @@
       <c r="D63" s="15"/>
       <c r="F63" s="16"/>
       <c r="G63" s="14"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
       <c r="Q63" s="17"/>
       <c r="R63" s="17"/>
-      <c r="S63" s="20"/>
+      <c r="S63" s="21"/>
     </row>
     <row r="64" ht="16.5" spans="2:19">
       <c r="B64" s="14"/>
@@ -3007,12 +3011,12 @@
       <c r="D64" s="15"/>
       <c r="F64" s="16"/>
       <c r="G64" s="14"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
       <c r="Q64" s="17"/>
       <c r="R64" s="17"/>
-      <c r="S64" s="20"/>
+      <c r="S64" s="21"/>
     </row>
     <row r="65" ht="16.5" spans="2:19">
       <c r="B65" s="14"/>
@@ -3020,10 +3024,10 @@
       <c r="D65" s="15"/>
       <c r="F65" s="17"/>
       <c r="G65" s="14"/>
-      <c r="O65" s="20"/>
+      <c r="O65" s="21"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="17"/>
-      <c r="S65" s="20"/>
+      <c r="S65" s="21"/>
     </row>
     <row r="66" ht="16.5" spans="2:19">
       <c r="B66" s="14"/>
@@ -3031,12 +3035,12 @@
       <c r="D66" s="15"/>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
       <c r="Q66" s="17"/>
       <c r="R66" s="17"/>
-      <c r="S66" s="20"/>
+      <c r="S66" s="21"/>
     </row>
     <row r="67" ht="16.5" spans="2:19">
       <c r="B67" s="14"/>
@@ -3044,12 +3048,12 @@
       <c r="D67" s="15"/>
       <c r="F67" s="16"/>
       <c r="G67" s="14"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
       <c r="Q67" s="17"/>
       <c r="R67" s="17"/>
-      <c r="S67" s="20"/>
+      <c r="S67" s="21"/>
     </row>
     <row r="68" ht="16.5" spans="2:19">
       <c r="B68" s="14"/>
@@ -3057,12 +3061,12 @@
       <c r="D68" s="15"/>
       <c r="F68" s="16"/>
       <c r="G68" s="14"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
       <c r="Q68" s="17"/>
       <c r="R68" s="17"/>
-      <c r="S68" s="20"/>
+      <c r="S68" s="21"/>
     </row>
     <row r="69" ht="16.5" spans="2:19">
       <c r="B69" s="14"/>
@@ -3070,12 +3074,12 @@
       <c r="D69" s="15"/>
       <c r="F69" s="16"/>
       <c r="G69" s="14"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
       <c r="Q69" s="17"/>
       <c r="R69" s="17"/>
-      <c r="S69" s="20"/>
+      <c r="S69" s="21"/>
     </row>
     <row r="70" ht="16.5" spans="2:19">
       <c r="B70" s="14"/>
@@ -3083,12 +3087,12 @@
       <c r="D70" s="15"/>
       <c r="F70" s="16"/>
       <c r="G70" s="14"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
       <c r="Q70" s="17"/>
       <c r="R70" s="17"/>
-      <c r="S70" s="20"/>
+      <c r="S70" s="21"/>
     </row>
     <row r="71" ht="16.5" spans="2:19">
       <c r="B71" s="14"/>
@@ -3096,10 +3100,10 @@
       <c r="D71" s="15"/>
       <c r="F71" s="17"/>
       <c r="G71" s="14"/>
-      <c r="O71" s="20"/>
+      <c r="O71" s="21"/>
       <c r="Q71" s="17"/>
       <c r="R71" s="17"/>
-      <c r="S71" s="20"/>
+      <c r="S71" s="21"/>
     </row>
     <row r="72" ht="16.5" spans="2:19">
       <c r="B72" s="14"/>
@@ -3107,12 +3111,12 @@
       <c r="D72" s="15"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
       <c r="Q72" s="17"/>
       <c r="R72" s="17"/>
-      <c r="S72" s="20"/>
+      <c r="S72" s="21"/>
     </row>
     <row r="73" ht="16.5" spans="2:19">
       <c r="B73" s="14"/>
@@ -3120,12 +3124,12 @@
       <c r="D73" s="15"/>
       <c r="F73" s="16"/>
       <c r="G73" s="14"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
       <c r="Q73" s="17"/>
       <c r="R73" s="17"/>
-      <c r="S73" s="20"/>
+      <c r="S73" s="21"/>
     </row>
     <row r="74" ht="16.5" spans="2:19">
       <c r="B74" s="14"/>
@@ -3133,12 +3137,12 @@
       <c r="D74" s="15"/>
       <c r="F74" s="16"/>
       <c r="G74" s="14"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
       <c r="Q74" s="17"/>
       <c r="R74" s="17"/>
-      <c r="S74" s="20"/>
+      <c r="S74" s="21"/>
     </row>
     <row r="75" ht="16.5" spans="2:19">
       <c r="B75" s="14"/>
@@ -3146,12 +3150,12 @@
       <c r="D75" s="15"/>
       <c r="F75" s="16"/>
       <c r="G75" s="14"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
       <c r="Q75" s="17"/>
       <c r="R75" s="17"/>
-      <c r="S75" s="20"/>
+      <c r="S75" s="21"/>
     </row>
     <row r="76" ht="16.5" spans="2:19">
       <c r="B76" s="14"/>
@@ -3159,12 +3163,12 @@
       <c r="D76" s="15"/>
       <c r="F76" s="16"/>
       <c r="G76" s="14"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
       <c r="Q76" s="17"/>
       <c r="R76" s="17"/>
-      <c r="S76" s="20"/>
+      <c r="S76" s="21"/>
     </row>
     <row r="77" ht="16.5" spans="2:19">
       <c r="B77" s="14"/>
@@ -3172,10 +3176,10 @@
       <c r="D77" s="15"/>
       <c r="F77" s="17"/>
       <c r="G77" s="14"/>
-      <c r="O77" s="20"/>
+      <c r="O77" s="21"/>
       <c r="Q77" s="17"/>
       <c r="R77" s="17"/>
-      <c r="S77" s="20"/>
+      <c r="S77" s="21"/>
     </row>
     <row r="78" ht="16.5" spans="2:19">
       <c r="B78" s="14"/>
@@ -3183,12 +3187,12 @@
       <c r="D78" s="15"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
       <c r="Q78" s="17"/>
       <c r="R78" s="17"/>
-      <c r="S78" s="20"/>
+      <c r="S78" s="21"/>
     </row>
     <row r="79" ht="16.5" spans="2:19">
       <c r="B79" s="14"/>
@@ -3196,12 +3200,12 @@
       <c r="D79" s="15"/>
       <c r="F79" s="16"/>
       <c r="G79" s="14"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="17"/>
-      <c r="S79" s="20"/>
+      <c r="S79" s="21"/>
     </row>
     <row r="80" ht="16.5" spans="2:19">
       <c r="B80" s="14"/>
@@ -3209,12 +3213,12 @@
       <c r="D80" s="15"/>
       <c r="F80" s="16"/>
       <c r="G80" s="14"/>
-      <c r="M80" s="20"/>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="17"/>
-      <c r="S80" s="20"/>
+      <c r="S80" s="21"/>
     </row>
     <row r="81" ht="16.5" spans="2:19">
       <c r="B81" s="14"/>
@@ -3222,12 +3226,12 @@
       <c r="D81" s="15"/>
       <c r="F81" s="16"/>
       <c r="G81" s="14"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="20"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="17"/>
-      <c r="S81" s="20"/>
+      <c r="S81" s="21"/>
     </row>
     <row r="82" ht="16.5" spans="2:19">
       <c r="B82" s="14"/>
@@ -3235,12 +3239,12 @@
       <c r="D82" s="15"/>
       <c r="F82" s="16"/>
       <c r="G82" s="14"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="17"/>
-      <c r="S82" s="20"/>
+      <c r="S82" s="21"/>
     </row>
     <row r="83" ht="16.5" spans="2:19">
       <c r="B83" s="14"/>
@@ -3248,10 +3252,10 @@
       <c r="D83" s="15"/>
       <c r="F83" s="17"/>
       <c r="G83" s="14"/>
-      <c r="O83" s="20"/>
+      <c r="O83" s="21"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="17"/>
-      <c r="S83" s="20"/>
+      <c r="S83" s="21"/>
     </row>
     <row r="84" ht="16.5" spans="2:19">
       <c r="B84" s="14"/>
@@ -3259,12 +3263,12 @@
       <c r="D84" s="15"/>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="17"/>
-      <c r="S84" s="20"/>
+      <c r="S84" s="21"/>
     </row>
     <row r="85" ht="16.5" spans="2:19">
       <c r="B85" s="14"/>
@@ -3272,12 +3276,12 @@
       <c r="D85" s="15"/>
       <c r="F85" s="16"/>
       <c r="G85" s="14"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="20"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="17"/>
-      <c r="S85" s="20"/>
+      <c r="S85" s="21"/>
     </row>
     <row r="86" ht="16.5" spans="2:19">
       <c r="B86" s="14"/>
@@ -3285,12 +3289,12 @@
       <c r="D86" s="15"/>
       <c r="F86" s="16"/>
       <c r="G86" s="14"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="20"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="17"/>
-      <c r="S86" s="20"/>
+      <c r="S86" s="21"/>
     </row>
     <row r="87" ht="16.5" spans="2:19">
       <c r="B87" s="14"/>
@@ -3298,12 +3302,12 @@
       <c r="D87" s="15"/>
       <c r="F87" s="16"/>
       <c r="G87" s="14"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="20"/>
-      <c r="O87" s="20"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
       <c r="Q87" s="17"/>
       <c r="R87" s="17"/>
-      <c r="S87" s="20"/>
+      <c r="S87" s="21"/>
     </row>
     <row r="88" ht="16.5" spans="2:19">
       <c r="B88" s="14"/>
@@ -3311,12 +3315,12 @@
       <c r="D88" s="15"/>
       <c r="F88" s="16"/>
       <c r="G88" s="14"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="20"/>
-      <c r="O88" s="20"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="17"/>
-      <c r="S88" s="20"/>
+      <c r="S88" s="21"/>
     </row>
     <row r="89" ht="16.5" spans="2:19">
       <c r="B89" s="14"/>
@@ -3324,10 +3328,10 @@
       <c r="D89" s="15"/>
       <c r="F89" s="17"/>
       <c r="G89" s="14"/>
-      <c r="O89" s="20"/>
+      <c r="O89" s="21"/>
       <c r="Q89" s="17"/>
       <c r="R89" s="17"/>
-      <c r="S89" s="20"/>
+      <c r="S89" s="21"/>
     </row>
     <row r="90" ht="16.5" spans="2:19">
       <c r="B90" s="14"/>
@@ -3335,12 +3339,12 @@
       <c r="D90" s="15"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="20"/>
-      <c r="O90" s="20"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="17"/>
-      <c r="S90" s="20"/>
+      <c r="S90" s="21"/>
     </row>
     <row r="91" ht="16.5" spans="2:19">
       <c r="B91" s="14"/>
@@ -3348,12 +3352,12 @@
       <c r="D91" s="15"/>
       <c r="F91" s="16"/>
       <c r="G91" s="14"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="20"/>
-      <c r="O91" s="20"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
       <c r="Q91" s="17"/>
       <c r="R91" s="17"/>
-      <c r="S91" s="20"/>
+      <c r="S91" s="21"/>
     </row>
     <row r="92" ht="16.5" spans="2:19">
       <c r="B92" s="14"/>
@@ -3361,12 +3365,12 @@
       <c r="D92" s="15"/>
       <c r="F92" s="16"/>
       <c r="G92" s="14"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="20"/>
-      <c r="O92" s="20"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
       <c r="Q92" s="17"/>
       <c r="R92" s="17"/>
-      <c r="S92" s="20"/>
+      <c r="S92" s="21"/>
     </row>
     <row r="93" ht="16.5" spans="2:19">
       <c r="B93" s="14"/>
@@ -3374,12 +3378,12 @@
       <c r="D93" s="15"/>
       <c r="F93" s="16"/>
       <c r="G93" s="14"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="20"/>
-      <c r="O93" s="20"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
       <c r="Q93" s="17"/>
       <c r="R93" s="17"/>
-      <c r="S93" s="20"/>
+      <c r="S93" s="21"/>
     </row>
     <row r="94" ht="16.5" spans="2:19">
       <c r="B94" s="14"/>
@@ -3387,12 +3391,12 @@
       <c r="D94" s="15"/>
       <c r="F94" s="16"/>
       <c r="G94" s="14"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
       <c r="Q94" s="17"/>
       <c r="R94" s="17"/>
-      <c r="S94" s="20"/>
+      <c r="S94" s="21"/>
     </row>
     <row r="95" ht="16.5" spans="2:19">
       <c r="B95" s="14"/>
@@ -3400,10 +3404,10 @@
       <c r="D95" s="15"/>
       <c r="F95" s="17"/>
       <c r="G95" s="14"/>
-      <c r="O95" s="20"/>
+      <c r="O95" s="21"/>
       <c r="Q95" s="17"/>
       <c r="R95" s="17"/>
-      <c r="S95" s="20"/>
+      <c r="S95" s="21"/>
     </row>
     <row r="96" ht="16.5" spans="2:19">
       <c r="B96" s="14"/>
@@ -3411,12 +3415,12 @@
       <c r="D96" s="15"/>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
-      <c r="O96" s="20"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21"/>
       <c r="Q96" s="17"/>
       <c r="R96" s="17"/>
-      <c r="S96" s="20"/>
+      <c r="S96" s="21"/>
     </row>
     <row r="97" ht="16.5" spans="2:19">
       <c r="B97" s="14"/>
@@ -3424,12 +3428,12 @@
       <c r="D97" s="15"/>
       <c r="F97" s="16"/>
       <c r="G97" s="14"/>
-      <c r="M97" s="20"/>
-      <c r="N97" s="20"/>
-      <c r="O97" s="20"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
       <c r="Q97" s="17"/>
       <c r="R97" s="17"/>
-      <c r="S97" s="20"/>
+      <c r="S97" s="21"/>
     </row>
     <row r="98" ht="16.5" spans="2:19">
       <c r="B98" s="14"/>
@@ -3437,12 +3441,12 @@
       <c r="D98" s="15"/>
       <c r="F98" s="16"/>
       <c r="G98" s="14"/>
-      <c r="M98" s="20"/>
-      <c r="N98" s="20"/>
-      <c r="O98" s="20"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
+      <c r="O98" s="21"/>
       <c r="Q98" s="17"/>
       <c r="R98" s="17"/>
-      <c r="S98" s="20"/>
+      <c r="S98" s="21"/>
     </row>
     <row r="99" ht="16.5" spans="2:19">
       <c r="B99" s="14"/>
@@ -3450,12 +3454,12 @@
       <c r="D99" s="15"/>
       <c r="F99" s="16"/>
       <c r="G99" s="14"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
-      <c r="O99" s="20"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="21"/>
       <c r="Q99" s="17"/>
       <c r="R99" s="17"/>
-      <c r="S99" s="20"/>
+      <c r="S99" s="21"/>
     </row>
     <row r="100" ht="16.5" spans="2:19">
       <c r="B100" s="14"/>
@@ -3463,12 +3467,12 @@
       <c r="D100" s="15"/>
       <c r="F100" s="16"/>
       <c r="G100" s="14"/>
-      <c r="M100" s="20"/>
-      <c r="N100" s="20"/>
-      <c r="O100" s="20"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
       <c r="Q100" s="17"/>
       <c r="R100" s="17"/>
-      <c r="S100" s="20"/>
+      <c r="S100" s="21"/>
     </row>
     <row r="101" ht="16.5" spans="2:19">
       <c r="B101" s="14"/>
@@ -3476,10 +3480,10 @@
       <c r="D101" s="15"/>
       <c r="F101" s="17"/>
       <c r="G101" s="14"/>
-      <c r="O101" s="20"/>
+      <c r="O101" s="21"/>
       <c r="Q101" s="17"/>
       <c r="R101" s="17"/>
-      <c r="S101" s="20"/>
+      <c r="S101" s="21"/>
     </row>
     <row r="102" ht="16.5" spans="2:19">
       <c r="B102" s="14"/>
@@ -3487,12 +3491,12 @@
       <c r="D102" s="15"/>
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
-      <c r="M102" s="20"/>
-      <c r="N102" s="20"/>
-      <c r="O102" s="20"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
       <c r="Q102" s="17"/>
       <c r="R102" s="17"/>
-      <c r="S102" s="20"/>
+      <c r="S102" s="21"/>
     </row>
     <row r="103" ht="16.5" spans="2:19">
       <c r="B103" s="14"/>
@@ -3500,12 +3504,12 @@
       <c r="D103" s="15"/>
       <c r="F103" s="16"/>
       <c r="G103" s="14"/>
-      <c r="M103" s="20"/>
-      <c r="N103" s="20"/>
-      <c r="O103" s="20"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
       <c r="Q103" s="17"/>
       <c r="R103" s="17"/>
-      <c r="S103" s="20"/>
+      <c r="S103" s="21"/>
     </row>
     <row r="104" ht="16.5" spans="2:19">
       <c r="B104" s="14"/>
@@ -3513,12 +3517,12 @@
       <c r="D104" s="15"/>
       <c r="F104" s="16"/>
       <c r="G104" s="14"/>
-      <c r="M104" s="20"/>
-      <c r="N104" s="20"/>
-      <c r="O104" s="20"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="21"/>
       <c r="Q104" s="17"/>
       <c r="R104" s="17"/>
-      <c r="S104" s="20"/>
+      <c r="S104" s="21"/>
     </row>
     <row r="105" ht="16.5" spans="2:19">
       <c r="B105" s="14"/>
@@ -3526,12 +3530,12 @@
       <c r="D105" s="15"/>
       <c r="F105" s="16"/>
       <c r="G105" s="14"/>
-      <c r="M105" s="20"/>
-      <c r="N105" s="20"/>
-      <c r="O105" s="20"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21"/>
       <c r="Q105" s="17"/>
       <c r="R105" s="17"/>
-      <c r="S105" s="20"/>
+      <c r="S105" s="21"/>
     </row>
     <row r="106" ht="16.5" spans="2:19">
       <c r="B106" s="14"/>
@@ -3539,12 +3543,12 @@
       <c r="D106" s="15"/>
       <c r="F106" s="16"/>
       <c r="G106" s="14"/>
-      <c r="M106" s="20"/>
-      <c r="N106" s="20"/>
-      <c r="O106" s="20"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21"/>
       <c r="Q106" s="17"/>
       <c r="R106" s="17"/>
-      <c r="S106" s="20"/>
+      <c r="S106" s="21"/>
     </row>
     <row r="107" ht="16.5" spans="2:19">
       <c r="B107" s="14"/>
@@ -3552,10 +3556,10 @@
       <c r="D107" s="15"/>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
-      <c r="O107" s="20"/>
+      <c r="O107" s="21"/>
       <c r="Q107" s="17"/>
       <c r="R107" s="17"/>
-      <c r="S107" s="20"/>
+      <c r="S107" s="21"/>
     </row>
     <row r="108" ht="16.5" spans="2:19">
       <c r="B108" s="14"/>
@@ -3563,12 +3567,12 @@
       <c r="D108" s="15"/>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
-      <c r="M108" s="20"/>
-      <c r="N108" s="20"/>
-      <c r="O108" s="20"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21"/>
+      <c r="O108" s="21"/>
       <c r="Q108" s="17"/>
       <c r="R108" s="17"/>
-      <c r="S108" s="20"/>
+      <c r="S108" s="21"/>
     </row>
     <row r="109" ht="16.5" spans="2:19">
       <c r="B109" s="14"/>
@@ -3576,12 +3580,12 @@
       <c r="D109" s="15"/>
       <c r="F109" s="16"/>
       <c r="G109" s="14"/>
-      <c r="M109" s="20"/>
-      <c r="N109" s="20"/>
-      <c r="O109" s="20"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="21"/>
       <c r="Q109" s="17"/>
       <c r="R109" s="17"/>
-      <c r="S109" s="20"/>
+      <c r="S109" s="21"/>
     </row>
     <row r="110" ht="16.5" spans="2:19">
       <c r="B110" s="14"/>
@@ -3589,12 +3593,12 @@
       <c r="D110" s="15"/>
       <c r="F110" s="16"/>
       <c r="G110" s="14"/>
-      <c r="M110" s="20"/>
-      <c r="N110" s="20"/>
-      <c r="O110" s="20"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="21"/>
       <c r="Q110" s="17"/>
       <c r="R110" s="17"/>
-      <c r="S110" s="20"/>
+      <c r="S110" s="21"/>
     </row>
     <row r="111" ht="16.5" spans="2:19">
       <c r="B111" s="14"/>
@@ -3602,12 +3606,12 @@
       <c r="D111" s="15"/>
       <c r="F111" s="16"/>
       <c r="G111" s="14"/>
-      <c r="M111" s="20"/>
-      <c r="N111" s="20"/>
-      <c r="O111" s="20"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="21"/>
       <c r="Q111" s="17"/>
       <c r="R111" s="17"/>
-      <c r="S111" s="20"/>
+      <c r="S111" s="21"/>
     </row>
     <row r="112" ht="16.5" spans="2:19">
       <c r="B112" s="14"/>
@@ -3615,89 +3619,89 @@
       <c r="D112" s="15"/>
       <c r="F112" s="16"/>
       <c r="G112" s="14"/>
-      <c r="M112" s="20"/>
-      <c r="N112" s="20"/>
-      <c r="O112" s="20"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="21"/>
+      <c r="O112" s="21"/>
       <c r="Q112" s="17"/>
       <c r="R112" s="17"/>
-      <c r="S112" s="20"/>
+      <c r="S112" s="21"/>
     </row>
     <row r="113" ht="16.5" spans="6:15">
       <c r="F113" s="16"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="M113" s="20"/>
-      <c r="N113" s="20"/>
-      <c r="O113" s="20"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="21"/>
+      <c r="O113" s="21"/>
     </row>
     <row r="114" spans="6:6">
-      <c r="F114" s="21"/>
+      <c r="F114" s="22"/>
     </row>
     <row r="115" spans="6:6">
-      <c r="F115" s="21"/>
+      <c r="F115" s="22"/>
     </row>
     <row r="116" spans="6:6">
-      <c r="F116" s="21"/>
+      <c r="F116" s="22"/>
     </row>
     <row r="117" spans="6:6">
-      <c r="F117" s="21"/>
+      <c r="F117" s="22"/>
     </row>
     <row r="118" spans="6:6">
-      <c r="F118" s="21"/>
+      <c r="F118" s="22"/>
     </row>
     <row r="119" spans="6:6">
-      <c r="F119" s="21"/>
+      <c r="F119" s="22"/>
     </row>
     <row r="120" spans="6:6">
-      <c r="F120" s="21"/>
+      <c r="F120" s="22"/>
     </row>
     <row r="121" spans="6:6">
-      <c r="F121" s="21"/>
+      <c r="F121" s="22"/>
     </row>
     <row r="122" spans="6:6">
-      <c r="F122" s="21"/>
+      <c r="F122" s="22"/>
     </row>
     <row r="123" spans="6:6">
-      <c r="F123" s="21"/>
+      <c r="F123" s="22"/>
     </row>
     <row r="124" spans="6:6">
-      <c r="F124" s="21"/>
+      <c r="F124" s="22"/>
     </row>
     <row r="125" spans="6:6">
-      <c r="F125" s="21"/>
+      <c r="F125" s="22"/>
     </row>
     <row r="126" spans="6:6">
-      <c r="F126" s="21"/>
+      <c r="F126" s="22"/>
     </row>
     <row r="127" spans="6:6">
-      <c r="F127" s="21"/>
+      <c r="F127" s="22"/>
     </row>
     <row r="128" spans="6:6">
-      <c r="F128" s="21"/>
+      <c r="F128" s="22"/>
     </row>
     <row r="129" spans="6:6">
-      <c r="F129" s="21"/>
+      <c r="F129" s="22"/>
     </row>
     <row r="130" spans="6:6">
-      <c r="F130" s="21"/>
+      <c r="F130" s="22"/>
     </row>
     <row r="131" spans="6:6">
-      <c r="F131" s="21"/>
+      <c r="F131" s="22"/>
     </row>
     <row r="132" spans="6:6">
-      <c r="F132" s="21"/>
+      <c r="F132" s="22"/>
     </row>
     <row r="133" spans="6:6">
-      <c r="F133" s="21"/>
+      <c r="F133" s="22"/>
     </row>
     <row r="134" spans="6:6">
-      <c r="F134" s="21"/>
+      <c r="F134" s="22"/>
     </row>
     <row r="135" spans="6:6">
-      <c r="F135" s="21"/>
+      <c r="F135" s="22"/>
     </row>
     <row r="136" spans="6:6">
-      <c r="F136" s="21"/>
+      <c r="F136" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/配置表/Levelcondition.xlsx
+++ b/配置表/Levelcondition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="20827" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>yingc</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0">
+    <comment ref="M4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0">
+    <comment ref="P4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -445,6 +445,15 @@
     <t>score</t>
   </si>
   <si>
+    <t>guessCount</t>
+  </si>
+  <si>
+    <t>startScores</t>
+  </si>
+  <si>
+    <t>nextNeedStar</t>
+  </si>
+  <si>
     <t>rewards</t>
   </si>
   <si>
@@ -493,6 +502,15 @@
     <t>满星需要得分</t>
   </si>
   <si>
+    <t>星级个数</t>
+  </si>
+  <si>
+    <t>星级得分</t>
+  </si>
+  <si>
+    <t>下一级需要星级</t>
+  </si>
+  <si>
     <t>奖励数组</t>
   </si>
   <si>
@@ -500,6 +518,12 @@
   </si>
   <si>
     <t>奖励数量</t>
+  </si>
+  <si>
+    <t>10;12;14;16;18</t>
+  </si>
+  <si>
+    <t>6000;150000;300000;500000;1000000</t>
   </si>
   <si>
     <t>id</t>
@@ -1340,7 +1364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,19 +1403,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1919,28 +1940,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S136"/>
+  <dimension ref="A1:V136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="38.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="31.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="28.0181818181818" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="7" width="30.5363636363636" customWidth="1"/>
-    <col min="9" max="9" width="19.3636363636364" customWidth="1"/>
-    <col min="10" max="10" width="25.7272727272727" customWidth="1"/>
-    <col min="11" max="11" width="13.8181818181818" customWidth="1"/>
-    <col min="12" max="12" width="13.3636363636364" customWidth="1"/>
-    <col min="13" max="13" width="13.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="13.7256637168142" customWidth="1"/>
+    <col min="2" max="2" width="38.3628318584071" customWidth="1"/>
+    <col min="3" max="3" width="31.1858407079646" customWidth="1"/>
+    <col min="4" max="4" width="28.0176991150442" customWidth="1"/>
+    <col min="5" max="5" width="23.5044247787611" customWidth="1"/>
+    <col min="6" max="7" width="30.5398230088496" customWidth="1"/>
+    <col min="9" max="10" width="19.3628318584071" customWidth="1"/>
+    <col min="11" max="11" width="37.4424778761062" customWidth="1"/>
+    <col min="12" max="12" width="19.3628318584071" customWidth="1"/>
+    <col min="13" max="13" width="25.7256637168142" customWidth="1"/>
+    <col min="14" max="14" width="13.8141592920354" customWidth="1"/>
+    <col min="15" max="15" width="13.3628318584071" customWidth="1"/>
+    <col min="16" max="16" width="13.5486725663717" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:13">
+    <row r="1" s="9" customFormat="1" ht="15" spans="1:16">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1968,55 +1991,73 @@
       <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="9" customFormat="1" ht="17.1" customHeight="1" spans="1:13">
+      <c r="M1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="9" customFormat="1" ht="17.1" customHeight="1" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="16.5" spans="1:13">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="15" spans="1:16">
       <c r="A3" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="5"/>
@@ -2026,57 +2067,69 @@
       <c r="G3" s="5"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="5"/>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:19">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="15" spans="1:22">
       <c r="A4" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-    </row>
-    <row r="5" ht="16.5" spans="2:19">
+        <v>30</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+    </row>
+    <row r="5" ht="15" spans="2:22">
       <c r="B5" s="14">
         <v>30101</v>
       </c>
@@ -2092,18 +2145,25 @@
       <c r="G5" s="14">
         <v>6</v>
       </c>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="21"/>
-    </row>
-    <row r="6" ht="16.5" spans="2:19">
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="19"/>
+    </row>
+    <row r="6" ht="15" spans="2:22">
       <c r="B6" s="14">
         <v>30102</v>
       </c>
@@ -2119,14 +2179,23 @@
       <c r="G6" s="14">
         <v>6</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="21"/>
-    </row>
-    <row r="7" ht="16.5" spans="2:19">
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="19"/>
+    </row>
+    <row r="7" ht="15" spans="2:22">
       <c r="B7" s="14">
         <v>30103</v>
       </c>
@@ -2142,14 +2211,23 @@
       <c r="G7" s="14">
         <v>6</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="21"/>
-    </row>
-    <row r="8" ht="16.5" spans="2:19">
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="19"/>
+    </row>
+    <row r="8" ht="15" spans="2:22">
       <c r="B8" s="14">
         <v>30104</v>
       </c>
@@ -2165,14 +2243,23 @@
       <c r="G8" s="14">
         <v>5</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="21"/>
-    </row>
-    <row r="9" ht="16.5" spans="2:19">
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="19"/>
+    </row>
+    <row r="9" ht="15" spans="2:22">
       <c r="B9" s="14">
         <v>30105</v>
       </c>
@@ -2188,14 +2275,23 @@
       <c r="G9" s="14">
         <v>5</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="21"/>
-    </row>
-    <row r="10" ht="16.5" spans="2:19">
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="19"/>
+    </row>
+    <row r="10" ht="15" spans="2:22">
       <c r="B10" s="14">
         <v>30106</v>
       </c>
@@ -2211,14 +2307,23 @@
       <c r="G10" s="14">
         <v>3</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="21"/>
-    </row>
-    <row r="11" ht="16.5" spans="2:19">
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="19"/>
+    </row>
+    <row r="11" ht="15" spans="2:22">
       <c r="B11" s="14">
         <v>30107</v>
       </c>
@@ -2234,12 +2339,21 @@
       <c r="G11" s="14">
         <v>2</v>
       </c>
-      <c r="O11" s="21"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="21"/>
-    </row>
-    <row r="12" ht="16.5" spans="2:19">
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="R11" s="19"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="19"/>
+    </row>
+    <row r="12" ht="15" spans="2:22">
       <c r="B12" s="14">
         <v>30108</v>
       </c>
@@ -2255,14 +2369,23 @@
       <c r="G12" s="14">
         <v>3</v>
       </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="21"/>
-    </row>
-    <row r="13" ht="16.5" spans="2:19">
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="19"/>
+    </row>
+    <row r="13" ht="15" spans="2:22">
       <c r="B13" s="14">
         <v>30109</v>
       </c>
@@ -2278,14 +2401,23 @@
       <c r="G13" s="14">
         <v>3</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="21"/>
-    </row>
-    <row r="14" ht="16.5" spans="2:19">
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="19"/>
+    </row>
+    <row r="14" ht="15" spans="2:22">
       <c r="B14" s="14">
         <v>30201</v>
       </c>
@@ -2301,14 +2433,23 @@
       <c r="G14" s="14">
         <v>5</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="21"/>
-    </row>
-    <row r="15" ht="16.5" spans="2:19">
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="19"/>
+    </row>
+    <row r="15" ht="15" spans="2:22">
       <c r="B15" s="14">
         <v>30202</v>
       </c>
@@ -2324,14 +2465,23 @@
       <c r="G15" s="14">
         <v>4</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="21"/>
-    </row>
-    <row r="16" ht="16.5" spans="2:19">
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" ht="15" spans="2:22">
       <c r="B16" s="14">
         <v>30203</v>
       </c>
@@ -2347,14 +2497,23 @@
       <c r="G16" s="14">
         <v>2</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="21"/>
-    </row>
-    <row r="17" ht="16.5" spans="2:19">
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="19"/>
+    </row>
+    <row r="17" ht="15" spans="2:22">
       <c r="B17" s="14">
         <v>30204</v>
       </c>
@@ -2370,12 +2529,21 @@
       <c r="G17" s="14">
         <v>2</v>
       </c>
-      <c r="O17" s="21"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="21"/>
-    </row>
-    <row r="18" ht="16.5" spans="2:19">
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="R17" s="19"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="19"/>
+    </row>
+    <row r="18" ht="15" spans="2:22">
       <c r="B18" s="14">
         <v>30205</v>
       </c>
@@ -2391,14 +2559,23 @@
       <c r="G18" s="14">
         <v>2</v>
       </c>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="21"/>
-    </row>
-    <row r="19" ht="16.5" spans="2:19">
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="19"/>
+    </row>
+    <row r="19" ht="15" spans="2:22">
       <c r="B19" s="14">
         <v>30206</v>
       </c>
@@ -2414,14 +2591,23 @@
       <c r="G19" s="14">
         <v>2</v>
       </c>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="21"/>
-    </row>
-    <row r="20" ht="16.5" spans="2:19">
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="19"/>
+    </row>
+    <row r="20" ht="15" spans="2:22">
       <c r="B20" s="14">
         <v>30301</v>
       </c>
@@ -2437,14 +2623,23 @@
       <c r="G20" s="14">
         <v>3</v>
       </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="21"/>
-    </row>
-    <row r="21" ht="16.5" spans="2:19">
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="19"/>
+    </row>
+    <row r="21" ht="15" spans="2:22">
       <c r="B21" s="14">
         <v>30302</v>
       </c>
@@ -2460,14 +2655,23 @@
       <c r="G21" s="14">
         <v>3</v>
       </c>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="21"/>
-    </row>
-    <row r="22" ht="16.5" spans="2:19">
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="19"/>
+    </row>
+    <row r="22" ht="15" spans="2:22">
       <c r="B22" s="14">
         <v>30401</v>
       </c>
@@ -2479,1229 +2683,1232 @@
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="14"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="21"/>
-    </row>
-    <row r="23" ht="16.5" spans="2:19">
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="19"/>
+    </row>
+    <row r="23" ht="15" spans="2:22">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="F23" s="17"/>
       <c r="G23" s="14"/>
-      <c r="O23" s="21"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="21"/>
-    </row>
-    <row r="24" ht="16.5" spans="2:19">
+      <c r="R23" s="19"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="19"/>
+    </row>
+    <row r="24" ht="15" spans="2:22">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="21"/>
-    </row>
-    <row r="25" ht="16.5" spans="2:19">
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="19"/>
+    </row>
+    <row r="25" ht="15" spans="2:22">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="F25" s="16"/>
       <c r="G25" s="14"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="21"/>
-    </row>
-    <row r="26" ht="16.5" spans="2:19">
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="19"/>
+    </row>
+    <row r="26" ht="15" spans="2:22">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
       <c r="F26" s="16"/>
       <c r="G26" s="14"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="21"/>
-    </row>
-    <row r="27" ht="16.5" spans="2:19">
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="19"/>
+    </row>
+    <row r="27" ht="15" spans="2:22">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="F27" s="16"/>
       <c r="G27" s="14"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="21"/>
-    </row>
-    <row r="28" ht="16.5" spans="2:19">
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="19"/>
+    </row>
+    <row r="28" ht="15" spans="2:22">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
       <c r="F28" s="16"/>
       <c r="G28" s="14"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="21"/>
-    </row>
-    <row r="29" ht="16.5" spans="2:19">
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="19"/>
+    </row>
+    <row r="29" ht="15" spans="2:22">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
       <c r="F29" s="17"/>
       <c r="G29" s="14"/>
-      <c r="O29" s="21"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="21"/>
-    </row>
-    <row r="30" ht="16.5" spans="2:19">
+      <c r="R29" s="19"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="19"/>
+    </row>
+    <row r="30" ht="15" spans="2:22">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="21"/>
-    </row>
-    <row r="31" ht="16.5" spans="2:19">
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="19"/>
+    </row>
+    <row r="31" ht="15" spans="2:22">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
       <c r="F31" s="16"/>
       <c r="G31" s="14"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="21"/>
-    </row>
-    <row r="32" ht="16.5" spans="2:19">
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="19"/>
+    </row>
+    <row r="32" ht="15" spans="2:22">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
       <c r="F32" s="16"/>
       <c r="G32" s="14"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="21"/>
-    </row>
-    <row r="33" ht="16.5" spans="2:19">
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="19"/>
+    </row>
+    <row r="33" ht="15" spans="2:22">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
       <c r="F33" s="16"/>
       <c r="G33" s="14"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="21"/>
-    </row>
-    <row r="34" ht="16.5" spans="2:19">
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="19"/>
+    </row>
+    <row r="34" ht="15" spans="2:22">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="14"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="21"/>
-    </row>
-    <row r="35" ht="16.5" spans="2:19">
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="19"/>
+    </row>
+    <row r="35" ht="15" spans="2:22">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="15"/>
       <c r="F35" s="17"/>
       <c r="G35" s="14"/>
-      <c r="O35" s="21"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="21"/>
-    </row>
-    <row r="36" ht="16.5" spans="2:19">
+      <c r="R35" s="19"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="19"/>
+    </row>
+    <row r="36" ht="15" spans="2:22">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="21"/>
-    </row>
-    <row r="37" ht="16.5" spans="2:19">
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="19"/>
+    </row>
+    <row r="37" ht="15" spans="2:22">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
       <c r="F37" s="16"/>
       <c r="G37" s="14"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="21"/>
-    </row>
-    <row r="38" ht="16.5" spans="2:19">
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="19"/>
+    </row>
+    <row r="38" ht="15" spans="2:22">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
       <c r="F38" s="16"/>
       <c r="G38" s="14"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="21"/>
-    </row>
-    <row r="39" ht="16.5" spans="2:19">
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="19"/>
+    </row>
+    <row r="39" ht="15" spans="2:22">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
       <c r="F39" s="16"/>
       <c r="G39" s="14"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="21"/>
-    </row>
-    <row r="40" ht="16.5" spans="2:19">
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="19"/>
+    </row>
+    <row r="40" ht="15" spans="2:22">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="15"/>
       <c r="F40" s="16"/>
       <c r="G40" s="14"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="21"/>
-    </row>
-    <row r="41" ht="16.5" spans="2:19">
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="19"/>
+    </row>
+    <row r="41" ht="15" spans="2:22">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
       <c r="F41" s="17"/>
       <c r="G41" s="14"/>
-      <c r="O41" s="21"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="21"/>
-    </row>
-    <row r="42" ht="16.5" spans="2:19">
+      <c r="R41" s="19"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="19"/>
+    </row>
+    <row r="42" ht="15" spans="2:22">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="15"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="21"/>
-    </row>
-    <row r="43" ht="16.5" spans="2:19">
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="19"/>
+    </row>
+    <row r="43" ht="15" spans="2:22">
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
       <c r="F43" s="16"/>
       <c r="G43" s="14"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="21"/>
-    </row>
-    <row r="44" ht="16.5" spans="2:19">
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="19"/>
+    </row>
+    <row r="44" ht="15" spans="2:22">
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="15"/>
       <c r="F44" s="16"/>
       <c r="G44" s="14"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="21"/>
-    </row>
-    <row r="45" ht="16.5" spans="2:19">
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="19"/>
+    </row>
+    <row r="45" ht="15" spans="2:22">
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="15"/>
       <c r="F45" s="16"/>
       <c r="G45" s="14"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="21"/>
-    </row>
-    <row r="46" ht="16.5" spans="2:19">
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="19"/>
+    </row>
+    <row r="46" ht="15" spans="2:22">
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
       <c r="F46" s="16"/>
       <c r="G46" s="14"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="21"/>
-    </row>
-    <row r="47" ht="16.5" spans="2:19">
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="19"/>
+    </row>
+    <row r="47" ht="15" spans="2:22">
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="15"/>
       <c r="F47" s="17"/>
       <c r="G47" s="14"/>
-      <c r="O47" s="21"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="21"/>
-    </row>
-    <row r="48" ht="16.5" spans="2:19">
+      <c r="R47" s="19"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="19"/>
+    </row>
+    <row r="48" ht="15" spans="2:22">
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="15"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="21"/>
-    </row>
-    <row r="49" ht="16.5" spans="2:19">
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="19"/>
+    </row>
+    <row r="49" ht="15" spans="2:22">
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="15"/>
       <c r="F49" s="16"/>
       <c r="G49" s="14"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="21"/>
-    </row>
-    <row r="50" ht="16.5" spans="2:19">
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="19"/>
+    </row>
+    <row r="50" ht="15" spans="2:22">
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="15"/>
       <c r="F50" s="16"/>
       <c r="G50" s="14"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="21"/>
-    </row>
-    <row r="51" ht="16.5" spans="2:19">
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="19"/>
+    </row>
+    <row r="51" ht="15" spans="2:22">
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="15"/>
       <c r="F51" s="16"/>
       <c r="G51" s="14"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="21"/>
-    </row>
-    <row r="52" ht="16.5" spans="2:19">
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="19"/>
+    </row>
+    <row r="52" ht="15" spans="2:22">
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="15"/>
       <c r="F52" s="16"/>
       <c r="G52" s="14"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="21"/>
-    </row>
-    <row r="53" ht="16.5" spans="2:19">
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="19"/>
+    </row>
+    <row r="53" ht="15" spans="2:22">
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="15"/>
       <c r="F53" s="17"/>
       <c r="G53" s="14"/>
-      <c r="O53" s="21"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="21"/>
-    </row>
-    <row r="54" ht="16.5" spans="2:19">
+      <c r="R53" s="19"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="19"/>
+    </row>
+    <row r="54" ht="15" spans="2:22">
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="15"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="21"/>
-    </row>
-    <row r="55" ht="16.5" spans="2:19">
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="19"/>
+    </row>
+    <row r="55" ht="15" spans="2:22">
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="15"/>
       <c r="F55" s="16"/>
       <c r="G55" s="14"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="21"/>
-    </row>
-    <row r="56" ht="16.5" spans="2:19">
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="19"/>
+    </row>
+    <row r="56" ht="15" spans="2:22">
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="15"/>
       <c r="F56" s="16"/>
       <c r="G56" s="14"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="21"/>
-    </row>
-    <row r="57" ht="16.5" spans="2:19">
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="19"/>
+    </row>
+    <row r="57" ht="15" spans="2:22">
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="15"/>
       <c r="F57" s="16"/>
       <c r="G57" s="14"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="21"/>
-    </row>
-    <row r="58" ht="16.5" spans="2:19">
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="19"/>
+    </row>
+    <row r="58" ht="15" spans="2:22">
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
       <c r="D58" s="15"/>
       <c r="F58" s="16"/>
       <c r="G58" s="14"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="21"/>
-    </row>
-    <row r="59" ht="16.5" spans="2:19">
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="19"/>
+    </row>
+    <row r="59" ht="15" spans="2:22">
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="15"/>
       <c r="F59" s="17"/>
       <c r="G59" s="14"/>
-      <c r="O59" s="21"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="21"/>
-    </row>
-    <row r="60" ht="16.5" spans="2:19">
+      <c r="R59" s="19"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="19"/>
+    </row>
+    <row r="60" ht="15" spans="2:22">
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="15"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="21"/>
-    </row>
-    <row r="61" ht="16.5" spans="2:19">
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="19"/>
+    </row>
+    <row r="61" ht="15" spans="2:22">
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="15"/>
       <c r="F61" s="16"/>
       <c r="G61" s="14"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="21"/>
-    </row>
-    <row r="62" ht="16.5" spans="2:19">
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="19"/>
+    </row>
+    <row r="62" ht="15" spans="2:22">
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="15"/>
       <c r="F62" s="16"/>
       <c r="G62" s="14"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="21"/>
-    </row>
-    <row r="63" ht="16.5" spans="2:19">
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="19"/>
+    </row>
+    <row r="63" ht="15" spans="2:22">
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="15"/>
       <c r="F63" s="16"/>
       <c r="G63" s="14"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="21"/>
-    </row>
-    <row r="64" ht="16.5" spans="2:19">
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="19"/>
+    </row>
+    <row r="64" ht="15" spans="2:22">
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="15"/>
       <c r="F64" s="16"/>
       <c r="G64" s="14"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="21"/>
-    </row>
-    <row r="65" ht="16.5" spans="2:19">
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="19"/>
+    </row>
+    <row r="65" ht="15" spans="2:22">
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="15"/>
       <c r="F65" s="17"/>
       <c r="G65" s="14"/>
-      <c r="O65" s="21"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="21"/>
-    </row>
-    <row r="66" ht="16.5" spans="2:19">
+      <c r="R65" s="19"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="19"/>
+    </row>
+    <row r="66" ht="15" spans="2:22">
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="15"/>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="21"/>
-    </row>
-    <row r="67" ht="16.5" spans="2:19">
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="19"/>
+    </row>
+    <row r="67" ht="15" spans="2:22">
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="15"/>
       <c r="F67" s="16"/>
       <c r="G67" s="14"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="21"/>
-    </row>
-    <row r="68" ht="16.5" spans="2:19">
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="19"/>
+    </row>
+    <row r="68" ht="15" spans="2:22">
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="15"/>
       <c r="F68" s="16"/>
       <c r="G68" s="14"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="21"/>
-    </row>
-    <row r="69" ht="16.5" spans="2:19">
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="19"/>
+    </row>
+    <row r="69" ht="15" spans="2:22">
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15"/>
       <c r="F69" s="16"/>
       <c r="G69" s="14"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="21"/>
-    </row>
-    <row r="70" ht="16.5" spans="2:19">
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="19"/>
+    </row>
+    <row r="70" ht="15" spans="2:22">
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
       <c r="D70" s="15"/>
       <c r="F70" s="16"/>
       <c r="G70" s="14"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="21"/>
-    </row>
-    <row r="71" ht="16.5" spans="2:19">
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="19"/>
+    </row>
+    <row r="71" ht="15" spans="2:22">
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
       <c r="D71" s="15"/>
       <c r="F71" s="17"/>
       <c r="G71" s="14"/>
-      <c r="O71" s="21"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="21"/>
-    </row>
-    <row r="72" ht="16.5" spans="2:19">
+      <c r="R71" s="19"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="19"/>
+    </row>
+    <row r="72" ht="15" spans="2:22">
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
       <c r="D72" s="15"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="21"/>
-    </row>
-    <row r="73" ht="16.5" spans="2:19">
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="19"/>
+    </row>
+    <row r="73" ht="15" spans="2:22">
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
       <c r="D73" s="15"/>
       <c r="F73" s="16"/>
       <c r="G73" s="14"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="21"/>
-    </row>
-    <row r="74" ht="16.5" spans="2:19">
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="19"/>
+    </row>
+    <row r="74" ht="15" spans="2:22">
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
       <c r="D74" s="15"/>
       <c r="F74" s="16"/>
       <c r="G74" s="14"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="21"/>
-    </row>
-    <row r="75" ht="16.5" spans="2:19">
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="19"/>
+    </row>
+    <row r="75" ht="15" spans="2:22">
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
       <c r="D75" s="15"/>
       <c r="F75" s="16"/>
       <c r="G75" s="14"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="21"/>
-    </row>
-    <row r="76" ht="16.5" spans="2:19">
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="19"/>
+    </row>
+    <row r="76" ht="15" spans="2:22">
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
       <c r="D76" s="15"/>
       <c r="F76" s="16"/>
       <c r="G76" s="14"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="21"/>
-    </row>
-    <row r="77" ht="16.5" spans="2:19">
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="19"/>
+    </row>
+    <row r="77" ht="15" spans="2:22">
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
       <c r="D77" s="15"/>
       <c r="F77" s="17"/>
       <c r="G77" s="14"/>
-      <c r="O77" s="21"/>
-      <c r="Q77" s="17"/>
-      <c r="R77" s="17"/>
-      <c r="S77" s="21"/>
-    </row>
-    <row r="78" ht="16.5" spans="2:19">
+      <c r="R77" s="19"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="19"/>
+    </row>
+    <row r="78" ht="15" spans="2:22">
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="15"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="21"/>
-    </row>
-    <row r="79" ht="16.5" spans="2:19">
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="T78" s="17"/>
+      <c r="U78" s="17"/>
+      <c r="V78" s="19"/>
+    </row>
+    <row r="79" ht="15" spans="2:22">
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
       <c r="D79" s="15"/>
       <c r="F79" s="16"/>
       <c r="G79" s="14"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="21"/>
-      <c r="Q79" s="17"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="21"/>
-    </row>
-    <row r="80" ht="16.5" spans="2:19">
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="19"/>
+    </row>
+    <row r="80" ht="15" spans="2:22">
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
       <c r="D80" s="15"/>
       <c r="F80" s="16"/>
       <c r="G80" s="14"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="21"/>
-    </row>
-    <row r="81" ht="16.5" spans="2:19">
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="19"/>
+    </row>
+    <row r="81" ht="15" spans="2:22">
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
       <c r="D81" s="15"/>
       <c r="F81" s="16"/>
       <c r="G81" s="14"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="Q81" s="17"/>
-      <c r="R81" s="17"/>
-      <c r="S81" s="21"/>
-    </row>
-    <row r="82" ht="16.5" spans="2:19">
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="19"/>
+    </row>
+    <row r="82" ht="15" spans="2:22">
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
       <c r="D82" s="15"/>
       <c r="F82" s="16"/>
       <c r="G82" s="14"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="Q82" s="17"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="21"/>
-    </row>
-    <row r="83" ht="16.5" spans="2:19">
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="19"/>
+    </row>
+    <row r="83" ht="15" spans="2:22">
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="15"/>
       <c r="F83" s="17"/>
       <c r="G83" s="14"/>
-      <c r="O83" s="21"/>
-      <c r="Q83" s="17"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="21"/>
-    </row>
-    <row r="84" ht="16.5" spans="2:19">
+      <c r="R83" s="19"/>
+      <c r="T83" s="17"/>
+      <c r="U83" s="17"/>
+      <c r="V83" s="19"/>
+    </row>
+    <row r="84" ht="15" spans="2:22">
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="15"/>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="21"/>
-    </row>
-    <row r="85" ht="16.5" spans="2:19">
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="19"/>
+    </row>
+    <row r="85" ht="15" spans="2:22">
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="15"/>
       <c r="F85" s="16"/>
       <c r="G85" s="14"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="21"/>
-    </row>
-    <row r="86" ht="16.5" spans="2:19">
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="17"/>
+      <c r="V85" s="19"/>
+    </row>
+    <row r="86" ht="15" spans="2:22">
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
       <c r="D86" s="15"/>
       <c r="F86" s="16"/>
       <c r="G86" s="14"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="Q86" s="17"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="21"/>
-    </row>
-    <row r="87" ht="16.5" spans="2:19">
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="17"/>
+      <c r="V86" s="19"/>
+    </row>
+    <row r="87" ht="15" spans="2:22">
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
       <c r="D87" s="15"/>
       <c r="F87" s="16"/>
       <c r="G87" s="14"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="Q87" s="17"/>
-      <c r="R87" s="17"/>
-      <c r="S87" s="21"/>
-    </row>
-    <row r="88" ht="16.5" spans="2:19">
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="17"/>
+      <c r="V87" s="19"/>
+    </row>
+    <row r="88" ht="15" spans="2:22">
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="15"/>
       <c r="F88" s="16"/>
       <c r="G88" s="14"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
-      <c r="Q88" s="17"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="21"/>
-    </row>
-    <row r="89" ht="16.5" spans="2:19">
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="19"/>
+    </row>
+    <row r="89" ht="15" spans="2:22">
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="15"/>
       <c r="F89" s="17"/>
       <c r="G89" s="14"/>
-      <c r="O89" s="21"/>
-      <c r="Q89" s="17"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="21"/>
-    </row>
-    <row r="90" ht="16.5" spans="2:19">
+      <c r="R89" s="19"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="17"/>
+      <c r="V89" s="19"/>
+    </row>
+    <row r="90" ht="15" spans="2:22">
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="15"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="Q90" s="17"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="21"/>
-    </row>
-    <row r="91" ht="16.5" spans="2:19">
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="19"/>
+    </row>
+    <row r="91" ht="15" spans="2:22">
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="15"/>
       <c r="F91" s="16"/>
       <c r="G91" s="14"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="21"/>
-    </row>
-    <row r="92" ht="16.5" spans="2:19">
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="17"/>
+      <c r="V91" s="19"/>
+    </row>
+    <row r="92" ht="15" spans="2:22">
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="15"/>
       <c r="F92" s="16"/>
       <c r="G92" s="14"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="21"/>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="21"/>
-    </row>
-    <row r="93" ht="16.5" spans="2:19">
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="17"/>
+      <c r="V92" s="19"/>
+    </row>
+    <row r="93" ht="15" spans="2:22">
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="15"/>
       <c r="F93" s="16"/>
       <c r="G93" s="14"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="21"/>
-      <c r="Q93" s="17"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="21"/>
-    </row>
-    <row r="94" ht="16.5" spans="2:19">
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="17"/>
+      <c r="V93" s="19"/>
+    </row>
+    <row r="94" ht="15" spans="2:22">
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="15"/>
       <c r="F94" s="16"/>
       <c r="G94" s="14"/>
-      <c r="M94" s="21"/>
-      <c r="N94" s="21"/>
-      <c r="O94" s="21"/>
-      <c r="Q94" s="17"/>
-      <c r="R94" s="17"/>
-      <c r="S94" s="21"/>
-    </row>
-    <row r="95" ht="16.5" spans="2:19">
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="17"/>
+      <c r="V94" s="19"/>
+    </row>
+    <row r="95" ht="15" spans="2:22">
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="15"/>
       <c r="F95" s="17"/>
       <c r="G95" s="14"/>
-      <c r="O95" s="21"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="21"/>
-    </row>
-    <row r="96" ht="16.5" spans="2:19">
+      <c r="R95" s="19"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="17"/>
+      <c r="V95" s="19"/>
+    </row>
+    <row r="96" ht="15" spans="2:22">
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
       <c r="D96" s="15"/>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
-      <c r="M96" s="21"/>
-      <c r="N96" s="21"/>
-      <c r="O96" s="21"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="21"/>
-    </row>
-    <row r="97" ht="16.5" spans="2:19">
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="17"/>
+      <c r="V96" s="19"/>
+    </row>
+    <row r="97" ht="15" spans="2:22">
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
       <c r="D97" s="15"/>
       <c r="F97" s="16"/>
       <c r="G97" s="14"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
-      <c r="O97" s="21"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="21"/>
-    </row>
-    <row r="98" ht="16.5" spans="2:19">
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="19"/>
+    </row>
+    <row r="98" ht="15" spans="2:22">
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
       <c r="D98" s="15"/>
       <c r="F98" s="16"/>
       <c r="G98" s="14"/>
-      <c r="M98" s="21"/>
-      <c r="N98" s="21"/>
-      <c r="O98" s="21"/>
-      <c r="Q98" s="17"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="21"/>
-    </row>
-    <row r="99" ht="16.5" spans="2:19">
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="17"/>
+      <c r="V98" s="19"/>
+    </row>
+    <row r="99" ht="15" spans="2:22">
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
       <c r="D99" s="15"/>
       <c r="F99" s="16"/>
       <c r="G99" s="14"/>
-      <c r="M99" s="21"/>
-      <c r="N99" s="21"/>
-      <c r="O99" s="21"/>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="21"/>
-    </row>
-    <row r="100" ht="16.5" spans="2:19">
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="17"/>
+      <c r="V99" s="19"/>
+    </row>
+    <row r="100" ht="15" spans="2:22">
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
       <c r="D100" s="15"/>
       <c r="F100" s="16"/>
       <c r="G100" s="14"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="21"/>
-      <c r="Q100" s="17"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="21"/>
-    </row>
-    <row r="101" ht="16.5" spans="2:19">
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="17"/>
+      <c r="V100" s="19"/>
+    </row>
+    <row r="101" ht="15" spans="2:22">
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
       <c r="D101" s="15"/>
       <c r="F101" s="17"/>
       <c r="G101" s="14"/>
-      <c r="O101" s="21"/>
-      <c r="Q101" s="17"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="21"/>
-    </row>
-    <row r="102" ht="16.5" spans="2:19">
+      <c r="R101" s="19"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="17"/>
+      <c r="V101" s="19"/>
+    </row>
+    <row r="102" ht="15" spans="2:22">
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
       <c r="D102" s="15"/>
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="21"/>
-      <c r="O102" s="21"/>
-      <c r="Q102" s="17"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="21"/>
-    </row>
-    <row r="103" ht="16.5" spans="2:19">
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
+      <c r="T102" s="17"/>
+      <c r="U102" s="17"/>
+      <c r="V102" s="19"/>
+    </row>
+    <row r="103" ht="15" spans="2:22">
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
       <c r="D103" s="15"/>
       <c r="F103" s="16"/>
       <c r="G103" s="14"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="21"/>
-      <c r="Q103" s="17"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="21"/>
-    </row>
-    <row r="104" ht="16.5" spans="2:19">
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="17"/>
+      <c r="V103" s="19"/>
+    </row>
+    <row r="104" ht="15" spans="2:22">
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="15"/>
       <c r="F104" s="16"/>
       <c r="G104" s="14"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="21"/>
-      <c r="Q104" s="17"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="21"/>
-    </row>
-    <row r="105" ht="16.5" spans="2:19">
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="17"/>
+      <c r="V104" s="19"/>
+    </row>
+    <row r="105" ht="15" spans="2:22">
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
       <c r="D105" s="15"/>
       <c r="F105" s="16"/>
       <c r="G105" s="14"/>
-      <c r="M105" s="21"/>
-      <c r="N105" s="21"/>
-      <c r="O105" s="21"/>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="21"/>
-    </row>
-    <row r="106" ht="16.5" spans="2:19">
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="17"/>
+      <c r="V105" s="19"/>
+    </row>
+    <row r="106" ht="15" spans="2:22">
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
       <c r="D106" s="15"/>
       <c r="F106" s="16"/>
       <c r="G106" s="14"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="21"/>
-      <c r="O106" s="21"/>
-      <c r="Q106" s="17"/>
-      <c r="R106" s="17"/>
-      <c r="S106" s="21"/>
-    </row>
-    <row r="107" ht="16.5" spans="2:19">
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="17"/>
+      <c r="V106" s="19"/>
+    </row>
+    <row r="107" ht="15" spans="2:22">
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
-      <c r="O107" s="21"/>
-      <c r="Q107" s="17"/>
-      <c r="R107" s="17"/>
-      <c r="S107" s="21"/>
-    </row>
-    <row r="108" ht="16.5" spans="2:19">
+      <c r="R107" s="19"/>
+      <c r="T107" s="17"/>
+      <c r="U107" s="17"/>
+      <c r="V107" s="19"/>
+    </row>
+    <row r="108" ht="15" spans="2:22">
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
       <c r="D108" s="15"/>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="21"/>
-      <c r="O108" s="21"/>
-      <c r="Q108" s="17"/>
-      <c r="R108" s="17"/>
-      <c r="S108" s="21"/>
-    </row>
-    <row r="109" ht="16.5" spans="2:19">
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="17"/>
+      <c r="V108" s="19"/>
+    </row>
+    <row r="109" ht="15" spans="2:22">
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
       <c r="D109" s="15"/>
       <c r="F109" s="16"/>
       <c r="G109" s="14"/>
-      <c r="M109" s="21"/>
-      <c r="N109" s="21"/>
-      <c r="O109" s="21"/>
-      <c r="Q109" s="17"/>
-      <c r="R109" s="17"/>
-      <c r="S109" s="21"/>
-    </row>
-    <row r="110" ht="16.5" spans="2:19">
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="17"/>
+      <c r="V109" s="19"/>
+    </row>
+    <row r="110" ht="15" spans="2:22">
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
       <c r="D110" s="15"/>
       <c r="F110" s="16"/>
       <c r="G110" s="14"/>
-      <c r="M110" s="21"/>
-      <c r="N110" s="21"/>
-      <c r="O110" s="21"/>
-      <c r="Q110" s="17"/>
-      <c r="R110" s="17"/>
-      <c r="S110" s="21"/>
-    </row>
-    <row r="111" ht="16.5" spans="2:19">
+      <c r="P110" s="19"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="19"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="17"/>
+      <c r="V110" s="19"/>
+    </row>
+    <row r="111" ht="15" spans="2:22">
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
       <c r="D111" s="15"/>
       <c r="F111" s="16"/>
       <c r="G111" s="14"/>
-      <c r="M111" s="21"/>
-      <c r="N111" s="21"/>
-      <c r="O111" s="21"/>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="17"/>
-      <c r="S111" s="21"/>
-    </row>
-    <row r="112" ht="16.5" spans="2:19">
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
+      <c r="T111" s="17"/>
+      <c r="U111" s="17"/>
+      <c r="V111" s="19"/>
+    </row>
+    <row r="112" ht="15" spans="2:22">
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
       <c r="D112" s="15"/>
       <c r="F112" s="16"/>
       <c r="G112" s="14"/>
-      <c r="M112" s="21"/>
-      <c r="N112" s="21"/>
-      <c r="O112" s="21"/>
-      <c r="Q112" s="17"/>
-      <c r="R112" s="17"/>
-      <c r="S112" s="21"/>
-    </row>
-    <row r="113" ht="16.5" spans="6:15">
+      <c r="P112" s="19"/>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="19"/>
+      <c r="T112" s="17"/>
+      <c r="U112" s="17"/>
+      <c r="V112" s="19"/>
+    </row>
+    <row r="113" ht="15" spans="6:18">
       <c r="F113" s="16"/>
-      <c r="H113" s="21"/>
-      <c r="I113" s="21"/>
-      <c r="M113" s="21"/>
-      <c r="N113" s="21"/>
-      <c r="O113" s="21"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="P113" s="19"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="19"/>
     </row>
     <row r="114" spans="6:6">
-      <c r="F114" s="22"/>
+      <c r="F114" s="18"/>
     </row>
     <row r="115" spans="6:6">
-      <c r="F115" s="22"/>
+      <c r="F115" s="18"/>
     </row>
     <row r="116" spans="6:6">
-      <c r="F116" s="22"/>
+      <c r="F116" s="18"/>
     </row>
     <row r="117" spans="6:6">
-      <c r="F117" s="22"/>
+      <c r="F117" s="18"/>
     </row>
     <row r="118" spans="6:6">
-      <c r="F118" s="22"/>
+      <c r="F118" s="18"/>
     </row>
     <row r="119" spans="6:6">
-      <c r="F119" s="22"/>
+      <c r="F119" s="18"/>
     </row>
     <row r="120" spans="6:6">
-      <c r="F120" s="22"/>
+      <c r="F120" s="18"/>
     </row>
     <row r="121" spans="6:6">
-      <c r="F121" s="22"/>
+      <c r="F121" s="18"/>
     </row>
     <row r="122" spans="6:6">
-      <c r="F122" s="22"/>
+      <c r="F122" s="18"/>
     </row>
     <row r="123" spans="6:6">
-      <c r="F123" s="22"/>
+      <c r="F123" s="18"/>
     </row>
     <row r="124" spans="6:6">
-      <c r="F124" s="22"/>
+      <c r="F124" s="18"/>
     </row>
     <row r="125" spans="6:6">
-      <c r="F125" s="22"/>
+      <c r="F125" s="18"/>
     </row>
     <row r="126" spans="6:6">
-      <c r="F126" s="22"/>
+      <c r="F126" s="18"/>
     </row>
     <row r="127" spans="6:6">
-      <c r="F127" s="22"/>
+      <c r="F127" s="18"/>
     </row>
     <row r="128" spans="6:6">
-      <c r="F128" s="22"/>
+      <c r="F128" s="18"/>
     </row>
     <row r="129" spans="6:6">
-      <c r="F129" s="22"/>
+      <c r="F129" s="18"/>
     </row>
     <row r="130" spans="6:6">
-      <c r="F130" s="22"/>
+      <c r="F130" s="18"/>
     </row>
     <row r="131" spans="6:6">
-      <c r="F131" s="22"/>
+      <c r="F131" s="18"/>
     </row>
     <row r="132" spans="6:6">
-      <c r="F132" s="22"/>
+      <c r="F132" s="18"/>
     </row>
     <row r="133" spans="6:6">
-      <c r="F133" s="22"/>
+      <c r="F133" s="18"/>
     </row>
     <row r="134" spans="6:6">
-      <c r="F134" s="22"/>
+      <c r="F134" s="18"/>
     </row>
     <row r="135" spans="6:6">
-      <c r="F135" s="22"/>
+      <c r="F135" s="18"/>
     </row>
     <row r="136" spans="6:6">
-      <c r="F136" s="22"/>
+      <c r="F136" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3719,213 +3926,213 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:22">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:22">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -3990,10 +4197,10 @@
         <v>1</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15" spans="1:22">
       <c r="A5" s="1">
         <v>10001</v>
       </c>
@@ -4035,10 +4242,10 @@
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:22">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15" spans="1:22">
       <c r="A6" s="1">
         <v>10002</v>
       </c>
@@ -4082,10 +4289,10 @@
         <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:22">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15" spans="1:22">
       <c r="A7" s="1">
         <v>10003</v>
       </c>
@@ -4129,10 +4336,10 @@
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:22">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:22">
       <c r="A8" s="1">
         <v>10004</v>
       </c>
@@ -4176,10 +4383,10 @@
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:22">
       <c r="A9" s="1">
         <v>10005</v>
       </c>
@@ -4223,10 +4430,10 @@
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:22">
       <c r="A10" s="1">
         <v>10006</v>
       </c>
@@ -4270,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/Levelcondition.xlsx
+++ b/配置表/Levelcondition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20827" windowHeight="11175"/>
+    <workbookView windowHeight="26520"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -1942,28 +1942,28 @@
   <sheetPr/>
   <dimension ref="A1:V136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:L21"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.7256637168142" customWidth="1"/>
-    <col min="2" max="2" width="38.3628318584071" customWidth="1"/>
-    <col min="3" max="3" width="31.1858407079646" customWidth="1"/>
-    <col min="4" max="4" width="28.0176991150442" customWidth="1"/>
-    <col min="5" max="5" width="23.5044247787611" customWidth="1"/>
-    <col min="6" max="7" width="30.5398230088496" customWidth="1"/>
-    <col min="9" max="10" width="19.3628318584071" customWidth="1"/>
-    <col min="11" max="11" width="37.4424778761062" customWidth="1"/>
-    <col min="12" max="12" width="19.3628318584071" customWidth="1"/>
-    <col min="13" max="13" width="25.7256637168142" customWidth="1"/>
-    <col min="14" max="14" width="13.8141592920354" customWidth="1"/>
-    <col min="15" max="15" width="13.3628318584071" customWidth="1"/>
-    <col min="16" max="16" width="13.5486725663717" customWidth="1"/>
+    <col min="1" max="1" width="13.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="38.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="31.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="28.0181818181818" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="7" width="30.5363636363636" customWidth="1"/>
+    <col min="9" max="10" width="19.3636363636364" customWidth="1"/>
+    <col min="11" max="11" width="37.4454545454545" customWidth="1"/>
+    <col min="12" max="12" width="19.3636363636364" customWidth="1"/>
+    <col min="13" max="13" width="25.7272727272727" customWidth="1"/>
+    <col min="14" max="14" width="13.8181818181818" customWidth="1"/>
+    <col min="15" max="15" width="13.3636363636364" customWidth="1"/>
+    <col min="16" max="16" width="13.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="15" spans="1:16">
+    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:16">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="15" spans="1:16">
+    <row r="3" s="9" customFormat="1" ht="16.5" spans="1:16">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" s="10" customFormat="1" ht="15" spans="1:22">
+    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:22">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
     </row>
-    <row r="5" ht="15" spans="2:22">
+    <row r="5" ht="16.5" spans="2:22">
       <c r="B5" s="14">
         <v>30101</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="U5" s="17"/>
       <c r="V5" s="19"/>
     </row>
-    <row r="6" ht="15" spans="2:22">
+    <row r="6" ht="16.5" spans="2:22">
       <c r="B6" s="14">
         <v>30102</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="U6" s="17"/>
       <c r="V6" s="19"/>
     </row>
-    <row r="7" ht="15" spans="2:22">
+    <row r="7" ht="16.5" spans="2:22">
       <c r="B7" s="14">
         <v>30103</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="U7" s="17"/>
       <c r="V7" s="19"/>
     </row>
-    <row r="8" ht="15" spans="2:22">
+    <row r="8" ht="16.5" spans="2:22">
       <c r="B8" s="14">
         <v>30104</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="U8" s="17"/>
       <c r="V8" s="19"/>
     </row>
-    <row r="9" ht="15" spans="2:22">
+    <row r="9" ht="16.5" spans="2:22">
       <c r="B9" s="14">
         <v>30105</v>
       </c>
@@ -2291,7 +2291,7 @@
       <c r="U9" s="17"/>
       <c r="V9" s="19"/>
     </row>
-    <row r="10" ht="15" spans="2:22">
+    <row r="10" ht="16.5" spans="2:22">
       <c r="B10" s="14">
         <v>30106</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="U10" s="17"/>
       <c r="V10" s="19"/>
     </row>
-    <row r="11" ht="15" spans="2:22">
+    <row r="11" ht="16.5" spans="2:22">
       <c r="B11" s="14">
         <v>30107</v>
       </c>
@@ -2346,14 +2346,14 @@
         <v>34</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" s="19"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="19"/>
     </row>
-    <row r="12" ht="15" spans="2:22">
+    <row r="12" ht="16.5" spans="2:22">
       <c r="B12" s="14">
         <v>30108</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>34</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -2385,7 +2385,7 @@
       <c r="U12" s="17"/>
       <c r="V12" s="19"/>
     </row>
-    <row r="13" ht="15" spans="2:22">
+    <row r="13" ht="16.5" spans="2:22">
       <c r="B13" s="14">
         <v>30109</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>34</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -2417,7 +2417,7 @@
       <c r="U13" s="17"/>
       <c r="V13" s="19"/>
     </row>
-    <row r="14" ht="15" spans="2:22">
+    <row r="14" ht="16.5" spans="2:22">
       <c r="B14" s="14">
         <v>30201</v>
       </c>
@@ -2449,7 +2449,7 @@
       <c r="U14" s="17"/>
       <c r="V14" s="19"/>
     </row>
-    <row r="15" ht="15" spans="2:22">
+    <row r="15" ht="16.5" spans="2:22">
       <c r="B15" s="14">
         <v>30202</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="U15" s="17"/>
       <c r="V15" s="19"/>
     </row>
-    <row r="16" ht="15" spans="2:22">
+    <row r="16" ht="16.5" spans="2:22">
       <c r="B16" s="14">
         <v>30203</v>
       </c>
@@ -2513,7 +2513,7 @@
       <c r="U16" s="17"/>
       <c r="V16" s="19"/>
     </row>
-    <row r="17" ht="15" spans="2:22">
+    <row r="17" ht="16.5" spans="2:22">
       <c r="B17" s="14">
         <v>30204</v>
       </c>
@@ -2536,14 +2536,14 @@
         <v>34</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17" s="19"/>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
       <c r="V17" s="19"/>
     </row>
-    <row r="18" ht="15" spans="2:22">
+    <row r="18" ht="16.5" spans="2:22">
       <c r="B18" s="14">
         <v>30205</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>34</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
@@ -2575,7 +2575,7 @@
       <c r="U18" s="17"/>
       <c r="V18" s="19"/>
     </row>
-    <row r="19" ht="15" spans="2:22">
+    <row r="19" ht="16.5" spans="2:22">
       <c r="B19" s="14">
         <v>30206</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>34</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
@@ -2607,7 +2607,7 @@
       <c r="U19" s="17"/>
       <c r="V19" s="19"/>
     </row>
-    <row r="20" ht="15" spans="2:22">
+    <row r="20" ht="16.5" spans="2:22">
       <c r="B20" s="14">
         <v>30301</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="U20" s="17"/>
       <c r="V20" s="19"/>
     </row>
-    <row r="21" ht="15" spans="2:22">
+    <row r="21" ht="16.5" spans="2:22">
       <c r="B21" s="14">
         <v>30302</v>
       </c>
@@ -2671,7 +2671,7 @@
       <c r="U21" s="17"/>
       <c r="V21" s="19"/>
     </row>
-    <row r="22" ht="15" spans="2:22">
+    <row r="22" ht="16.5" spans="2:22">
       <c r="B22" s="14">
         <v>30401</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="U22" s="17"/>
       <c r="V22" s="19"/>
     </row>
-    <row r="23" ht="15" spans="2:22">
+    <row r="23" ht="16.5" spans="2:22">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -2701,7 +2701,7 @@
       <c r="U23" s="17"/>
       <c r="V23" s="19"/>
     </row>
-    <row r="24" ht="15" spans="2:22">
+    <row r="24" ht="16.5" spans="2:22">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
@@ -2714,7 +2714,7 @@
       <c r="U24" s="17"/>
       <c r="V24" s="19"/>
     </row>
-    <row r="25" ht="15" spans="2:22">
+    <row r="25" ht="16.5" spans="2:22">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
@@ -2727,7 +2727,7 @@
       <c r="U25" s="17"/>
       <c r="V25" s="19"/>
     </row>
-    <row r="26" ht="15" spans="2:22">
+    <row r="26" ht="16.5" spans="2:22">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
@@ -2740,7 +2740,7 @@
       <c r="U26" s="17"/>
       <c r="V26" s="19"/>
     </row>
-    <row r="27" ht="15" spans="2:22">
+    <row r="27" ht="16.5" spans="2:22">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
@@ -2753,7 +2753,7 @@
       <c r="U27" s="17"/>
       <c r="V27" s="19"/>
     </row>
-    <row r="28" ht="15" spans="2:22">
+    <row r="28" ht="16.5" spans="2:22">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
@@ -2766,7 +2766,7 @@
       <c r="U28" s="17"/>
       <c r="V28" s="19"/>
     </row>
-    <row r="29" ht="15" spans="2:22">
+    <row r="29" ht="16.5" spans="2:22">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
@@ -2777,7 +2777,7 @@
       <c r="U29" s="17"/>
       <c r="V29" s="19"/>
     </row>
-    <row r="30" ht="15" spans="2:22">
+    <row r="30" ht="16.5" spans="2:22">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
@@ -2790,7 +2790,7 @@
       <c r="U30" s="17"/>
       <c r="V30" s="19"/>
     </row>
-    <row r="31" ht="15" spans="2:22">
+    <row r="31" ht="16.5" spans="2:22">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
@@ -2803,7 +2803,7 @@
       <c r="U31" s="17"/>
       <c r="V31" s="19"/>
     </row>
-    <row r="32" ht="15" spans="2:22">
+    <row r="32" ht="16.5" spans="2:22">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
@@ -2816,7 +2816,7 @@
       <c r="U32" s="17"/>
       <c r="V32" s="19"/>
     </row>
-    <row r="33" ht="15" spans="2:22">
+    <row r="33" ht="16.5" spans="2:22">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
@@ -2829,7 +2829,7 @@
       <c r="U33" s="17"/>
       <c r="V33" s="19"/>
     </row>
-    <row r="34" ht="15" spans="2:22">
+    <row r="34" ht="16.5" spans="2:22">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
@@ -2842,7 +2842,7 @@
       <c r="U34" s="17"/>
       <c r="V34" s="19"/>
     </row>
-    <row r="35" ht="15" spans="2:22">
+    <row r="35" ht="16.5" spans="2:22">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="15"/>
@@ -2853,7 +2853,7 @@
       <c r="U35" s="17"/>
       <c r="V35" s="19"/>
     </row>
-    <row r="36" ht="15" spans="2:22">
+    <row r="36" ht="16.5" spans="2:22">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
@@ -2866,7 +2866,7 @@
       <c r="U36" s="17"/>
       <c r="V36" s="19"/>
     </row>
-    <row r="37" ht="15" spans="2:22">
+    <row r="37" ht="16.5" spans="2:22">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
@@ -2879,7 +2879,7 @@
       <c r="U37" s="17"/>
       <c r="V37" s="19"/>
     </row>
-    <row r="38" ht="15" spans="2:22">
+    <row r="38" ht="16.5" spans="2:22">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
@@ -2892,7 +2892,7 @@
       <c r="U38" s="17"/>
       <c r="V38" s="19"/>
     </row>
-    <row r="39" ht="15" spans="2:22">
+    <row r="39" ht="16.5" spans="2:22">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
@@ -2905,7 +2905,7 @@
       <c r="U39" s="17"/>
       <c r="V39" s="19"/>
     </row>
-    <row r="40" ht="15" spans="2:22">
+    <row r="40" ht="16.5" spans="2:22">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="15"/>
@@ -2918,7 +2918,7 @@
       <c r="U40" s="17"/>
       <c r="V40" s="19"/>
     </row>
-    <row r="41" ht="15" spans="2:22">
+    <row r="41" ht="16.5" spans="2:22">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
@@ -2929,7 +2929,7 @@
       <c r="U41" s="17"/>
       <c r="V41" s="19"/>
     </row>
-    <row r="42" ht="15" spans="2:22">
+    <row r="42" ht="16.5" spans="2:22">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="15"/>
@@ -2942,7 +2942,7 @@
       <c r="U42" s="17"/>
       <c r="V42" s="19"/>
     </row>
-    <row r="43" ht="15" spans="2:22">
+    <row r="43" ht="16.5" spans="2:22">
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
@@ -2955,7 +2955,7 @@
       <c r="U43" s="17"/>
       <c r="V43" s="19"/>
     </row>
-    <row r="44" ht="15" spans="2:22">
+    <row r="44" ht="16.5" spans="2:22">
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="15"/>
@@ -2968,7 +2968,7 @@
       <c r="U44" s="17"/>
       <c r="V44" s="19"/>
     </row>
-    <row r="45" ht="15" spans="2:22">
+    <row r="45" ht="16.5" spans="2:22">
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="15"/>
@@ -2981,7 +2981,7 @@
       <c r="U45" s="17"/>
       <c r="V45" s="19"/>
     </row>
-    <row r="46" ht="15" spans="2:22">
+    <row r="46" ht="16.5" spans="2:22">
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
@@ -2994,7 +2994,7 @@
       <c r="U46" s="17"/>
       <c r="V46" s="19"/>
     </row>
-    <row r="47" ht="15" spans="2:22">
+    <row r="47" ht="16.5" spans="2:22">
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="15"/>
@@ -3005,7 +3005,7 @@
       <c r="U47" s="17"/>
       <c r="V47" s="19"/>
     </row>
-    <row r="48" ht="15" spans="2:22">
+    <row r="48" ht="16.5" spans="2:22">
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="15"/>
@@ -3018,7 +3018,7 @@
       <c r="U48" s="17"/>
       <c r="V48" s="19"/>
     </row>
-    <row r="49" ht="15" spans="2:22">
+    <row r="49" ht="16.5" spans="2:22">
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="15"/>
@@ -3031,7 +3031,7 @@
       <c r="U49" s="17"/>
       <c r="V49" s="19"/>
     </row>
-    <row r="50" ht="15" spans="2:22">
+    <row r="50" ht="16.5" spans="2:22">
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="15"/>
@@ -3044,7 +3044,7 @@
       <c r="U50" s="17"/>
       <c r="V50" s="19"/>
     </row>
-    <row r="51" ht="15" spans="2:22">
+    <row r="51" ht="16.5" spans="2:22">
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="15"/>
@@ -3057,7 +3057,7 @@
       <c r="U51" s="17"/>
       <c r="V51" s="19"/>
     </row>
-    <row r="52" ht="15" spans="2:22">
+    <row r="52" ht="16.5" spans="2:22">
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="15"/>
@@ -3070,7 +3070,7 @@
       <c r="U52" s="17"/>
       <c r="V52" s="19"/>
     </row>
-    <row r="53" ht="15" spans="2:22">
+    <row r="53" ht="16.5" spans="2:22">
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="15"/>
@@ -3081,7 +3081,7 @@
       <c r="U53" s="17"/>
       <c r="V53" s="19"/>
     </row>
-    <row r="54" ht="15" spans="2:22">
+    <row r="54" ht="16.5" spans="2:22">
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="15"/>
@@ -3094,7 +3094,7 @@
       <c r="U54" s="17"/>
       <c r="V54" s="19"/>
     </row>
-    <row r="55" ht="15" spans="2:22">
+    <row r="55" ht="16.5" spans="2:22">
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="15"/>
@@ -3107,7 +3107,7 @@
       <c r="U55" s="17"/>
       <c r="V55" s="19"/>
     </row>
-    <row r="56" ht="15" spans="2:22">
+    <row r="56" ht="16.5" spans="2:22">
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="15"/>
@@ -3120,7 +3120,7 @@
       <c r="U56" s="17"/>
       <c r="V56" s="19"/>
     </row>
-    <row r="57" ht="15" spans="2:22">
+    <row r="57" ht="16.5" spans="2:22">
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="15"/>
@@ -3133,7 +3133,7 @@
       <c r="U57" s="17"/>
       <c r="V57" s="19"/>
     </row>
-    <row r="58" ht="15" spans="2:22">
+    <row r="58" ht="16.5" spans="2:22">
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
       <c r="D58" s="15"/>
@@ -3146,7 +3146,7 @@
       <c r="U58" s="17"/>
       <c r="V58" s="19"/>
     </row>
-    <row r="59" ht="15" spans="2:22">
+    <row r="59" ht="16.5" spans="2:22">
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="15"/>
@@ -3157,7 +3157,7 @@
       <c r="U59" s="17"/>
       <c r="V59" s="19"/>
     </row>
-    <row r="60" ht="15" spans="2:22">
+    <row r="60" ht="16.5" spans="2:22">
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="15"/>
@@ -3170,7 +3170,7 @@
       <c r="U60" s="17"/>
       <c r="V60" s="19"/>
     </row>
-    <row r="61" ht="15" spans="2:22">
+    <row r="61" ht="16.5" spans="2:22">
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="15"/>
@@ -3183,7 +3183,7 @@
       <c r="U61" s="17"/>
       <c r="V61" s="19"/>
     </row>
-    <row r="62" ht="15" spans="2:22">
+    <row r="62" ht="16.5" spans="2:22">
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="15"/>
@@ -3196,7 +3196,7 @@
       <c r="U62" s="17"/>
       <c r="V62" s="19"/>
     </row>
-    <row r="63" ht="15" spans="2:22">
+    <row r="63" ht="16.5" spans="2:22">
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="15"/>
@@ -3209,7 +3209,7 @@
       <c r="U63" s="17"/>
       <c r="V63" s="19"/>
     </row>
-    <row r="64" ht="15" spans="2:22">
+    <row r="64" ht="16.5" spans="2:22">
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="15"/>
@@ -3222,7 +3222,7 @@
       <c r="U64" s="17"/>
       <c r="V64" s="19"/>
     </row>
-    <row r="65" ht="15" spans="2:22">
+    <row r="65" ht="16.5" spans="2:22">
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="15"/>
@@ -3233,7 +3233,7 @@
       <c r="U65" s="17"/>
       <c r="V65" s="19"/>
     </row>
-    <row r="66" ht="15" spans="2:22">
+    <row r="66" ht="16.5" spans="2:22">
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="15"/>
@@ -3246,7 +3246,7 @@
       <c r="U66" s="17"/>
       <c r="V66" s="19"/>
     </row>
-    <row r="67" ht="15" spans="2:22">
+    <row r="67" ht="16.5" spans="2:22">
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="15"/>
@@ -3259,7 +3259,7 @@
       <c r="U67" s="17"/>
       <c r="V67" s="19"/>
     </row>
-    <row r="68" ht="15" spans="2:22">
+    <row r="68" ht="16.5" spans="2:22">
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="15"/>
@@ -3272,7 +3272,7 @@
       <c r="U68" s="17"/>
       <c r="V68" s="19"/>
     </row>
-    <row r="69" ht="15" spans="2:22">
+    <row r="69" ht="16.5" spans="2:22">
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15"/>
@@ -3285,7 +3285,7 @@
       <c r="U69" s="17"/>
       <c r="V69" s="19"/>
     </row>
-    <row r="70" ht="15" spans="2:22">
+    <row r="70" ht="16.5" spans="2:22">
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
       <c r="D70" s="15"/>
@@ -3298,7 +3298,7 @@
       <c r="U70" s="17"/>
       <c r="V70" s="19"/>
     </row>
-    <row r="71" ht="15" spans="2:22">
+    <row r="71" ht="16.5" spans="2:22">
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
       <c r="D71" s="15"/>
@@ -3309,7 +3309,7 @@
       <c r="U71" s="17"/>
       <c r="V71" s="19"/>
     </row>
-    <row r="72" ht="15" spans="2:22">
+    <row r="72" ht="16.5" spans="2:22">
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
       <c r="D72" s="15"/>
@@ -3322,7 +3322,7 @@
       <c r="U72" s="17"/>
       <c r="V72" s="19"/>
     </row>
-    <row r="73" ht="15" spans="2:22">
+    <row r="73" ht="16.5" spans="2:22">
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
       <c r="D73" s="15"/>
@@ -3335,7 +3335,7 @@
       <c r="U73" s="17"/>
       <c r="V73" s="19"/>
     </row>
-    <row r="74" ht="15" spans="2:22">
+    <row r="74" ht="16.5" spans="2:22">
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
       <c r="D74" s="15"/>
@@ -3348,7 +3348,7 @@
       <c r="U74" s="17"/>
       <c r="V74" s="19"/>
     </row>
-    <row r="75" ht="15" spans="2:22">
+    <row r="75" ht="16.5" spans="2:22">
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
       <c r="D75" s="15"/>
@@ -3361,7 +3361,7 @@
       <c r="U75" s="17"/>
       <c r="V75" s="19"/>
     </row>
-    <row r="76" ht="15" spans="2:22">
+    <row r="76" ht="16.5" spans="2:22">
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
       <c r="D76" s="15"/>
@@ -3374,7 +3374,7 @@
       <c r="U76" s="17"/>
       <c r="V76" s="19"/>
     </row>
-    <row r="77" ht="15" spans="2:22">
+    <row r="77" ht="16.5" spans="2:22">
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
       <c r="D77" s="15"/>
@@ -3385,7 +3385,7 @@
       <c r="U77" s="17"/>
       <c r="V77" s="19"/>
     </row>
-    <row r="78" ht="15" spans="2:22">
+    <row r="78" ht="16.5" spans="2:22">
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="15"/>
@@ -3398,7 +3398,7 @@
       <c r="U78" s="17"/>
       <c r="V78" s="19"/>
     </row>
-    <row r="79" ht="15" spans="2:22">
+    <row r="79" ht="16.5" spans="2:22">
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
       <c r="D79" s="15"/>
@@ -3411,7 +3411,7 @@
       <c r="U79" s="17"/>
       <c r="V79" s="19"/>
     </row>
-    <row r="80" ht="15" spans="2:22">
+    <row r="80" ht="16.5" spans="2:22">
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
       <c r="D80" s="15"/>
@@ -3424,7 +3424,7 @@
       <c r="U80" s="17"/>
       <c r="V80" s="19"/>
     </row>
-    <row r="81" ht="15" spans="2:22">
+    <row r="81" ht="16.5" spans="2:22">
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
       <c r="D81" s="15"/>
@@ -3437,7 +3437,7 @@
       <c r="U81" s="17"/>
       <c r="V81" s="19"/>
     </row>
-    <row r="82" ht="15" spans="2:22">
+    <row r="82" ht="16.5" spans="2:22">
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
       <c r="D82" s="15"/>
@@ -3450,7 +3450,7 @@
       <c r="U82" s="17"/>
       <c r="V82" s="19"/>
     </row>
-    <row r="83" ht="15" spans="2:22">
+    <row r="83" ht="16.5" spans="2:22">
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="15"/>
@@ -3461,7 +3461,7 @@
       <c r="U83" s="17"/>
       <c r="V83" s="19"/>
     </row>
-    <row r="84" ht="15" spans="2:22">
+    <row r="84" ht="16.5" spans="2:22">
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="15"/>
@@ -3474,7 +3474,7 @@
       <c r="U84" s="17"/>
       <c r="V84" s="19"/>
     </row>
-    <row r="85" ht="15" spans="2:22">
+    <row r="85" ht="16.5" spans="2:22">
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="15"/>
@@ -3487,7 +3487,7 @@
       <c r="U85" s="17"/>
       <c r="V85" s="19"/>
     </row>
-    <row r="86" ht="15" spans="2:22">
+    <row r="86" ht="16.5" spans="2:22">
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
       <c r="D86" s="15"/>
@@ -3500,7 +3500,7 @@
       <c r="U86" s="17"/>
       <c r="V86" s="19"/>
     </row>
-    <row r="87" ht="15" spans="2:22">
+    <row r="87" ht="16.5" spans="2:22">
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
       <c r="D87" s="15"/>
@@ -3513,7 +3513,7 @@
       <c r="U87" s="17"/>
       <c r="V87" s="19"/>
     </row>
-    <row r="88" ht="15" spans="2:22">
+    <row r="88" ht="16.5" spans="2:22">
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="15"/>
@@ -3526,7 +3526,7 @@
       <c r="U88" s="17"/>
       <c r="V88" s="19"/>
     </row>
-    <row r="89" ht="15" spans="2:22">
+    <row r="89" ht="16.5" spans="2:22">
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="15"/>
@@ -3537,7 +3537,7 @@
       <c r="U89" s="17"/>
       <c r="V89" s="19"/>
     </row>
-    <row r="90" ht="15" spans="2:22">
+    <row r="90" ht="16.5" spans="2:22">
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="15"/>
@@ -3550,7 +3550,7 @@
       <c r="U90" s="17"/>
       <c r="V90" s="19"/>
     </row>
-    <row r="91" ht="15" spans="2:22">
+    <row r="91" ht="16.5" spans="2:22">
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="15"/>
@@ -3563,7 +3563,7 @@
       <c r="U91" s="17"/>
       <c r="V91" s="19"/>
     </row>
-    <row r="92" ht="15" spans="2:22">
+    <row r="92" ht="16.5" spans="2:22">
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="15"/>
@@ -3576,7 +3576,7 @@
       <c r="U92" s="17"/>
       <c r="V92" s="19"/>
     </row>
-    <row r="93" ht="15" spans="2:22">
+    <row r="93" ht="16.5" spans="2:22">
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="15"/>
@@ -3589,7 +3589,7 @@
       <c r="U93" s="17"/>
       <c r="V93" s="19"/>
     </row>
-    <row r="94" ht="15" spans="2:22">
+    <row r="94" ht="16.5" spans="2:22">
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="15"/>
@@ -3602,7 +3602,7 @@
       <c r="U94" s="17"/>
       <c r="V94" s="19"/>
     </row>
-    <row r="95" ht="15" spans="2:22">
+    <row r="95" ht="16.5" spans="2:22">
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="15"/>
@@ -3613,7 +3613,7 @@
       <c r="U95" s="17"/>
       <c r="V95" s="19"/>
     </row>
-    <row r="96" ht="15" spans="2:22">
+    <row r="96" ht="16.5" spans="2:22">
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
       <c r="D96" s="15"/>
@@ -3626,7 +3626,7 @@
       <c r="U96" s="17"/>
       <c r="V96" s="19"/>
     </row>
-    <row r="97" ht="15" spans="2:22">
+    <row r="97" ht="16.5" spans="2:22">
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
       <c r="D97" s="15"/>
@@ -3639,7 +3639,7 @@
       <c r="U97" s="17"/>
       <c r="V97" s="19"/>
     </row>
-    <row r="98" ht="15" spans="2:22">
+    <row r="98" ht="16.5" spans="2:22">
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
       <c r="D98" s="15"/>
@@ -3652,7 +3652,7 @@
       <c r="U98" s="17"/>
       <c r="V98" s="19"/>
     </row>
-    <row r="99" ht="15" spans="2:22">
+    <row r="99" ht="16.5" spans="2:22">
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
       <c r="D99" s="15"/>
@@ -3665,7 +3665,7 @@
       <c r="U99" s="17"/>
       <c r="V99" s="19"/>
     </row>
-    <row r="100" ht="15" spans="2:22">
+    <row r="100" ht="16.5" spans="2:22">
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
       <c r="D100" s="15"/>
@@ -3678,7 +3678,7 @@
       <c r="U100" s="17"/>
       <c r="V100" s="19"/>
     </row>
-    <row r="101" ht="15" spans="2:22">
+    <row r="101" ht="16.5" spans="2:22">
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
       <c r="D101" s="15"/>
@@ -3689,7 +3689,7 @@
       <c r="U101" s="17"/>
       <c r="V101" s="19"/>
     </row>
-    <row r="102" ht="15" spans="2:22">
+    <row r="102" ht="16.5" spans="2:22">
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
       <c r="D102" s="15"/>
@@ -3702,7 +3702,7 @@
       <c r="U102" s="17"/>
       <c r="V102" s="19"/>
     </row>
-    <row r="103" ht="15" spans="2:22">
+    <row r="103" ht="16.5" spans="2:22">
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
       <c r="D103" s="15"/>
@@ -3715,7 +3715,7 @@
       <c r="U103" s="17"/>
       <c r="V103" s="19"/>
     </row>
-    <row r="104" ht="15" spans="2:22">
+    <row r="104" ht="16.5" spans="2:22">
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="15"/>
@@ -3728,7 +3728,7 @@
       <c r="U104" s="17"/>
       <c r="V104" s="19"/>
     </row>
-    <row r="105" ht="15" spans="2:22">
+    <row r="105" ht="16.5" spans="2:22">
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
       <c r="D105" s="15"/>
@@ -3741,7 +3741,7 @@
       <c r="U105" s="17"/>
       <c r="V105" s="19"/>
     </row>
-    <row r="106" ht="15" spans="2:22">
+    <row r="106" ht="16.5" spans="2:22">
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
       <c r="D106" s="15"/>
@@ -3754,7 +3754,7 @@
       <c r="U106" s="17"/>
       <c r="V106" s="19"/>
     </row>
-    <row r="107" ht="15" spans="2:22">
+    <row r="107" ht="16.5" spans="2:22">
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
@@ -3765,7 +3765,7 @@
       <c r="U107" s="17"/>
       <c r="V107" s="19"/>
     </row>
-    <row r="108" ht="15" spans="2:22">
+    <row r="108" ht="16.5" spans="2:22">
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
       <c r="D108" s="15"/>
@@ -3778,7 +3778,7 @@
       <c r="U108" s="17"/>
       <c r="V108" s="19"/>
     </row>
-    <row r="109" ht="15" spans="2:22">
+    <row r="109" ht="16.5" spans="2:22">
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
       <c r="D109" s="15"/>
@@ -3791,7 +3791,7 @@
       <c r="U109" s="17"/>
       <c r="V109" s="19"/>
     </row>
-    <row r="110" ht="15" spans="2:22">
+    <row r="110" ht="16.5" spans="2:22">
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
       <c r="D110" s="15"/>
@@ -3804,7 +3804,7 @@
       <c r="U110" s="17"/>
       <c r="V110" s="19"/>
     </row>
-    <row r="111" ht="15" spans="2:22">
+    <row r="111" ht="16.5" spans="2:22">
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
       <c r="D111" s="15"/>
@@ -3817,7 +3817,7 @@
       <c r="U111" s="17"/>
       <c r="V111" s="19"/>
     </row>
-    <row r="112" ht="15" spans="2:22">
+    <row r="112" ht="16.5" spans="2:22">
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
       <c r="D112" s="15"/>
@@ -3830,7 +3830,7 @@
       <c r="U112" s="17"/>
       <c r="V112" s="19"/>
     </row>
-    <row r="113" ht="15" spans="6:18">
+    <row r="113" ht="16.5" spans="6:18">
       <c r="F113" s="16"/>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3926,7 +3926,7 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -4132,7 +4132,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15" spans="1:22">
+    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15" spans="1:22">
+    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A5" s="1">
         <v>10001</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15" spans="1:22">
+    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A6" s="1">
         <v>10002</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15" spans="1:22">
+    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A7" s="1">
         <v>10003</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15" spans="1:22">
+    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A8" s="1">
         <v>10004</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15" spans="1:22">
+    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A9" s="1">
         <v>10005</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15" spans="1:22">
+    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A10" s="1">
         <v>10006</v>
       </c>

--- a/配置表/Levelcondition.xlsx
+++ b/配置表/Levelcondition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="26520"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
     <t>奖励数量</t>
   </si>
   <si>
-    <t>10;12;14;16;18</t>
+    <t>10;13;15;18;21</t>
   </si>
   <si>
     <t>6000;150000;300000;500000;1000000</t>
@@ -1942,8 +1942,8 @@
   <sheetPr/>
   <dimension ref="A1:V136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
